--- a/开支收入/领航教育账目.xlsx
+++ b/开支收入/领航教育账目.xlsx
@@ -4,35 +4,35 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId8"/>
-    <sheet name="Sheet5" sheetId="10" r:id="rId9"/>
+    <sheet name="装修零散材料" sheetId="1" r:id="rId1"/>
+    <sheet name="装修主要材料" sheetId="2" r:id="rId2"/>
+    <sheet name="装修工资" sheetId="3" r:id="rId3"/>
+    <sheet name="借条" sheetId="4" r:id="rId4"/>
+    <sheet name="办公用品" sheetId="6" r:id="rId5"/>
+    <sheet name="招待费" sheetId="7" r:id="rId6"/>
+    <sheet name="工作人员工资" sheetId="8" r:id="rId7"/>
+    <sheet name="招生宣传、招聘职工" sheetId="9" r:id="rId8"/>
+    <sheet name="收入" sheetId="10" r:id="rId9"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$2:$H$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$2:$H$35</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet3!$A$2:$H$29</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Sheet4!$A$2:$F$22</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Sheet6!$A$2:$H$93</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Sheet7!$A$2:$D$19</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Sheet8!$A$2:$F$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Sheet9!$A$2:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">办公用品!$A$2:$H$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">工作人员工资!$A$2:$F$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">借条!$A$2:$F$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">招待费!$A$2:$D$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">招生宣传、招聘职工!$A$2:$F$16</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">装修工资!$A$2:$H$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">装修零散材料!$A$2:$H$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">装修主要材料!$A$2:$H$35</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="783" uniqueCount="389">
   <si>
     <t>序号</t>
   </si>
@@ -377,9 +377,6 @@
   </si>
   <si>
     <t>装修期间</t>
-  </si>
-  <si>
-    <t>领航教育生活费、借条</t>
   </si>
   <si>
     <t>日期</t>
@@ -543,9 +540,6 @@
     <t>装修工人保险</t>
   </si>
   <si>
-    <t>领航教育办公用品费</t>
-  </si>
-  <si>
     <t>代办公司营业执照</t>
   </si>
   <si>
@@ -721,9 +715,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>招待费</t>
-  </si>
-  <si>
     <t>招待项目</t>
   </si>
   <si>
@@ -767,10 +758,6 @@
   </si>
   <si>
     <t>领航教育装修工人工资表</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>领航教育装修主要材料明细</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1052,10 +1039,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>招生宣传、招聘职工费用</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>恩施民院招聘</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1404,8 +1387,48 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>领航教育装修主要材料明细</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领航教育生活费、借条</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>领航教育办公用品费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招待费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>招生宣传、招聘职工费用</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
     <t>收入</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见附件（估）,已付20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有广告宣传</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>见附件</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1595,7 +1618,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1698,6 +1721,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1737,17 +1772,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2021,7 +2047,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2033,16 +2059,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.1" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>235</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="38" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2064,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -2940,7 +2966,7 @@
         <v>520</v>
       </c>
       <c r="G41" s="24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H41" s="6"/>
     </row>
@@ -3073,10 +3099,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="C48" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>138</v>
       </c>
       <c r="D48" s="10">
         <v>5</v>
@@ -3092,7 +3118,7 @@
     </row>
     <row r="49" spans="1:6" hidden="1">
       <c r="A49" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F49">
         <f>SUM(F3:F48)</f>
@@ -3123,7 +3149,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F34"/>
+      <selection activeCell="F32" sqref="F32:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3137,16 +3163,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="A1" s="39" t="s">
+        <v>378</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3168,7 +3194,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -3443,7 +3469,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:8" ht="30" hidden="1" customHeight="1">
+    <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -3456,9 +3482,11 @@
       <c r="F15" s="6">
         <v>24000</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>385</v>
+      </c>
       <c r="H15" s="6" t="s">
-        <v>84</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" hidden="1" customHeight="1">
@@ -3531,10 +3559,10 @@
         <v>68000</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H19" s="24" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" hidden="1" customHeight="1">
@@ -3585,10 +3613,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D22" s="6">
         <v>606</v>
@@ -3599,11 +3627,11 @@
       <c r="F22" s="6">
         <v>11271.6</v>
       </c>
-      <c r="G22" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="H22" s="36" t="s">
-        <v>244</v>
+      <c r="G22" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="H22" s="40" t="s">
+        <v>240</v>
       </c>
       <c r="J22" s="9"/>
     </row>
@@ -3612,10 +3640,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="6">
         <v>2666</v>
@@ -3626,8 +3654,8 @@
       <c r="F23" s="6">
         <v>27993</v>
       </c>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="30" hidden="1" customHeight="1">
@@ -3635,10 +3663,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D24" s="6">
         <v>85</v>
@@ -3649,8 +3677,8 @@
       <c r="F24" s="6">
         <v>1700</v>
       </c>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="30" hidden="1" customHeight="1">
@@ -3658,10 +3686,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D25" s="6">
         <v>70</v>
@@ -3672,8 +3700,8 @@
       <c r="F25" s="6">
         <v>665</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="G25" s="41"/>
+      <c r="H25" s="41"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" hidden="1" customHeight="1">
@@ -3681,10 +3709,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D26" s="6">
         <v>467</v>
@@ -3695,8 +3723,8 @@
       <c r="F26" s="6">
         <v>1167.5</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
+      <c r="G26" s="41"/>
+      <c r="H26" s="41"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" hidden="1" customHeight="1">
@@ -3704,10 +3732,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D27" s="6">
         <v>1346</v>
@@ -3718,8 +3746,8 @@
       <c r="F27" s="6">
         <v>4038</v>
       </c>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="30" hidden="1" customHeight="1">
@@ -3727,10 +3755,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D28" s="6">
         <v>90</v>
@@ -3741,8 +3769,8 @@
       <c r="F28" s="6">
         <v>2700</v>
       </c>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="30" hidden="1" customHeight="1">
@@ -3750,10 +3778,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D29" s="6">
         <v>240</v>
@@ -3764,8 +3792,8 @@
       <c r="F29" s="6">
         <v>720</v>
       </c>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="30" hidden="1" customHeight="1">
@@ -3773,10 +3801,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D30" s="6">
         <v>72</v>
@@ -3787,8 +3815,8 @@
       <c r="F30" s="6">
         <v>684</v>
       </c>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
+      <c r="G30" s="41"/>
+      <c r="H30" s="41"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="30" hidden="1" customHeight="1">
@@ -3799,7 +3827,7 @@
         <v>93</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D31" s="6">
         <v>1420</v>
@@ -3810,8 +3838,8 @@
       <c r="F31" s="6">
         <v>2272</v>
       </c>
-      <c r="G31" s="38"/>
-      <c r="H31" s="38"/>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1">
@@ -3834,7 +3862,7 @@
         <v>1320</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>96</v>
@@ -3845,10 +3873,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -3860,7 +3888,7 @@
         <v>2000</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -3884,7 +3912,7 @@
         <v>35</v>
       </c>
       <c r="G34" s="23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H34" s="2"/>
     </row>
@@ -3916,11 +3944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F28"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3932,16 +3959,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>233</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="A1" s="38" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3963,7 +3990,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -3974,10 +4001,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="6">
         <v>12</v>
@@ -3988,23 +4015,23 @@
       <c r="F3" s="6">
         <v>360</v>
       </c>
-      <c r="G3" s="39" t="s">
-        <v>238</v>
-      </c>
-      <c r="H3" s="36" t="s">
-        <v>245</v>
+      <c r="G3" s="43" t="s">
+        <v>234</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>241</v>
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="4" spans="1:10" ht="30" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D4" s="6">
         <v>9</v>
@@ -4015,19 +4042,19 @@
       <c r="F4" s="6">
         <v>1800</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="5" spans="1:10" ht="30" customHeight="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D5" s="6">
         <v>2950</v>
@@ -4038,19 +4065,19 @@
       <c r="F5" s="6">
         <v>11800</v>
       </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="6" spans="1:10" ht="30" customHeight="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D6" s="6">
         <v>14875</v>
@@ -4061,11 +4088,11 @@
       <c r="F6" s="6">
         <v>11900</v>
       </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="7" spans="1:10" ht="30" customHeight="1">
       <c r="A7" s="5">
         <v>5</v>
       </c>
@@ -4081,15 +4108,15 @@
       <c r="G7" s="6"/>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="8" spans="1:10" ht="30" customHeight="1">
       <c r="A8" s="6">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D8" s="6">
         <v>1370.83</v>
@@ -4103,15 +4130,15 @@
       <c r="G8" s="6"/>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="9" spans="1:10" ht="30" customHeight="1">
       <c r="A9" s="6">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>147</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>148</v>
       </c>
       <c r="D9" s="6">
         <v>1815.18</v>
@@ -4125,15 +4152,15 @@
       <c r="G9" s="6"/>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="10" spans="1:10" ht="30" customHeight="1">
       <c r="A10" s="6">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D10" s="6">
         <v>311.75</v>
@@ -4147,15 +4174,15 @@
       <c r="G10" s="6"/>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="11" spans="1:10" ht="30" customHeight="1">
       <c r="A11" s="6">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D11" s="6">
         <v>7</v>
@@ -4167,15 +4194,15 @@
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="12" spans="1:10" ht="30" customHeight="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>149</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>150</v>
       </c>
       <c r="D12" s="6">
         <v>60</v>
@@ -4189,12 +4216,12 @@
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="13" spans="1:10" ht="30" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>99</v>
@@ -4211,7 +4238,7 @@
       <c r="G13" s="6"/>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
@@ -4233,7 +4260,7 @@
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
     </row>
-    <row r="15" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="15" spans="1:10" ht="30" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
@@ -4249,7 +4276,7 @@
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:10" ht="30" hidden="1" customHeight="1">
+    <row r="16" spans="1:10" ht="30" customHeight="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -4265,7 +4292,7 @@
       <c r="G16" s="6"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" ht="30" hidden="1" customHeight="1">
+    <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
@@ -4273,7 +4300,7 @@
         <v>103</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -4282,7 +4309,7 @@
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
@@ -4290,7 +4317,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -4299,7 +4326,7 @@
         <v>5000</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H18" s="6" t="s">
         <v>104</v>
@@ -4319,13 +4346,13 @@
         <v>2000</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="30" hidden="1" customHeight="1">
+    <row r="20" spans="1:8" ht="30" customHeight="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
@@ -4341,7 +4368,7 @@
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" ht="30" hidden="1" customHeight="1">
+    <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -4359,7 +4386,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" hidden="1" customHeight="1">
+    <row r="22" spans="1:8" ht="30" customHeight="1">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -4379,7 +4406,7 @@
       <c r="G22" s="6"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" ht="30" hidden="1" customHeight="1">
+    <row r="23" spans="1:8" ht="30" customHeight="1">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -4397,7 +4424,7 @@
       <c r="G23" s="6"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" ht="30" hidden="1" customHeight="1">
+    <row r="24" spans="1:8" ht="30" customHeight="1">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -4413,7 +4440,7 @@
       <c r="G24" s="6"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="30" hidden="1" customHeight="1">
+    <row r="25" spans="1:8" ht="30" customHeight="1">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -4449,7 +4476,7 @@
         <v>2000</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H26" s="2"/>
     </row>
@@ -4467,7 +4494,7 @@
         <v>2000</v>
       </c>
       <c r="G27" s="23" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>114</v>
@@ -4478,10 +4505,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="23" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -4493,26 +4520,40 @@
         <v>3000</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="H28" s="2"/>
     </row>
-    <row r="29" spans="1:8" ht="30" hidden="1" customHeight="1">
-      <c r="A29" t="s">
-        <v>139</v>
-      </c>
-      <c r="F29">
+    <row r="29" spans="1:8" s="8" customFormat="1" ht="14.25">
+      <c r="A29" s="51">
+        <v>27</v>
+      </c>
+      <c r="B29" s="51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51">
+        <v>5000</v>
+      </c>
+      <c r="G29" s="51" t="s">
+        <v>236</v>
+      </c>
+      <c r="H29" s="51"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" t="s">
+        <v>138</v>
+      </c>
+      <c r="F30">
         <f>SUM(F3:F28)</f>
         <v>175910.82</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H29">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A2:H30">
+    <filterColumn colId="6"/>
   </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
@@ -4531,7 +4572,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D12" sqref="D12:D22"/>
     </sheetView>
   </sheetViews>
@@ -4544,14 +4585,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A1" s="34" t="s">
-        <v>115</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
+      <c r="A1" s="38" t="s">
+        <v>379</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -4563,13 +4604,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -4580,7 +4621,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="3">
         <v>42560</v>
@@ -4596,7 +4637,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="3">
         <v>42564</v>
@@ -4612,7 +4653,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="3">
         <v>42564</v>
@@ -4628,7 +4669,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C6" s="3">
         <v>42575</v>
@@ -4644,7 +4685,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2">
@@ -4652,7 +4693,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" hidden="1" customHeight="1">
@@ -4660,7 +4701,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="19">
@@ -4668,7 +4709,7 @@
       </c>
       <c r="E8" s="19"/>
       <c r="F8" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36" hidden="1" customHeight="1">
@@ -4676,7 +4717,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -4684,7 +4725,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="36" hidden="1" customHeight="1">
@@ -4692,7 +4733,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -4700,7 +4741,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="36" hidden="1" customHeight="1">
@@ -4708,7 +4749,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -4716,7 +4757,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1">
@@ -4724,7 +4765,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C12" s="3">
         <v>42549</v>
@@ -4733,7 +4774,7 @@
         <v>2000</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -4742,7 +4783,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C13" s="3">
         <v>42559</v>
@@ -4751,7 +4792,7 @@
         <v>6000</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -4760,7 +4801,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C14" s="3">
         <v>42563</v>
@@ -4769,7 +4810,7 @@
         <v>10000</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -4778,7 +4819,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C15" s="3">
         <v>42574</v>
@@ -4787,7 +4828,7 @@
         <v>4000</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -4796,7 +4837,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C16" s="3">
         <v>42602</v>
@@ -4805,7 +4846,7 @@
         <v>1400</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -4814,7 +4855,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C17" s="3">
         <v>42608</v>
@@ -4823,7 +4864,7 @@
         <v>500</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -4832,7 +4873,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C18" s="3">
         <v>42609</v>
@@ -4841,7 +4882,7 @@
         <v>500</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -4850,7 +4891,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C19" s="3">
         <v>42622</v>
@@ -4859,7 +4900,7 @@
         <v>200</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -4868,14 +4909,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="18" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="10">
         <v>2000</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -4884,14 +4925,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10">
         <v>2000</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -4900,14 +4941,14 @@
         <v>20</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="10">
         <v>40000</v>
       </c>
       <c r="E22" s="22" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F22" s="4"/>
     </row>
@@ -4931,11 +4972,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F92"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4945,16 +4985,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="40" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="A1" s="44" t="s">
+        <v>380</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
@@ -4976,7 +5016,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="17" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>6</v>
@@ -4987,7 +5027,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C3" s="16"/>
       <c r="D3" s="16"/>
@@ -4996,7 +5036,7 @@
         <v>205000</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H3" s="16"/>
     </row>
@@ -5011,10 +5051,10 @@
       <c r="D4" s="16"/>
       <c r="E4" s="16"/>
       <c r="F4" s="16">
-        <v>5000</v>
+        <v>800</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H4" s="16"/>
     </row>
@@ -5023,16 +5063,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="16"/>
       <c r="D5" s="16"/>
       <c r="E5" s="16"/>
       <c r="F5" s="16">
-        <v>800</v>
+        <v>35</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H5" s="16"/>
     </row>
@@ -5041,54 +5081,54 @@
         <v>4</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C6" s="16"/>
       <c r="D6" s="16"/>
       <c r="E6" s="16"/>
       <c r="F6" s="16">
-        <v>35</v>
+        <v>80000</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H6" s="16"/>
+        <v>236</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="14.25">
       <c r="A7" s="16">
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>157</v>
+        <v>215</v>
       </c>
       <c r="C7" s="16"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
       <c r="F7" s="16">
-        <v>80000</v>
+        <v>3000</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="H7" s="16" t="s">
-        <v>241</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8" ht="14.25">
       <c r="A8" s="16">
         <v>6</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>217</v>
+        <v>160</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
       <c r="F8" s="16">
-        <v>3000</v>
+        <v>460</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H8" s="16"/>
     </row>
@@ -5097,16 +5137,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>162</v>
-      </c>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
+        <v>161</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16">
+        <v>30</v>
+      </c>
+      <c r="E9" s="16">
+        <v>30</v>
+      </c>
       <c r="F9" s="16">
-        <v>460</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>240</v>
+        <v>900</v>
+      </c>
+      <c r="G9" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="H9" s="16"/>
     </row>
@@ -5115,22 +5161,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D10" s="16">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="E10" s="16">
-        <v>30</v>
+        <v>240</v>
       </c>
       <c r="F10" s="16">
-        <v>900</v>
+        <v>240</v>
       </c>
       <c r="G10" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H10" s="16"/>
     </row>
@@ -5139,89 +5185,85 @@
         <v>9</v>
       </c>
       <c r="B11" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="C11" s="16" t="s">
         <v>164</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="16">
-        <v>1</v>
-      </c>
-      <c r="E11" s="16">
-        <v>240</v>
-      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="16">
-        <v>240</v>
+        <v>450</v>
       </c>
       <c r="G11" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H11" s="16"/>
+        <v>236</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="14.25">
       <c r="A12" s="16">
         <v>10</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>165</v>
-      </c>
-      <c r="C12" s="16" t="s">
         <v>166</v>
       </c>
+      <c r="C12" s="16"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
       <c r="F12" s="16">
-        <v>450</v>
+        <v>150</v>
       </c>
       <c r="G12" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H12" s="16" t="s">
-        <v>167</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8" ht="14.25">
       <c r="A13" s="16">
         <v>11</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
+        <v>167</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="16">
+        <v>12</v>
+      </c>
+      <c r="E13" s="16">
+        <v>285</v>
+      </c>
       <c r="F13" s="16">
-        <v>150</v>
+        <v>3420</v>
       </c>
       <c r="G13" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H13" s="16"/>
+        <v>236</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
       <c r="A14" s="16">
         <v>12</v>
       </c>
       <c r="B14" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16">
+        <v>400</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D14" s="16">
-        <v>12</v>
-      </c>
-      <c r="E14" s="16">
-        <v>285</v>
-      </c>
-      <c r="F14" s="16">
-        <v>3420</v>
-      </c>
-      <c r="G14" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
@@ -5231,14 +5273,20 @@
       <c r="B15" s="16" t="s">
         <v>170</v>
       </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
+      <c r="C15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="16">
+        <v>32</v>
+      </c>
+      <c r="E15" s="16">
+        <v>170</v>
+      </c>
       <c r="F15" s="16">
-        <v>400</v>
+        <v>5440</v>
       </c>
       <c r="G15" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H15" s="16" t="s">
         <v>171</v>
@@ -5252,19 +5300,15 @@
         <v>172</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="16">
-        <v>32</v>
-      </c>
-      <c r="E16" s="16">
-        <v>170</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
       <c r="F16" s="16">
-        <v>5440</v>
+        <v>580</v>
       </c>
       <c r="G16" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H16" s="16" t="s">
         <v>173</v>
@@ -5275,21 +5319,25 @@
         <v>15</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="16">
+        <v>16</v>
+      </c>
+      <c r="E17" s="16">
+        <v>177</v>
+      </c>
+      <c r="F17" s="16">
+        <v>2832</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="16" t="s">
         <v>174</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16">
-        <v>580</v>
-      </c>
-      <c r="G17" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.25">
@@ -5297,33 +5345,31 @@
         <v>16</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C18" s="16" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="16">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E18" s="16">
-        <v>177</v>
+        <v>850</v>
       </c>
       <c r="F18" s="16">
-        <v>2832</v>
+        <v>850</v>
       </c>
       <c r="G18" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>176</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8" ht="14.25">
       <c r="A19" s="16">
         <v>17</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>8</v>
@@ -5332,13 +5378,13 @@
         <v>1</v>
       </c>
       <c r="E19" s="16">
-        <v>850</v>
+        <v>398</v>
       </c>
       <c r="F19" s="16">
-        <v>850</v>
+        <v>398</v>
       </c>
       <c r="G19" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H19" s="16"/>
     </row>
@@ -5347,7 +5393,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="16" t="s">
         <v>8</v>
@@ -5356,15 +5402,17 @@
         <v>1</v>
       </c>
       <c r="E20" s="16">
-        <v>398</v>
+        <v>1600</v>
       </c>
       <c r="F20" s="16">
-        <v>398</v>
+        <v>1600</v>
       </c>
       <c r="G20" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H20" s="16"/>
+        <v>236</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>178</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="14.25">
       <c r="A21" s="16">
@@ -5377,40 +5425,34 @@
         <v>8</v>
       </c>
       <c r="D21" s="16">
-        <v>1</v>
-      </c>
-      <c r="E21" s="16">
-        <v>1600</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="E21" s="16"/>
       <c r="F21" s="16">
-        <v>1600</v>
+        <v>391</v>
       </c>
       <c r="G21" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>180</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8" ht="14.25">
       <c r="A22" s="16">
         <v>20</v>
       </c>
       <c r="B22" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="16">
-        <v>4</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="D22" s="16"/>
       <c r="E22" s="16"/>
       <c r="F22" s="16">
-        <v>391</v>
+        <v>160</v>
       </c>
       <c r="G22" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H22" s="16"/>
     </row>
@@ -5419,18 +5461,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>166</v>
-      </c>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
+        <v>8</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1500</v>
+      </c>
       <c r="F23" s="16">
-        <v>160</v>
+        <v>1500</v>
       </c>
       <c r="G23" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H23" s="16"/>
     </row>
@@ -5439,7 +5485,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C24" s="16" t="s">
         <v>8</v>
@@ -5448,13 +5494,13 @@
         <v>1</v>
       </c>
       <c r="E24" s="16">
-        <v>1500</v>
+        <v>4099</v>
       </c>
       <c r="F24" s="16">
-        <v>1500</v>
+        <v>4099</v>
       </c>
       <c r="G24" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H24" s="16"/>
     </row>
@@ -5463,7 +5509,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C25" s="16" t="s">
         <v>8</v>
@@ -5472,13 +5518,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="16">
-        <v>4099</v>
+        <v>2799</v>
       </c>
       <c r="F25" s="16">
-        <v>4099</v>
+        <v>2799</v>
       </c>
       <c r="G25" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H25" s="16"/>
     </row>
@@ -5487,22 +5533,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="16">
-        <v>1</v>
-      </c>
-      <c r="E26" s="16">
-        <v>2799</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
       <c r="F26" s="16">
-        <v>2799</v>
+        <v>4718</v>
       </c>
       <c r="G26" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H26" s="16"/>
     </row>
@@ -5511,60 +5551,66 @@
         <v>25</v>
       </c>
       <c r="B27" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C27" s="16"/>
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16">
-        <v>4718</v>
+        <v>187</v>
       </c>
       <c r="G27" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H27" s="16"/>
+        <v>236</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="28" spans="1:8" ht="14.25">
       <c r="A28" s="16">
         <v>26</v>
       </c>
       <c r="B28" s="16" t="s">
-        <v>187</v>
-      </c>
-      <c r="C28" s="16"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
+        <v>186</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1</v>
+      </c>
+      <c r="E28" s="16">
+        <v>300</v>
+      </c>
       <c r="F28" s="16">
-        <v>187</v>
+        <v>300</v>
       </c>
       <c r="G28" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H28" s="16" t="s">
-        <v>91</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8" ht="14.25">
       <c r="A29" s="16">
         <v>27</v>
       </c>
       <c r="B29" s="16" t="s">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D29" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E29" s="16">
-        <v>300</v>
+        <v>5</v>
       </c>
       <c r="F29" s="16">
-        <v>300</v>
+        <v>20</v>
       </c>
       <c r="G29" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H29" s="16"/>
     </row>
@@ -5573,22 +5619,22 @@
         <v>28</v>
       </c>
       <c r="B30" s="16" t="s">
-        <v>27</v>
+        <v>187</v>
       </c>
       <c r="C30" s="16" t="s">
         <v>28</v>
       </c>
       <c r="D30" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" s="16">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="F30" s="16">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="G30" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H30" s="16"/>
     </row>
@@ -5597,22 +5643,22 @@
         <v>29</v>
       </c>
       <c r="B31" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D31" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E31" s="16">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F31" s="16">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="G31" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H31" s="16"/>
     </row>
@@ -5621,22 +5667,22 @@
         <v>30</v>
       </c>
       <c r="B32" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="D32" s="16">
+        <v>15</v>
+      </c>
+      <c r="E32" s="16">
         <v>8</v>
       </c>
-      <c r="D32" s="16">
-        <v>1</v>
-      </c>
-      <c r="E32" s="16">
-        <v>10</v>
-      </c>
       <c r="F32" s="16">
-        <v>10</v>
+        <v>120</v>
       </c>
       <c r="G32" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H32" s="16"/>
     </row>
@@ -5645,22 +5691,22 @@
         <v>31</v>
       </c>
       <c r="B33" s="16" t="s">
+        <v>190</v>
+      </c>
+      <c r="C33" s="16" t="s">
         <v>191</v>
       </c>
-      <c r="C33" s="16" t="s">
-        <v>54</v>
-      </c>
       <c r="D33" s="16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E33" s="16">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F33" s="16">
-        <v>120</v>
+        <v>10</v>
       </c>
       <c r="G33" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H33" s="16"/>
     </row>
@@ -5668,23 +5714,23 @@
       <c r="A34" s="16">
         <v>32</v>
       </c>
-      <c r="B34" s="16" t="s">
-        <v>192</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="D34" s="16">
-        <v>5</v>
-      </c>
-      <c r="E34" s="16">
-        <v>2</v>
+      <c r="B34" s="30" t="s">
+        <v>251</v>
+      </c>
+      <c r="C34" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="31">
+        <v>1</v>
+      </c>
+      <c r="E34" s="31">
+        <v>3800</v>
       </c>
       <c r="F34" s="16">
-        <v>10</v>
+        <v>3800</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H34" s="16"/>
     </row>
@@ -5692,8 +5738,8 @@
       <c r="A35" s="16">
         <v>33</v>
       </c>
-      <c r="B35" s="30" t="s">
-        <v>255</v>
+      <c r="B35" s="31" t="s">
+        <v>192</v>
       </c>
       <c r="C35" s="31" t="s">
         <v>8</v>
@@ -5702,13 +5748,13 @@
         <v>1</v>
       </c>
       <c r="E35" s="31">
-        <v>3800</v>
+        <v>780</v>
       </c>
       <c r="F35" s="16">
-        <v>3800</v>
+        <v>780</v>
       </c>
       <c r="G35" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H35" s="16"/>
     </row>
@@ -5717,22 +5763,22 @@
         <v>34</v>
       </c>
       <c r="B36" s="31" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C36" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D36" s="31">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E36" s="31">
-        <v>780</v>
-      </c>
-      <c r="F36" s="16">
-        <v>780</v>
-      </c>
-      <c r="G36" s="25" t="s">
-        <v>240</v>
+        <v>5</v>
+      </c>
+      <c r="F36" s="31">
+        <v>50</v>
+      </c>
+      <c r="G36" s="30" t="s">
+        <v>236</v>
       </c>
       <c r="H36" s="16"/>
     </row>
@@ -5741,22 +5787,22 @@
         <v>35</v>
       </c>
       <c r="B37" s="31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C37" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="31">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E37" s="31">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="F37" s="31">
-        <v>50</v>
+        <v>170</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H37" s="16"/>
     </row>
@@ -5765,22 +5811,22 @@
         <v>36</v>
       </c>
       <c r="B38" s="31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C38" s="31" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D38" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E38" s="31">
-        <v>85</v>
+        <v>390</v>
       </c>
       <c r="F38" s="31">
-        <v>170</v>
+        <v>1170</v>
       </c>
       <c r="G38" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H38" s="16"/>
     </row>
@@ -5789,22 +5835,20 @@
         <v>37</v>
       </c>
       <c r="B39" s="31" t="s">
+        <v>196</v>
+      </c>
+      <c r="C39" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="C39" s="31" t="s">
-        <v>19</v>
-      </c>
       <c r="D39" s="31">
-        <v>3</v>
-      </c>
-      <c r="E39" s="31">
-        <v>390</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="E39" s="16"/>
       <c r="F39" s="31">
-        <v>1170</v>
+        <v>1650</v>
       </c>
       <c r="G39" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H39" s="16"/>
     </row>
@@ -5816,17 +5860,19 @@
         <v>198</v>
       </c>
       <c r="C40" s="31" t="s">
-        <v>199</v>
+        <v>8</v>
       </c>
       <c r="D40" s="31">
-        <v>12</v>
-      </c>
-      <c r="E40" s="16"/>
+        <v>1</v>
+      </c>
+      <c r="E40" s="31">
+        <v>60</v>
+      </c>
       <c r="F40" s="31">
-        <v>1650</v>
+        <v>60</v>
       </c>
       <c r="G40" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H40" s="16"/>
     </row>
@@ -5835,22 +5881,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="31" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C41" s="31" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D41" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E41" s="31">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="F41" s="31">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="G41" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H41" s="16"/>
     </row>
@@ -5859,24 +5905,20 @@
         <v>40</v>
       </c>
       <c r="B42" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="31">
+        <v>3877</v>
+      </c>
+      <c r="G42" s="30" t="s">
+        <v>236</v>
+      </c>
+      <c r="H42" s="16" t="s">
         <v>201</v>
       </c>
-      <c r="C42" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D42" s="31">
-        <v>3</v>
-      </c>
-      <c r="E42" s="31">
-        <v>7</v>
-      </c>
-      <c r="F42" s="31">
-        <v>21</v>
-      </c>
-      <c r="G42" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="1:8" ht="14.25">
       <c r="A43" s="16">
@@ -5885,25 +5927,29 @@
       <c r="B43" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="16"/>
-      <c r="D43" s="16"/>
-      <c r="E43" s="16"/>
+      <c r="C43" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="31">
+        <v>1</v>
+      </c>
+      <c r="E43" s="31">
+        <v>3200</v>
+      </c>
       <c r="F43" s="31">
-        <v>3877</v>
+        <v>3200</v>
       </c>
       <c r="G43" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>203</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="16">
         <v>42</v>
       </c>
       <c r="B44" s="31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C44" s="31" t="s">
         <v>8</v>
@@ -5912,13 +5958,13 @@
         <v>1</v>
       </c>
       <c r="E44" s="31">
-        <v>3200</v>
+        <v>30</v>
       </c>
       <c r="F44" s="31">
-        <v>3200</v>
+        <v>30</v>
       </c>
       <c r="G44" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H44" s="16"/>
     </row>
@@ -5927,22 +5973,22 @@
         <v>43</v>
       </c>
       <c r="B45" s="31" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C45" s="31" t="s">
         <v>8</v>
       </c>
       <c r="D45" s="31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E45" s="31">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="F45" s="31">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="G45" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H45" s="16"/>
     </row>
@@ -5951,22 +5997,22 @@
         <v>44</v>
       </c>
       <c r="B46" s="31" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C46" s="31" t="s">
-        <v>8</v>
+        <v>164</v>
       </c>
       <c r="D46" s="31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E46" s="31">
-        <v>13</v>
+        <v>420</v>
       </c>
       <c r="F46" s="31">
-        <v>39</v>
+        <v>420</v>
       </c>
       <c r="G46" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H46" s="16"/>
     </row>
@@ -5974,23 +6020,23 @@
       <c r="A47" s="16">
         <v>45</v>
       </c>
-      <c r="B47" s="31" t="s">
-        <v>207</v>
+      <c r="B47" s="30" t="s">
+        <v>252</v>
       </c>
       <c r="C47" s="31" t="s">
-        <v>166</v>
+        <v>206</v>
       </c>
       <c r="D47" s="31">
         <v>1</v>
       </c>
       <c r="E47" s="31">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="F47" s="31">
-        <v>420</v>
+        <v>1000</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H47" s="16"/>
     </row>
@@ -5998,23 +6044,23 @@
       <c r="A48" s="16">
         <v>46</v>
       </c>
-      <c r="B48" s="30" t="s">
-        <v>256</v>
+      <c r="B48" s="31" t="s">
+        <v>207</v>
       </c>
       <c r="C48" s="31" t="s">
-        <v>208</v>
+        <v>8</v>
       </c>
       <c r="D48" s="31">
         <v>1</v>
       </c>
       <c r="E48" s="31">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="F48" s="31">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="G48" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H48" s="16"/>
     </row>
@@ -6023,7 +6069,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="31" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C49" s="31" t="s">
         <v>8</v>
@@ -6032,13 +6078,13 @@
         <v>1</v>
       </c>
       <c r="E49" s="31">
-        <v>2400</v>
+        <v>178</v>
       </c>
       <c r="F49" s="31">
-        <v>2400</v>
+        <v>178</v>
       </c>
       <c r="G49" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H49" s="16"/>
     </row>
@@ -6047,7 +6093,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="31" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C50" s="31" t="s">
         <v>8</v>
@@ -6056,13 +6102,13 @@
         <v>1</v>
       </c>
       <c r="E50" s="31">
-        <v>178</v>
+        <v>3700</v>
       </c>
       <c r="F50" s="31">
-        <v>178</v>
+        <v>3700</v>
       </c>
       <c r="G50" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H50" s="16"/>
     </row>
@@ -6071,7 +6117,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="31" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C51" s="31" t="s">
         <v>8</v>
@@ -6080,40 +6126,42 @@
         <v>1</v>
       </c>
       <c r="E51" s="31">
-        <v>3700</v>
+        <v>60</v>
       </c>
       <c r="F51" s="31">
-        <v>3700</v>
+        <v>60</v>
       </c>
       <c r="G51" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="H51" s="16"/>
+        <v>236</v>
+      </c>
+      <c r="H51" s="25" t="s">
+        <v>268</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="14.25">
       <c r="A52" s="16">
         <v>50</v>
       </c>
       <c r="B52" s="31" t="s">
+        <v>211</v>
+      </c>
+      <c r="C52" s="31" t="s">
         <v>212</v>
       </c>
-      <c r="C52" s="31" t="s">
-        <v>8</v>
-      </c>
       <c r="D52" s="31">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E52" s="31">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="F52" s="31">
         <v>60</v>
       </c>
       <c r="G52" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H52" s="25" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="14.25">
@@ -6124,45 +6172,39 @@
         <v>213</v>
       </c>
       <c r="C53" s="31" t="s">
-        <v>214</v>
+        <v>8</v>
       </c>
       <c r="D53" s="31">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" s="31">
-        <v>15</v>
+        <v>514</v>
       </c>
       <c r="F53" s="31">
-        <v>60</v>
+        <v>514</v>
       </c>
       <c r="G53" s="30" t="s">
-        <v>240</v>
-      </c>
-      <c r="H53" s="25" t="s">
-        <v>272</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H53" s="16"/>
     </row>
     <row r="54" spans="1:8" ht="14.25">
       <c r="A54" s="16">
         <v>52</v>
       </c>
-      <c r="B54" s="31" t="s">
-        <v>215</v>
-      </c>
-      <c r="C54" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="31">
-        <v>1</v>
-      </c>
+      <c r="B54" s="30" t="s">
+        <v>253</v>
+      </c>
+      <c r="C54" s="31"/>
+      <c r="D54" s="31"/>
       <c r="E54" s="31">
-        <v>514</v>
+        <v>240</v>
       </c>
       <c r="F54" s="31">
-        <v>514</v>
+        <v>240</v>
       </c>
       <c r="G54" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H54" s="16"/>
     </row>
@@ -6171,18 +6213,18 @@
         <v>53</v>
       </c>
       <c r="B55" s="30" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C55" s="31"/>
       <c r="D55" s="31"/>
       <c r="E55" s="31">
-        <v>240</v>
+        <v>1080</v>
       </c>
       <c r="F55" s="31">
-        <v>240</v>
+        <v>1080</v>
       </c>
       <c r="G55" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H55" s="16"/>
     </row>
@@ -6191,18 +6233,22 @@
         <v>54</v>
       </c>
       <c r="B56" s="30" t="s">
-        <v>258</v>
-      </c>
-      <c r="C56" s="31"/>
-      <c r="D56" s="31"/>
+        <v>270</v>
+      </c>
+      <c r="C56" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="D56" s="31">
+        <v>1</v>
+      </c>
       <c r="E56" s="31">
-        <v>1080</v>
+        <v>50</v>
       </c>
       <c r="F56" s="31">
-        <v>1080</v>
+        <v>50</v>
       </c>
       <c r="G56" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H56" s="16"/>
     </row>
@@ -6211,22 +6257,22 @@
         <v>55</v>
       </c>
       <c r="B57" s="30" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>275</v>
+        <v>137</v>
       </c>
       <c r="D57" s="31">
         <v>1</v>
       </c>
       <c r="E57" s="31">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="F57" s="31">
-        <v>50</v>
+        <v>2800</v>
       </c>
       <c r="G57" s="30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H57" s="16"/>
     </row>
@@ -6234,23 +6280,23 @@
       <c r="A58" s="16">
         <v>56</v>
       </c>
-      <c r="B58" s="30" t="s">
-        <v>277</v>
-      </c>
-      <c r="C58" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="D58" s="31">
-        <v>1</v>
-      </c>
-      <c r="E58" s="31">
-        <v>2800</v>
-      </c>
-      <c r="F58" s="31">
-        <v>2800</v>
-      </c>
-      <c r="G58" s="30" t="s">
-        <v>240</v>
+      <c r="B58" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="16">
+        <v>4</v>
+      </c>
+      <c r="E58" s="16">
+        <v>10</v>
+      </c>
+      <c r="F58" s="16">
+        <v>40</v>
+      </c>
+      <c r="G58" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="H58" s="16"/>
     </row>
@@ -6258,23 +6304,23 @@
       <c r="A59" s="16">
         <v>57</v>
       </c>
-      <c r="B59" s="16" t="s">
-        <v>216</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>17</v>
+      <c r="B59" s="25" t="s">
+        <v>276</v>
+      </c>
+      <c r="C59" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="D59" s="16">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E59" s="16">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="F59" s="16">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H59" s="16"/>
     </row>
@@ -6283,22 +6329,22 @@
         <v>58</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="C60" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D60" s="16">
         <v>2</v>
       </c>
       <c r="E60" s="16">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="F60" s="16">
-        <v>80</v>
+        <v>240</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H60" s="16"/>
     </row>
@@ -6307,22 +6353,22 @@
         <v>59</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D61" s="16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E61" s="16">
-        <v>120</v>
+        <v>60</v>
       </c>
       <c r="F61" s="16">
-        <v>240</v>
+        <v>60</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H61" s="16"/>
     </row>
@@ -6331,22 +6377,22 @@
         <v>60</v>
       </c>
       <c r="B62" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="D62" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E62" s="16">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="F62" s="16">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="G62" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H62" s="16"/>
     </row>
@@ -6355,22 +6401,22 @@
         <v>61</v>
       </c>
       <c r="B63" s="25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="C63" s="25" t="s">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="D63" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E63" s="16">
-        <v>18</v>
+        <v>260</v>
       </c>
       <c r="F63" s="16">
-        <v>72</v>
+        <v>260</v>
       </c>
       <c r="G63" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H63" s="16"/>
     </row>
@@ -6378,47 +6424,47 @@
       <c r="A64" s="16">
         <v>62</v>
       </c>
-      <c r="B64" s="25" t="s">
-        <v>283</v>
-      </c>
-      <c r="C64" s="25" t="s">
-        <v>138</v>
-      </c>
-      <c r="D64" s="16">
+      <c r="B64" s="26" t="s">
+        <v>280</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D64" s="11">
         <v>1</v>
       </c>
-      <c r="E64" s="16">
-        <v>260</v>
-      </c>
-      <c r="F64" s="16">
-        <v>260</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>240</v>
-      </c>
-      <c r="H64" s="16"/>
+      <c r="E64" s="11">
+        <v>12</v>
+      </c>
+      <c r="F64" s="11">
+        <v>12</v>
+      </c>
+      <c r="G64" s="26" t="s">
+        <v>236</v>
+      </c>
+      <c r="H64" s="11"/>
     </row>
     <row r="65" spans="1:8" ht="14.25">
       <c r="A65" s="16">
         <v>63</v>
       </c>
       <c r="B65" s="26" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>138</v>
+        <v>282</v>
       </c>
       <c r="D65" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="11">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="F65" s="11">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G65" s="26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H65" s="11"/>
     </row>
@@ -6427,22 +6473,22 @@
         <v>64</v>
       </c>
       <c r="B66" s="26" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D66" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" s="11">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F66" s="11">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="G66" s="26" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H66" s="11"/>
     </row>
@@ -6451,66 +6497,66 @@
         <v>65</v>
       </c>
       <c r="B67" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>288</v>
-      </c>
-      <c r="D67" s="11">
-        <v>1</v>
-      </c>
-      <c r="E67" s="11">
-        <v>22</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
       <c r="F67" s="11">
-        <v>22</v>
+        <v>218</v>
       </c>
       <c r="G67" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H67" s="11"/>
+        <v>236</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>125</v>
+      </c>
     </row>
     <row r="68" spans="1:8" ht="14.25">
       <c r="A68" s="16">
         <v>66</v>
       </c>
       <c r="B68" s="26" t="s">
-        <v>294</v>
-      </c>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
+        <v>291</v>
+      </c>
+      <c r="C68" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="11">
+        <v>1</v>
+      </c>
+      <c r="E68" s="11">
+        <v>60</v>
+      </c>
       <c r="F68" s="11">
-        <v>218</v>
+        <v>60</v>
       </c>
       <c r="G68" s="26" t="s">
-        <v>240</v>
-      </c>
-      <c r="H68" s="26" t="s">
-        <v>126</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H68" s="11"/>
     </row>
     <row r="69" spans="1:8" ht="14.25">
       <c r="A69" s="16">
         <v>67</v>
       </c>
-      <c r="B69" s="26" t="s">
-        <v>295</v>
-      </c>
-      <c r="C69" s="26" t="s">
-        <v>138</v>
+      <c r="B69" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>294</v>
       </c>
       <c r="D69" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E69" s="11">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="F69" s="11">
-        <v>60</v>
-      </c>
-      <c r="G69" s="26" t="s">
-        <v>240</v>
+        <v>276</v>
+      </c>
+      <c r="G69" s="11" t="s">
+        <v>236</v>
       </c>
       <c r="H69" s="11"/>
     </row>
@@ -6519,22 +6565,20 @@
         <v>68</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D70" s="11">
-        <v>3</v>
-      </c>
-      <c r="E70" s="11">
-        <v>92</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="E70" s="11"/>
       <c r="F70" s="11">
-        <v>276</v>
+        <v>1000</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H70" s="11"/>
     </row>
@@ -6543,70 +6587,72 @@
         <v>69</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="C71" s="11" t="s">
-        <v>299</v>
+        <v>137</v>
       </c>
       <c r="D71" s="11">
         <v>96</v>
       </c>
-      <c r="E71" s="11"/>
+      <c r="E71" s="11">
+        <v>170</v>
+      </c>
       <c r="F71" s="11">
-        <v>1000</v>
+        <v>16320</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H71" s="11"/>
+        <v>236</v>
+      </c>
+      <c r="H71" s="11" t="s">
+        <v>299</v>
+      </c>
     </row>
     <row r="72" spans="1:8" ht="14.25">
       <c r="A72" s="16">
         <v>70</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D72" s="11">
         <v>96</v>
       </c>
       <c r="E72" s="11">
-        <v>170</v>
+        <v>18</v>
       </c>
       <c r="F72" s="11">
-        <v>16320</v>
+        <v>1728</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H72" s="11" t="s">
-        <v>304</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="H72" s="11"/>
     </row>
     <row r="73" spans="1:8" ht="14.25">
       <c r="A73" s="16">
         <v>71</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>138</v>
+        <v>278</v>
       </c>
       <c r="D73" s="11">
-        <v>96</v>
+        <v>2</v>
       </c>
       <c r="E73" s="11">
-        <v>18</v>
+        <v>15.6</v>
       </c>
       <c r="F73" s="11">
-        <v>1728</v>
+        <v>31.2</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H73" s="11"/>
     </row>
@@ -6615,22 +6661,22 @@
         <v>72</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D74" s="11">
         <v>2</v>
       </c>
       <c r="E74" s="11">
-        <v>15.6</v>
+        <v>10.8</v>
       </c>
       <c r="F74" s="11">
-        <v>31.2</v>
+        <v>21.6</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H74" s="11"/>
     </row>
@@ -6639,410 +6685,396 @@
         <v>73</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>282</v>
+        <v>313</v>
       </c>
       <c r="D75" s="11">
         <v>2</v>
       </c>
       <c r="E75" s="11">
-        <v>10.8</v>
+        <v>120</v>
       </c>
       <c r="F75" s="11">
-        <v>21.6</v>
+        <v>240</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H75" s="11"/>
     </row>
-    <row r="76" spans="1:8">
-      <c r="A76" s="11">
+    <row r="76" spans="1:8" ht="14.25">
+      <c r="A76" s="16">
         <v>74</v>
       </c>
-      <c r="B76" s="11" t="s">
+      <c r="B76" s="32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C76" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="D76" s="32">
+        <v>1</v>
+      </c>
+      <c r="E76" s="32">
+        <v>90</v>
+      </c>
+      <c r="F76" s="32">
+        <v>90</v>
+      </c>
+      <c r="G76" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" ht="14.25">
+      <c r="A77" s="16">
+        <v>75</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D77" s="11">
+        <v>1</v>
+      </c>
+      <c r="E77" s="11">
+        <v>120</v>
+      </c>
+      <c r="F77" s="11">
+        <v>120</v>
+      </c>
+      <c r="G77" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" ht="14.25">
+      <c r="A78" s="16">
+        <v>76</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C78" s="11"/>
+      <c r="D78" s="11"/>
+      <c r="E78" s="11"/>
+      <c r="F78" s="11">
+        <v>1048</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="14.25">
+      <c r="A79" s="16">
+        <v>77</v>
+      </c>
+      <c r="B79" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C76" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D76" s="11">
-        <v>2</v>
-      </c>
-      <c r="E76" s="11">
-        <v>120</v>
-      </c>
-      <c r="F76" s="11">
-        <v>240</v>
-      </c>
-      <c r="G76" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="1:8" ht="14.25">
-      <c r="A77" s="31">
-        <v>75</v>
-      </c>
-      <c r="B77" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="C77" s="32" t="s">
-        <v>138</v>
-      </c>
-      <c r="D77" s="32">
+      <c r="C79" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="D79" s="11">
         <v>1</v>
       </c>
-      <c r="E77" s="32">
-        <v>90</v>
-      </c>
-      <c r="F77" s="32">
-        <v>90</v>
-      </c>
-      <c r="G77" s="32" t="s">
-        <v>240</v>
-      </c>
-      <c r="H77" s="11"/>
-    </row>
-    <row r="78" spans="1:8">
-      <c r="A78" s="11">
-        <v>76</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="C78" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D78" s="11">
-        <v>1</v>
-      </c>
-      <c r="E78" s="11">
-        <v>120</v>
-      </c>
-      <c r="F78" s="11">
-        <v>120</v>
-      </c>
-      <c r="G78" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H78" s="11"/>
-    </row>
-    <row r="79" spans="1:8">
-      <c r="A79" s="11">
+      <c r="E79" s="11">
+        <v>200</v>
+      </c>
+      <c r="F79" s="11">
+        <v>200</v>
+      </c>
+      <c r="G79" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" ht="14.25">
+      <c r="A80" s="16">
         <v>78</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C79" s="11"/>
-      <c r="D79" s="11"/>
-      <c r="E79" s="11"/>
-      <c r="F79" s="11">
-        <v>1048</v>
-      </c>
-      <c r="G79" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H79" s="11" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="11">
-        <v>79</v>
       </c>
       <c r="B80" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="C80" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="D80" s="11">
-        <v>1</v>
-      </c>
-      <c r="E80" s="11">
-        <v>200</v>
-      </c>
+      <c r="C80" s="11"/>
+      <c r="D80" s="11"/>
+      <c r="E80" s="11"/>
       <c r="F80" s="11">
-        <v>200</v>
+        <v>981</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="11">
-        <v>80</v>
+        <v>236</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="40.5">
+      <c r="A81" s="16">
+        <v>79</v>
       </c>
       <c r="B81" s="11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
       <c r="F81" s="11">
-        <v>981</v>
+        <v>4160</v>
       </c>
       <c r="G81" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H81" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="40.5">
-      <c r="A82" s="11">
-        <v>81</v>
+        <v>236</v>
+      </c>
+      <c r="H81" s="33" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="14.25">
+      <c r="A82" s="16">
+        <v>80</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="C82" s="11"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
       <c r="F82" s="11">
-        <v>4160</v>
+        <v>4000</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H82" s="33" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="11">
-        <v>82</v>
+        <v>236</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="14.25">
+      <c r="A83" s="16">
+        <v>81</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="C83" s="11"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
       <c r="F83" s="11">
-        <v>4000</v>
+        <v>500</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H83" s="11" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="11">
-        <v>83</v>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14.25">
+      <c r="A84" s="16">
+        <v>82</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="C84" s="11"/>
       <c r="D84" s="11"/>
       <c r="E84" s="11"/>
       <c r="F84" s="11">
-        <v>500</v>
+        <v>853</v>
       </c>
       <c r="G84" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H84" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="14.25">
+      <c r="A85" s="16">
+        <v>83</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C85" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="D85" s="11">
+        <v>2</v>
+      </c>
+      <c r="E85" s="11">
+        <v>120</v>
+      </c>
+      <c r="F85" s="11">
         <v>240</v>
       </c>
-      <c r="H84" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="11">
+      <c r="G85" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="1:8" ht="14.25">
+      <c r="A86" s="16">
         <v>84</v>
       </c>
-      <c r="B85" s="11" t="s">
-        <v>327</v>
-      </c>
-      <c r="C85" s="11"/>
-      <c r="D85" s="11"/>
-      <c r="E85" s="11"/>
-      <c r="F85" s="11">
-        <v>853</v>
-      </c>
-      <c r="G85" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H85" s="11" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="11">
+      <c r="B86" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="C86" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D86" s="11">
+        <v>1</v>
+      </c>
+      <c r="E86" s="11">
+        <v>38.4</v>
+      </c>
+      <c r="F86" s="11">
+        <v>38.4</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" spans="1:8" ht="14.25">
+      <c r="A87" s="16">
         <v>85</v>
       </c>
-      <c r="B86" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D86" s="11">
-        <v>2</v>
-      </c>
-      <c r="E86" s="11">
-        <v>120</v>
-      </c>
-      <c r="F86" s="11">
-        <v>240</v>
-      </c>
-      <c r="G86" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H86" s="11"/>
-    </row>
-    <row r="87" spans="1:8">
-      <c r="A87" s="11">
-        <v>86</v>
-      </c>
       <c r="B87" s="11" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C87" s="11" t="s">
-        <v>282</v>
+        <v>137</v>
       </c>
       <c r="D87" s="11">
         <v>1</v>
       </c>
       <c r="E87" s="11">
-        <v>38.4</v>
+        <v>109</v>
       </c>
       <c r="F87" s="11">
-        <v>38.4</v>
+        <v>109</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H87" s="11"/>
     </row>
-    <row r="88" spans="1:8">
-      <c r="A88" s="11">
+    <row r="88" spans="1:8" ht="14.25">
+      <c r="A88" s="16">
+        <v>86</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="D88" s="11">
+        <v>50</v>
+      </c>
+      <c r="E88" s="11">
+        <v>8</v>
+      </c>
+      <c r="F88" s="11">
+        <v>400</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="1:8" ht="14.25">
+      <c r="A89" s="16">
         <v>87</v>
       </c>
-      <c r="B88" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="D88" s="11">
+      <c r="B89" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="D89" s="11">
         <v>1</v>
       </c>
-      <c r="E88" s="11">
-        <v>109</v>
-      </c>
-      <c r="F88" s="11">
-        <v>109</v>
-      </c>
-      <c r="G88" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H88" s="11"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="11">
+      <c r="E89" s="11">
+        <v>40</v>
+      </c>
+      <c r="F89" s="11">
+        <v>40</v>
+      </c>
+      <c r="G89" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:8" ht="14.25">
+      <c r="A90" s="16">
         <v>88</v>
       </c>
-      <c r="B89" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="C89" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="D89" s="11">
-        <v>50</v>
-      </c>
-      <c r="E89" s="11">
-        <v>8</v>
-      </c>
-      <c r="F89" s="11">
-        <v>400</v>
-      </c>
-      <c r="G89" s="11" t="s">
-        <v>240</v>
-      </c>
-      <c r="H89" s="11"/>
-    </row>
-    <row r="90" spans="1:8">
-      <c r="A90" s="11">
-        <v>89</v>
-      </c>
       <c r="B90" s="11" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D90" s="11">
         <v>1</v>
       </c>
       <c r="E90" s="11">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="F90" s="11">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H90" s="11"/>
     </row>
-    <row r="91" spans="1:8">
-      <c r="A91" s="11">
-        <v>90</v>
+    <row r="91" spans="1:8" ht="14.25">
+      <c r="A91" s="16">
+        <v>89</v>
       </c>
       <c r="B91" s="11" t="s">
         <v>367</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>138</v>
+        <v>284</v>
       </c>
       <c r="D91" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E91" s="11">
-        <v>220</v>
+        <v>88</v>
       </c>
       <c r="F91" s="11">
-        <v>220</v>
+        <v>176</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H91" s="11"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="11">
-        <v>91</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="D92" s="11">
-        <v>2</v>
-      </c>
-      <c r="E92" s="11">
-        <v>88</v>
-      </c>
-      <c r="F92" s="11">
-        <v>176</v>
-      </c>
-      <c r="G92" s="11" t="s">
-        <v>240</v>
-      </c>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
+      <c r="F92" s="11"/>
+      <c r="G92" s="11"/>
       <c r="H92" s="11"/>
     </row>
-    <row r="93" spans="1:8" hidden="1">
+    <row r="93" spans="1:8">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -7072,23 +7104,9 @@
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
     </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
-      <c r="H96" s="11"/>
-    </row>
   </sheetData>
   <autoFilter ref="A2:H93">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
+    <filterColumn colId="6"/>
   </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
@@ -7115,22 +7133,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="25.5">
-      <c r="A1" s="41" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
+      <c r="A1" s="45" t="s">
+        <v>381</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="14.25">
       <c r="A2" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D2" s="15" t="s">
         <v>6</v>
@@ -7138,181 +7156,181 @@
     </row>
     <row r="3" spans="1:4" ht="14.25" hidden="1">
       <c r="A3" s="16" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B3" s="16">
         <v>200</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="14.25">
       <c r="A4" s="16" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B4" s="16">
         <v>330</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="14.25">
       <c r="A5" s="16" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="B5" s="16">
         <v>987</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="14.25">
       <c r="A6" s="16" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B6" s="16">
         <v>240</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="14.25">
       <c r="A7" s="16" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B7" s="16">
         <v>700</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="14.25">
       <c r="A8" s="16" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="B8" s="16">
         <v>387</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="14.25">
       <c r="A9" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B9" s="16">
         <v>240</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="14.25">
       <c r="A10" s="16" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B10" s="16">
         <v>290</v>
       </c>
       <c r="C10" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="14.25">
       <c r="A11" s="16" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B11" s="16">
         <v>590</v>
       </c>
       <c r="C11" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="14.25">
       <c r="A12" s="16" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B12" s="16">
         <v>1300</v>
       </c>
       <c r="C12" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="14.25">
       <c r="A13" s="16" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B13" s="16">
         <v>938</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="14.25">
       <c r="A14" s="25" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B14" s="16">
         <v>288</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="14.25">
       <c r="A15" s="28" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B15" s="28">
         <v>3672</v>
       </c>
       <c r="C15" s="29" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>91</v>
@@ -7320,42 +7338,42 @@
     </row>
     <row r="16" spans="1:4" ht="14.25">
       <c r="A16" s="28" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="B16" s="28">
         <v>1360</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D16" s="28"/>
     </row>
     <row r="17" spans="1:4" ht="14.25">
       <c r="A17" s="28" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="B17" s="28">
         <v>985</v>
       </c>
       <c r="C17" s="29" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D17" s="28" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="7" customFormat="1" ht="14.25">
       <c r="A18" s="25" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B18" s="16">
         <v>90</v>
       </c>
       <c r="C18" s="25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="14.25" hidden="1">
@@ -7386,7 +7404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A15" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D30"/>
     </sheetView>
   </sheetViews>
@@ -7398,33 +7416,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="42" t="s">
-        <v>268</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="44"/>
+      <c r="A1" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="48"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B2" s="26" t="s">
+        <v>255</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>265</v>
+      </c>
+      <c r="F2" s="26" t="s">
         <v>259</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="26" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>269</v>
-      </c>
-      <c r="F2" s="26" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -7432,16 +7450,16 @@
         <v>42658</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C3" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D3" s="11">
         <v>6000</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -7450,16 +7468,16 @@
         <v>42658</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C4" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D4" s="11">
         <v>2000</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -7476,16 +7494,16 @@
         <v>42689</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D6" s="11">
         <v>6000</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -7494,16 +7512,16 @@
         <v>42689</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D7" s="11">
         <v>2000</v>
       </c>
       <c r="E7" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -7512,16 +7530,16 @@
         <v>42689</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D8" s="11">
         <v>1000</v>
       </c>
       <c r="E8" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F8" s="11"/>
     </row>
@@ -7538,16 +7556,16 @@
         <v>42719</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D10" s="11">
         <v>6000</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F10" s="11"/>
     </row>
@@ -7556,16 +7574,16 @@
         <v>42719</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D11" s="11">
         <v>2000</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -7574,16 +7592,16 @@
         <v>42719</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D12" s="11">
         <v>2100</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -7592,16 +7610,16 @@
         <v>42719</v>
       </c>
       <c r="B13" s="26" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D13" s="11">
         <v>1000</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -7610,16 +7628,16 @@
         <v>42719</v>
       </c>
       <c r="B14" s="26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C14" s="26" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="D14" s="11">
         <v>2000</v>
       </c>
       <c r="E14" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F14" s="11"/>
     </row>
@@ -7636,16 +7654,16 @@
         <v>42384</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="D16" s="11">
         <v>6000</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F16" s="11"/>
     </row>
@@ -7654,19 +7672,19 @@
         <v>42384</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="D17" s="11">
         <v>6000</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F17" s="33" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="40.5">
@@ -7674,19 +7692,19 @@
         <v>42384</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D18" s="11">
         <v>6000</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F18" s="33" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -7694,16 +7712,16 @@
         <v>42384</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D19" s="11">
         <v>2000</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F19" s="11"/>
     </row>
@@ -7712,16 +7730,16 @@
         <v>42384</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D20" s="11">
         <v>2000</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F20" s="11"/>
     </row>
@@ -7730,16 +7748,16 @@
         <v>42384</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D21" s="11">
         <v>2000</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F21" s="11"/>
     </row>
@@ -7748,19 +7766,19 @@
         <v>42384</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D22" s="11">
         <v>6000</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F22" s="33" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -7768,19 +7786,19 @@
         <v>42384</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="D23" s="11">
         <v>4617</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="27">
@@ -7788,19 +7806,19 @@
         <v>42384</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D24" s="11">
         <v>7630</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F24" s="33" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -7808,19 +7826,19 @@
         <v>42384</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D25" s="11">
         <v>5000</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -7828,16 +7846,16 @@
         <v>42384</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D26" s="11">
         <v>2000</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F26" s="11"/>
     </row>
@@ -7846,19 +7864,19 @@
         <v>42384</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="D27" s="11">
         <v>5060</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -7866,19 +7884,19 @@
         <v>42384</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="D28" s="11">
         <v>5240</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F28" s="11" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -7886,19 +7904,19 @@
         <v>42384</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D29" s="11">
         <v>5360</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -7906,19 +7924,19 @@
         <v>42384</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D30" s="11">
         <v>2105</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -8033,7 +8051,7 @@
   <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C3" sqref="C3:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8044,33 +8062,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="45" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
+      <c r="A1" s="49" t="s">
+        <v>382</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="26" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E2" s="26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F2" s="26" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8078,16 +8096,16 @@
         <v>42720</v>
       </c>
       <c r="B3" s="26" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C3" s="26">
         <v>40</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E3" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -8096,16 +8114,16 @@
         <v>42720</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="C4" s="11">
         <v>8</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E4" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -8114,16 +8132,16 @@
         <v>42724</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="C5" s="11">
         <v>272</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F5" s="11"/>
     </row>
@@ -8132,16 +8150,16 @@
         <v>42727</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="C6" s="11">
         <v>60</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -8150,175 +8168,175 @@
         <v>42727</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C7" s="11">
         <v>20</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F7" s="11"/>
-      <c r="H7" s="48"/>
+      <c r="H7" s="35"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="27">
         <v>42727</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="C8" s="11">
         <v>80</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F8" s="11"/>
-      <c r="H8" s="49"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="27">
         <v>42728</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C9" s="11">
         <v>920</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F9" s="11"/>
-      <c r="H9" s="49"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="27">
         <v>42736</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C10" s="11">
         <v>380</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F10" s="11"/>
-      <c r="H10" s="49"/>
+      <c r="H10" s="36"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="27">
         <v>42736</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C11" s="11">
         <v>680</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F11" s="11"/>
-      <c r="H11" s="49"/>
+      <c r="H11" s="36"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="27">
         <v>42736</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C12" s="11">
         <v>120</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F12" s="11"/>
-      <c r="H12" s="49"/>
+      <c r="H12" s="36"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="27">
         <v>42743</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C13" s="11">
         <v>1200</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F13" s="11"/>
-      <c r="H13" s="49"/>
+      <c r="H13" s="36"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="27">
         <v>42776</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="C14" s="32">
         <v>1500</v>
       </c>
       <c r="D14" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E14" s="32" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F14" s="32" t="s">
-        <v>369</v>
-      </c>
-      <c r="H14" s="49"/>
+        <v>364</v>
+      </c>
+      <c r="H14" s="36"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="27">
         <v>42780</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="C15" s="11">
         <v>152</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="H15" s="49"/>
+        <v>366</v>
+      </c>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:8" hidden="1">
       <c r="A16" s="11"/>
@@ -8330,18 +8348,30 @@
       <c r="D16" s="11"/>
       <c r="E16" s="11"/>
       <c r="F16" s="11"/>
-      <c r="H16" s="47">
+      <c r="H16" s="34">
         <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="H17" s="49"/>
+      <c r="A17" s="27">
+        <v>42787</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="C17" s="11">
+        <v>11000</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="H17" s="36"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11"/>
@@ -8350,7 +8380,7 @@
       <c r="D18" s="11"/>
       <c r="E18" s="11"/>
       <c r="F18" s="11"/>
-      <c r="H18" s="50"/>
+      <c r="H18" s="37"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11"/>
@@ -8359,7 +8389,7 @@
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
       <c r="F19" s="11"/>
-      <c r="H19" s="49"/>
+      <c r="H19" s="36"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11"/>
@@ -8389,8 +8419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8399,25 +8429,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="50" t="s">
         <v>383</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -8425,10 +8455,10 @@
         <v>42583</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="D3" s="11">
         <v>100000</v>
@@ -8439,10 +8469,10 @@
         <v>42583</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="D4" s="11">
         <v>120000</v>
@@ -8453,10 +8483,10 @@
         <v>42583</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="D5" s="11">
         <v>200000</v>
@@ -8467,10 +8497,10 @@
         <v>42583</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="D6" s="11">
         <v>60000</v>
@@ -8481,18 +8511,21 @@
         <v>42750</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>382</v>
+        <v>377</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11">
-        <v>61510</v>
+        <v>61590</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4">
+        <f>SUM(D3:D7)</f>
+        <v>541590</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/开支收入/领航教育账目.xlsx
+++ b/开支收入/领航教育账目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="装修零散材料" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="414">
   <si>
     <t>序号</t>
   </si>
@@ -1498,6 +1498,38 @@
   </si>
   <si>
     <t>100个</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>英语教师</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>清洁工</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>苏付祝</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>宋萍</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>朱芙德</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>冉玲玉</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>李煌浩</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -1704,7 +1736,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1822,45 +1854,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1882,40 +1875,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1935,6 +1898,81 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2219,16 +2257,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.1" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3277,33 +3315,33 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="B49" s="50"/>
-      <c r="C49" s="50"/>
-      <c r="D49" s="50"/>
-      <c r="E49" s="50"/>
-      <c r="F49" s="64">
+      <c r="B49" s="56"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="56"/>
+      <c r="F49" s="57">
         <f>SUM(F3:F48)</f>
         <v>4678</v>
       </c>
-      <c r="G49" s="47"/>
-      <c r="H49" s="48"/>
+      <c r="G49" s="58"/>
+      <c r="H49" s="59"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="B50" s="50"/>
-      <c r="C50" s="50"/>
-      <c r="D50" s="50"/>
-      <c r="E50" s="50"/>
-      <c r="F50" s="65">
+      <c r="B50" s="56"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="56"/>
+      <c r="E50" s="56"/>
+      <c r="F50" s="60">
         <v>520</v>
       </c>
-      <c r="G50" s="66"/>
-      <c r="H50" s="67"/>
+      <c r="G50" s="61"/>
+      <c r="H50" s="62"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H49">
@@ -3337,12 +3375,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -3427,24 +3465,24 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="70" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="47"/>
-      <c r="C8" s="48"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="59"/>
       <c r="D8" s="4">
         <f>SUM(D3:D7)</f>
         <v>541590</v>
       </c>
     </row>
     <row r="9" spans="1:4">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="46" t="s">
         <v>377</v>
       </c>
       <c r="B9" s="4">
         <v>576816</v>
       </c>
-      <c r="C9" s="61" t="s">
+      <c r="C9" s="46" t="s">
         <v>389</v>
       </c>
       <c r="D9" s="31">
@@ -3452,7 +3490,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="46" t="s">
         <v>390</v>
       </c>
       <c r="B11" s="4">
@@ -3462,7 +3500,7 @@
       <c r="D11" s="4"/>
     </row>
     <row r="12" spans="1:4">
-      <c r="A12" s="61" t="s">
+      <c r="A12" s="46" t="s">
         <v>391</v>
       </c>
       <c r="B12" s="4">
@@ -3472,7 +3510,7 @@
       <c r="D12" s="4"/>
     </row>
     <row r="13" spans="1:4">
-      <c r="A13" s="72" t="s">
+      <c r="A13" s="49" t="s">
         <v>392</v>
       </c>
       <c r="B13" s="4">
@@ -3482,7 +3520,7 @@
       <c r="D13" s="4"/>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="49" t="s">
         <v>393</v>
       </c>
       <c r="B14" s="4">
@@ -3492,7 +3530,7 @@
       <c r="D14" s="4"/>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="72" t="s">
+      <c r="A15" s="49" t="s">
         <v>394</v>
       </c>
       <c r="B15" s="4">
@@ -3502,7 +3540,7 @@
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="49" t="s">
         <v>395</v>
       </c>
       <c r="B16" s="4">
@@ -3512,7 +3550,7 @@
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="72" t="s">
+      <c r="A17" s="49" t="s">
         <v>396</v>
       </c>
       <c r="B17" s="4">
@@ -3553,16 +3591,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="63" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3875,7 +3913,7 @@
       <c r="G15" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="H15" s="73" t="s">
+      <c r="H15" s="50" t="s">
         <v>397</v>
       </c>
     </row>
@@ -3951,7 +3989,7 @@
       <c r="G19" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="50" t="s">
         <v>398</v>
       </c>
     </row>
@@ -4017,10 +4055,10 @@
       <c r="F22" s="6">
         <v>11271.6</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="H22" s="41" t="s">
+      <c r="H22" s="64" t="s">
         <v>233</v>
       </c>
       <c r="J22" s="9"/>
@@ -4044,8 +4082,8 @@
       <c r="F23" s="6">
         <v>27993</v>
       </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
@@ -4067,8 +4105,8 @@
       <c r="F24" s="6">
         <v>1700</v>
       </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
+      <c r="G24" s="65"/>
+      <c r="H24" s="65"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
@@ -4090,8 +4128,8 @@
       <c r="F25" s="6">
         <v>665</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
+      <c r="G25" s="65"/>
+      <c r="H25" s="65"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
@@ -4113,8 +4151,8 @@
       <c r="F26" s="6">
         <v>1167.5</v>
       </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1">
@@ -4136,8 +4174,8 @@
       <c r="F27" s="6">
         <v>4038</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
+      <c r="G27" s="65"/>
+      <c r="H27" s="65"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1">
@@ -4159,8 +4197,8 @@
       <c r="F28" s="6">
         <v>2700</v>
       </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1">
@@ -4182,8 +4220,8 @@
       <c r="F29" s="6">
         <v>720</v>
       </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
+      <c r="G29" s="65"/>
+      <c r="H29" s="65"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1">
@@ -4205,8 +4243,8 @@
       <c r="F30" s="6">
         <v>684</v>
       </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1">
@@ -4228,8 +4266,8 @@
       <c r="F31" s="6">
         <v>2272</v>
       </c>
-      <c r="G31" s="43"/>
-      <c r="H31" s="43"/>
+      <c r="G31" s="66"/>
+      <c r="H31" s="66"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1">
@@ -4307,41 +4345,41 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="49" t="s">
+      <c r="A35" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="50"/>
-      <c r="D35" s="50"/>
-      <c r="E35" s="50"/>
-      <c r="F35" s="64">
+      <c r="B35" s="56"/>
+      <c r="C35" s="56"/>
+      <c r="D35" s="56"/>
+      <c r="E35" s="56"/>
+      <c r="F35" s="57">
         <f>SUM(F3:F34)</f>
         <v>280750.09999999998</v>
       </c>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
+      <c r="G35" s="58"/>
+      <c r="H35" s="59"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="49" t="s">
+      <c r="A36" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="50"/>
-      <c r="D36" s="50"/>
-      <c r="E36" s="50"/>
-      <c r="F36" s="65">
+      <c r="B36" s="56"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="60">
         <v>39369</v>
       </c>
-      <c r="G36" s="66"/>
-      <c r="H36" s="67"/>
+      <c r="G36" s="61"/>
+      <c r="H36" s="62"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="62"/>
-      <c r="B37" s="51"/>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="51"/>
-      <c r="F37" s="63"/>
+      <c r="A37" s="68"/>
+      <c r="B37" s="69"/>
+      <c r="C37" s="69"/>
+      <c r="D37" s="69"/>
+      <c r="E37" s="69"/>
+      <c r="F37" s="47"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H37">
@@ -4384,16 +4422,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="54" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4440,10 +4478,10 @@
       <c r="F3" s="6">
         <v>360</v>
       </c>
-      <c r="G3" s="44" t="s">
+      <c r="G3" s="67" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="64" t="s">
         <v>234</v>
       </c>
       <c r="J3" s="9"/>
@@ -4467,8 +4505,8 @@
       <c r="F4" s="6">
         <v>1800</v>
       </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
@@ -4490,8 +4528,8 @@
       <c r="F5" s="6">
         <v>11800</v>
       </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
@@ -4513,8 +4551,8 @@
       <c r="F6" s="6">
         <v>11900</v>
       </c>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
@@ -4705,7 +4743,7 @@
       <c r="A16" s="6">
         <v>14</v>
       </c>
-      <c r="B16" s="73" t="s">
+      <c r="B16" s="50" t="s">
         <v>399</v>
       </c>
       <c r="C16" s="6"/>
@@ -4753,7 +4791,7 @@
       <c r="G18" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="73" t="s">
+      <c r="H18" s="50" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4773,7 +4811,7 @@
       <c r="G19" s="23" t="s">
         <v>227</v>
       </c>
-      <c r="H19" s="73" t="s">
+      <c r="H19" s="50" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4781,7 +4819,7 @@
       <c r="A20" s="6">
         <v>18</v>
       </c>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="50" t="s">
         <v>400</v>
       </c>
       <c r="C20" s="6"/>
@@ -4807,7 +4845,7 @@
         <v>1394</v>
       </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="73" t="s">
+      <c r="H21" s="50" t="s">
         <v>402</v>
       </c>
     </row>
@@ -4909,7 +4947,7 @@
       <c r="A27" s="6">
         <v>25</v>
       </c>
-      <c r="B27" s="74" t="s">
+      <c r="B27" s="51" t="s">
         <v>401</v>
       </c>
       <c r="C27" s="2"/>
@@ -4968,33 +5006,33 @@
       <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50">
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56">
         <f>SUM(F3:F29)</f>
         <v>180910.82</v>
       </c>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
     </row>
     <row r="31" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50"/>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50">
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56">
         <v>44860</v>
       </c>
-      <c r="G31" s="50"/>
-      <c r="H31" s="50"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H31">
@@ -5034,14 +5072,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="54" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -5402,29 +5440,29 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="49" t="s">
+      <c r="A23" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="B23" s="50"/>
-      <c r="C23" s="50"/>
-      <c r="D23" s="50">
+      <c r="B23" s="56"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56">
         <f>SUM(D3:D22)</f>
         <v>92630</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="56"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="46" t="s">
+      <c r="A24" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="64">
+      <c r="B24" s="58"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="57">
         <v>68600</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F24">
@@ -5465,16 +5503,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="71" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
@@ -5590,29 +5628,29 @@
       </c>
       <c r="H6" s="15"/>
     </row>
-    <row r="7" spans="1:8" s="55" customFormat="1" ht="14.25">
-      <c r="A7" s="54">
+    <row r="7" spans="1:8" s="42" customFormat="1" ht="14.25">
+      <c r="A7" s="41">
         <v>5</v>
       </c>
-      <c r="B7" s="54" t="s">
+      <c r="B7" s="41" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54">
+      <c r="D7" s="41">
         <v>12</v>
       </c>
-      <c r="E7" s="54">
+      <c r="E7" s="41">
         <v>285</v>
       </c>
-      <c r="F7" s="54">
+      <c r="F7" s="41">
         <v>3420</v>
       </c>
-      <c r="G7" s="54" t="s">
+      <c r="G7" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="H7" s="54" t="s">
+      <c r="H7" s="41" t="s">
         <v>96</v>
       </c>
     </row>
@@ -5636,29 +5674,29 @@
         <v>163</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="55" customFormat="1" ht="14.25">
-      <c r="A9" s="54">
+    <row r="9" spans="1:8" s="42" customFormat="1" ht="14.25">
+      <c r="A9" s="41">
         <v>7</v>
       </c>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="C9" s="54" t="s">
+      <c r="C9" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="54">
+      <c r="D9" s="41">
         <v>32</v>
       </c>
-      <c r="E9" s="54">
+      <c r="E9" s="41">
         <v>170</v>
       </c>
-      <c r="F9" s="54">
+      <c r="F9" s="41">
         <v>5440</v>
       </c>
-      <c r="G9" s="54" t="s">
+      <c r="G9" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="H9" s="54" t="s">
+      <c r="H9" s="41" t="s">
         <v>165</v>
       </c>
     </row>
@@ -5780,7 +5818,7 @@
       <c r="G14" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="H14" s="75" t="s">
+      <c r="H14" s="52" t="s">
         <v>403</v>
       </c>
     </row>
@@ -5850,29 +5888,29 @@
       </c>
       <c r="H17" s="15"/>
     </row>
-    <row r="18" spans="1:8" s="55" customFormat="1" ht="14.25">
-      <c r="A18" s="54">
+    <row r="18" spans="1:8" s="42" customFormat="1" ht="14.25">
+      <c r="A18" s="41">
         <v>16</v>
       </c>
-      <c r="B18" s="54" t="s">
+      <c r="B18" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="54" t="s">
+      <c r="C18" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="54">
+      <c r="D18" s="41">
         <v>1</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="41">
         <v>4099</v>
       </c>
-      <c r="F18" s="54">
+      <c r="F18" s="41">
         <v>4099</v>
       </c>
-      <c r="G18" s="54" t="s">
+      <c r="G18" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="H18" s="54"/>
+      <c r="H18" s="41"/>
     </row>
     <row r="19" spans="1:8" ht="14.25">
       <c r="A19" s="15">
@@ -6062,29 +6100,29 @@
       </c>
       <c r="H26" s="15"/>
     </row>
-    <row r="27" spans="1:8" s="55" customFormat="1" ht="14.25">
-      <c r="A27" s="54">
+    <row r="27" spans="1:8" s="42" customFormat="1" ht="14.25">
+      <c r="A27" s="41">
         <v>25</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="43" t="s">
         <v>371</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D27" s="56">
+      <c r="D27" s="43">
         <v>1</v>
       </c>
-      <c r="E27" s="56">
+      <c r="E27" s="43">
         <v>3800</v>
       </c>
-      <c r="F27" s="54">
+      <c r="F27" s="41">
         <v>3800</v>
       </c>
-      <c r="G27" s="54" t="s">
+      <c r="G27" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="H27" s="54"/>
+      <c r="H27" s="41"/>
     </row>
     <row r="28" spans="1:8" ht="14.25">
       <c r="A28" s="15">
@@ -6252,49 +6290,49 @@
       </c>
       <c r="H34" s="15"/>
     </row>
-    <row r="35" spans="1:8" s="55" customFormat="1" ht="14.25">
-      <c r="A35" s="54">
+    <row r="35" spans="1:8" s="42" customFormat="1" ht="14.25">
+      <c r="A35" s="41">
         <v>33</v>
       </c>
-      <c r="B35" s="56" t="s">
+      <c r="B35" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="C35" s="54"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="56">
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+      <c r="F35" s="43">
         <v>3877</v>
       </c>
-      <c r="G35" s="56" t="s">
+      <c r="G35" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="H35" s="54" t="s">
+      <c r="H35" s="41" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="55" customFormat="1" ht="14.25">
-      <c r="A36" s="54">
+    <row r="36" spans="1:8" s="42" customFormat="1" ht="14.25">
+      <c r="A36" s="41">
         <v>34</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="C36" s="56" t="s">
+      <c r="C36" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D36" s="56">
+      <c r="D36" s="43">
         <v>1</v>
       </c>
-      <c r="E36" s="56">
+      <c r="E36" s="43">
         <v>3200</v>
       </c>
-      <c r="F36" s="56">
+      <c r="F36" s="43">
         <v>3200</v>
       </c>
-      <c r="G36" s="56" t="s">
+      <c r="G36" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="H36" s="54"/>
+      <c r="H36" s="41"/>
     </row>
     <row r="37" spans="1:8" ht="14.25">
       <c r="A37" s="15">
@@ -6440,29 +6478,29 @@
       </c>
       <c r="H42" s="15"/>
     </row>
-    <row r="43" spans="1:8" s="55" customFormat="1" ht="14.25">
-      <c r="A43" s="54">
+    <row r="43" spans="1:8" s="42" customFormat="1" ht="14.25">
+      <c r="A43" s="41">
         <v>41</v>
       </c>
-      <c r="B43" s="56" t="s">
+      <c r="B43" s="43" t="s">
         <v>202</v>
       </c>
-      <c r="C43" s="56" t="s">
+      <c r="C43" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="56">
+      <c r="D43" s="43">
         <v>1</v>
       </c>
-      <c r="E43" s="56">
+      <c r="E43" s="43">
         <v>3700</v>
       </c>
-      <c r="F43" s="56">
+      <c r="F43" s="43">
         <v>3700</v>
       </c>
-      <c r="G43" s="56" t="s">
+      <c r="G43" s="43" t="s">
         <v>227</v>
       </c>
-      <c r="H43" s="54"/>
+      <c r="H43" s="41"/>
     </row>
     <row r="44" spans="1:8" ht="14.25">
       <c r="A44" s="15">
@@ -6934,29 +6972,29 @@
       </c>
       <c r="H63" s="11"/>
     </row>
-    <row r="64" spans="1:8" s="55" customFormat="1" ht="14.25">
-      <c r="A64" s="54">
+    <row r="64" spans="1:8" s="42" customFormat="1" ht="14.25">
+      <c r="A64" s="41">
         <v>62</v>
       </c>
-      <c r="B64" s="57" t="s">
+      <c r="B64" s="44" t="s">
         <v>372</v>
       </c>
-      <c r="C64" s="57" t="s">
+      <c r="C64" s="44" t="s">
         <v>373</v>
       </c>
-      <c r="D64" s="57">
+      <c r="D64" s="44">
         <v>96</v>
       </c>
-      <c r="E64" s="57">
+      <c r="E64" s="44">
         <v>170</v>
       </c>
-      <c r="F64" s="57">
+      <c r="F64" s="44">
         <v>16320</v>
       </c>
-      <c r="G64" s="57" t="s">
+      <c r="G64" s="44" t="s">
         <v>227</v>
       </c>
-      <c r="H64" s="57" t="s">
+      <c r="H64" s="44" t="s">
         <v>288</v>
       </c>
     </row>
@@ -7332,25 +7370,25 @@
       <c r="A81" s="27">
         <v>79</v>
       </c>
-      <c r="B81" s="58" t="s">
+      <c r="B81" s="45" t="s">
         <v>346</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="D81" s="58">
+      <c r="D81" s="45">
         <v>1</v>
       </c>
-      <c r="E81" s="58">
+      <c r="E81" s="45">
         <v>220</v>
       </c>
-      <c r="F81" s="58">
+      <c r="F81" s="45">
         <v>220</v>
       </c>
-      <c r="G81" s="58" t="s">
-        <v>229</v>
-      </c>
-      <c r="H81" s="58"/>
+      <c r="G81" s="45" t="s">
+        <v>229</v>
+      </c>
+      <c r="H81" s="45"/>
     </row>
     <row r="82" spans="1:8" ht="14.25">
       <c r="A82" s="15">
@@ -7377,33 +7415,33 @@
       <c r="H82" s="11"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="49" t="s">
+      <c r="A83" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="B83" s="50"/>
-      <c r="C83" s="50"/>
-      <c r="D83" s="50"/>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50">
+      <c r="B83" s="56"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="56"/>
+      <c r="E83" s="56"/>
+      <c r="F83" s="56">
         <f>SUM(F3:F82)</f>
         <v>79953.2</v>
       </c>
-      <c r="G83" s="50"/>
-      <c r="H83" s="50"/>
+      <c r="G83" s="56"/>
+      <c r="H83" s="56"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="46" t="s">
+      <c r="A84" s="70" t="s">
         <v>377</v>
       </c>
-      <c r="B84" s="47"/>
-      <c r="C84" s="47"/>
-      <c r="D84" s="47"/>
-      <c r="E84" s="48"/>
-      <c r="F84" s="64">
+      <c r="B84" s="58"/>
+      <c r="C84" s="58"/>
+      <c r="D84" s="58"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="57">
         <v>79953.2</v>
       </c>
-      <c r="G84" s="47"/>
-      <c r="H84" s="48"/>
+      <c r="G84" s="58"/>
+      <c r="H84" s="59"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="34"/>
@@ -7460,16 +7498,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="72" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="69"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="73"/>
     </row>
     <row r="2" spans="1:5" ht="14.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="46" t="s">
         <v>381</v>
       </c>
       <c r="B2" s="14" t="s">
@@ -7685,7 +7723,7 @@
       <c r="D14" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="E14" s="75" t="s">
+      <c r="E14" s="52" t="s">
         <v>404</v>
       </c>
     </row>
@@ -7756,27 +7794,27 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25">
-      <c r="A19" s="49" t="s">
+      <c r="A19" s="55" t="s">
         <v>378</v>
       </c>
-      <c r="B19" s="50"/>
-      <c r="C19" s="70">
+      <c r="B19" s="56"/>
+      <c r="C19" s="74">
         <f>SUM(C3:C18)</f>
         <v>12597</v>
       </c>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="49" t="s">
+      <c r="A20" s="55" t="s">
         <v>377</v>
       </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="50">
+      <c r="B20" s="56"/>
+      <c r="C20" s="56">
         <v>12397</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="50"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E20">
@@ -7799,8 +7837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32:F32"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7811,14 +7849,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="70" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="59"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
@@ -8178,7 +8216,7 @@
       <c r="E22" s="11" t="s">
         <v>251</v>
       </c>
-      <c r="F22" s="71" t="s">
+      <c r="F22" s="48" t="s">
         <v>385</v>
       </c>
       <c r="H22" s="34"/>
@@ -8230,7 +8268,7 @@
         <v>42384</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>319</v>
+        <v>406</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>333</v>
@@ -8348,94 +8386,128 @@
       <c r="H30" s="34"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="49" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="H31" s="7"/>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" s="26">
+        <v>42384</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="D32" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="26">
+        <v>42384</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="D33" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E33" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F33" s="11"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="26">
+        <v>42384</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>411</v>
+      </c>
+      <c r="D34" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E34" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F34" s="11"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="26">
+        <v>42384</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="D35" s="11">
+        <v>1800</v>
+      </c>
+      <c r="E35" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="F35" s="11"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="26">
+        <v>42384</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>407</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>251</v>
+      </c>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="70" t="s">
         <v>383</v>
       </c>
-      <c r="B31" s="50"/>
-      <c r="C31" s="50"/>
-      <c r="D31" s="50">
-        <f>SUM(D3:D30)</f>
-        <v>83512</v>
-      </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="H31" s="7"/>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="49" t="s">
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="57">
+        <f>SUM(D3:D36)</f>
+        <v>92312</v>
+      </c>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50">
-        <v>83512</v>
-      </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="34"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="34"/>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34" s="34"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="34"/>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="34"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="34"/>
-    </row>
-    <row r="36" spans="1:6">
-      <c r="A36" s="34"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="34"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="34"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="34"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="34"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39" s="34"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="34"/>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="34"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="34"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="56">
+        <v>92312</v>
+      </c>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="34"/>
@@ -8457,10 +8529,10 @@
   <autoFilter ref="A2:F4"/>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:F38"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8487,18 +8559,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="46" t="s">
         <v>376</v>
       </c>
       <c r="B2" s="25" t="s">
@@ -8777,7 +8849,7 @@
       <c r="F14" s="31" t="s">
         <v>251</v>
       </c>
-      <c r="G14" s="76" t="s">
+      <c r="G14" s="53" t="s">
         <v>405</v>
       </c>
       <c r="I14" s="34"/>
@@ -8829,32 +8901,32 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="49" t="s">
+      <c r="A17" s="55" t="s">
         <v>383</v>
       </c>
-      <c r="B17" s="50"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50">
+      <c r="B17" s="56"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56">
         <f>SUM(D3:D16)</f>
         <v>16432</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="50"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
       <c r="I17" s="35"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="49" t="s">
+      <c r="A18" s="55" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50">
+      <c r="B18" s="56"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56">
         <v>5432</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9">
@@ -8886,7 +8958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -8899,13 +8971,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
@@ -9029,7 +9101,7 @@
       <c r="D9" s="37" t="s">
         <v>229</v>
       </c>
-      <c r="E9" s="52" t="s">
+      <c r="E9" s="39" t="s">
         <v>313</v>
       </c>
     </row>
@@ -9060,33 +9132,33 @@
       <c r="C11" s="38">
         <v>4718</v>
       </c>
-      <c r="D11" s="53" t="s">
+      <c r="D11" s="40" t="s">
         <v>229</v>
       </c>
       <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="49" t="s">
+      <c r="A12" s="55" t="s">
         <v>379</v>
       </c>
-      <c r="B12" s="50"/>
-      <c r="C12" s="50">
+      <c r="B12" s="56"/>
+      <c r="C12" s="56">
         <f>SUM(C3:C11)</f>
         <v>302173</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="50"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="49" t="s">
+      <c r="A13" s="55" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50">
+      <c r="B13" s="56"/>
+      <c r="C13" s="56">
         <v>242173</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="50"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/开支收入/领航教育账目.xlsx
+++ b/开支收入/领航教育账目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="装修零散材料" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="汇总数据" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">办公用品!$A$2:$H$84</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">办公用品!$A$2:$H$90</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">工作人员工资!$A$2:$F$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">借条!$A$2:$F$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">招待费!$B$2:$E$20</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="414">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="858" uniqueCount="431">
   <si>
     <t>序号</t>
   </si>
@@ -1531,6 +1531,74 @@
   <si>
     <t>李煌浩</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>固体胶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>热水壶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月-2月电费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>文具类</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>教辅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>思源中学招生车费</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>纸、杯子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥数教辅</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>水费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10-11月水费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12-2月水费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1736,7 +1804,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1899,6 +1967,12 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1962,16 +2036,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2257,16 +2331,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.1" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3315,33 +3389,33 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="55" t="s">
+      <c r="A49" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="B49" s="56"/>
-      <c r="C49" s="56"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="57">
+      <c r="B49" s="58"/>
+      <c r="C49" s="58"/>
+      <c r="D49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59">
         <f>SUM(F3:F48)</f>
         <v>4678</v>
       </c>
-      <c r="G49" s="58"/>
-      <c r="H49" s="59"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="61"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="55" t="s">
+      <c r="A50" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="56"/>
-      <c r="D50" s="56"/>
-      <c r="E50" s="56"/>
-      <c r="F50" s="60">
+      <c r="B50" s="58"/>
+      <c r="C50" s="58"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="62">
         <v>520</v>
       </c>
-      <c r="G50" s="61"/>
-      <c r="H50" s="62"/>
+      <c r="G50" s="63"/>
+      <c r="H50" s="64"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H49">
@@ -3375,12 +3449,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -3465,11 +3539,11 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="70" t="s">
+      <c r="A8" s="72" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="58"/>
-      <c r="C8" s="59"/>
+      <c r="B8" s="60"/>
+      <c r="C8" s="61"/>
       <c r="D8" s="4">
         <f>SUM(D3:D7)</f>
         <v>541590</v>
@@ -3591,16 +3665,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4055,10 +4129,10 @@
       <c r="F22" s="6">
         <v>11271.6</v>
       </c>
-      <c r="G22" s="67" t="s">
+      <c r="G22" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="H22" s="64" t="s">
+      <c r="H22" s="66" t="s">
         <v>233</v>
       </c>
       <c r="J22" s="9"/>
@@ -4082,8 +4156,8 @@
       <c r="F23" s="6">
         <v>27993</v>
       </c>
-      <c r="G23" s="65"/>
-      <c r="H23" s="65"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
@@ -4105,8 +4179,8 @@
       <c r="F24" s="6">
         <v>1700</v>
       </c>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
@@ -4128,8 +4202,8 @@
       <c r="F25" s="6">
         <v>665</v>
       </c>
-      <c r="G25" s="65"/>
-      <c r="H25" s="65"/>
+      <c r="G25" s="67"/>
+      <c r="H25" s="67"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
@@ -4151,8 +4225,8 @@
       <c r="F26" s="6">
         <v>1167.5</v>
       </c>
-      <c r="G26" s="65"/>
-      <c r="H26" s="65"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1">
@@ -4174,8 +4248,8 @@
       <c r="F27" s="6">
         <v>4038</v>
       </c>
-      <c r="G27" s="65"/>
-      <c r="H27" s="65"/>
+      <c r="G27" s="67"/>
+      <c r="H27" s="67"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1">
@@ -4197,8 +4271,8 @@
       <c r="F28" s="6">
         <v>2700</v>
       </c>
-      <c r="G28" s="65"/>
-      <c r="H28" s="65"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1">
@@ -4220,8 +4294,8 @@
       <c r="F29" s="6">
         <v>720</v>
       </c>
-      <c r="G29" s="65"/>
-      <c r="H29" s="65"/>
+      <c r="G29" s="67"/>
+      <c r="H29" s="67"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1">
@@ -4243,8 +4317,8 @@
       <c r="F30" s="6">
         <v>684</v>
       </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1">
@@ -4266,8 +4340,8 @@
       <c r="F31" s="6">
         <v>2272</v>
       </c>
-      <c r="G31" s="66"/>
-      <c r="H31" s="66"/>
+      <c r="G31" s="68"/>
+      <c r="H31" s="68"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1">
@@ -4345,40 +4419,40 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="55" t="s">
+      <c r="A35" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="B35" s="56"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="56"/>
-      <c r="E35" s="56"/>
-      <c r="F35" s="57">
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="58"/>
+      <c r="F35" s="59">
         <f>SUM(F3:F34)</f>
         <v>280750.09999999998</v>
       </c>
-      <c r="G35" s="58"/>
-      <c r="H35" s="59"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="61"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="55" t="s">
+      <c r="A36" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="B36" s="56"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="60">
+      <c r="B36" s="58"/>
+      <c r="C36" s="58"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="58"/>
+      <c r="F36" s="62">
         <v>39369</v>
       </c>
-      <c r="G36" s="61"/>
-      <c r="H36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="64"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="68"/>
-      <c r="B37" s="69"/>
-      <c r="C37" s="69"/>
-      <c r="D37" s="69"/>
-      <c r="E37" s="69"/>
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
       <c r="F37" s="47"/>
     </row>
   </sheetData>
@@ -4422,16 +4496,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
-      <c r="H1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4478,10 +4552,10 @@
       <c r="F3" s="6">
         <v>360</v>
       </c>
-      <c r="G3" s="67" t="s">
+      <c r="G3" s="69" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="64" t="s">
+      <c r="H3" s="66" t="s">
         <v>234</v>
       </c>
       <c r="J3" s="9"/>
@@ -4505,8 +4579,8 @@
       <c r="F4" s="6">
         <v>1800</v>
       </c>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
@@ -4528,8 +4602,8 @@
       <c r="F5" s="6">
         <v>11800</v>
       </c>
-      <c r="G5" s="65"/>
-      <c r="H5" s="65"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
@@ -4551,8 +4625,8 @@
       <c r="F6" s="6">
         <v>11900</v>
       </c>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
@@ -5006,33 +5080,33 @@
       <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="56"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="56"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56">
+      <c r="B30" s="58"/>
+      <c r="C30" s="58"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="58">
         <f>SUM(F3:F29)</f>
         <v>180910.82</v>
       </c>
-      <c r="G30" s="56"/>
-      <c r="H30" s="56"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
     </row>
     <row r="31" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A31" s="55" t="s">
+      <c r="A31" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="56"/>
-      <c r="C31" s="56"/>
-      <c r="D31" s="56"/>
-      <c r="E31" s="56"/>
-      <c r="F31" s="56">
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58">
         <v>44860</v>
       </c>
-      <c r="G31" s="56"/>
-      <c r="H31" s="56"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H31">
@@ -5072,14 +5146,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="56" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -5440,29 +5514,29 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="B23" s="56"/>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56">
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58">
         <f>SUM(D3:D22)</f>
         <v>92630</v>
       </c>
-      <c r="E23" s="56"/>
-      <c r="F23" s="56"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="70" t="s">
+      <c r="A24" s="72" t="s">
         <v>377</v>
       </c>
-      <c r="B24" s="58"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="57">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="59">
         <v>68600</v>
       </c>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
+      <c r="E24" s="60"/>
+      <c r="F24" s="61"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F24">
@@ -5484,10 +5558,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F85" sqref="F85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5503,16 +5577,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
@@ -7414,65 +7488,193 @@
       </c>
       <c r="H82" s="11"/>
     </row>
-    <row r="83" spans="1:8">
-      <c r="A83" s="55" t="s">
+    <row r="83" spans="1:8" ht="14.25">
+      <c r="A83" s="15">
+        <v>81</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D83" s="11">
+        <v>1</v>
+      </c>
+      <c r="E83" s="11">
+        <v>3</v>
+      </c>
+      <c r="F83" s="11">
+        <v>3</v>
+      </c>
+      <c r="G83" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8" ht="14.25">
+      <c r="A84" s="15">
+        <v>82</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>416</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D84" s="11">
+        <v>1</v>
+      </c>
+      <c r="E84" s="11">
+        <v>55</v>
+      </c>
+      <c r="F84" s="11">
+        <v>55</v>
+      </c>
+      <c r="G84" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="1:8" ht="14.25">
+      <c r="A85" s="15">
+        <v>83</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="C85" s="11"/>
+      <c r="D85" s="11"/>
+      <c r="E85" s="11"/>
+      <c r="F85" s="11">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="G85" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H85" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="14.25">
+      <c r="A86" s="15">
+        <v>84</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>421</v>
+      </c>
+      <c r="C86" s="11"/>
+      <c r="D86" s="11"/>
+      <c r="E86" s="11"/>
+      <c r="F86" s="11">
+        <v>164.5</v>
+      </c>
+      <c r="G86" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="14.25">
+      <c r="A87" s="15">
+        <v>85</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="F87" s="11">
+        <v>30.9</v>
+      </c>
+      <c r="G87" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="1:8" ht="14.25">
+      <c r="A88" s="15">
+        <v>86</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="C88" s="11"/>
+      <c r="D88" s="11"/>
+      <c r="E88" s="11"/>
+      <c r="F88" s="11">
+        <v>55</v>
+      </c>
+      <c r="G88" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="H88" s="11" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="B83" s="56"/>
-      <c r="C83" s="56"/>
-      <c r="D83" s="56"/>
-      <c r="E83" s="56"/>
-      <c r="F83" s="56">
-        <f>SUM(F3:F82)</f>
+      <c r="B89" s="58"/>
+      <c r="C89" s="58"/>
+      <c r="D89" s="58"/>
+      <c r="E89" s="58"/>
+      <c r="F89" s="58">
+        <f>SUM(F3:F88)</f>
+        <v>80396.899999999994</v>
+      </c>
+      <c r="G89" s="58"/>
+      <c r="H89" s="58"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="B90" s="60"/>
+      <c r="C90" s="60"/>
+      <c r="D90" s="60"/>
+      <c r="E90" s="61"/>
+      <c r="F90" s="59">
         <v>79953.2</v>
       </c>
-      <c r="G83" s="56"/>
-      <c r="H83" s="56"/>
-    </row>
-    <row r="84" spans="1:8">
-      <c r="A84" s="70" t="s">
-        <v>377</v>
-      </c>
-      <c r="B84" s="58"/>
-      <c r="C84" s="58"/>
-      <c r="D84" s="58"/>
-      <c r="E84" s="59"/>
-      <c r="F84" s="57">
-        <v>79953.2</v>
-      </c>
-      <c r="G84" s="58"/>
-      <c r="H84" s="59"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="34"/>
-      <c r="B85" s="34"/>
-      <c r="C85" s="34"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="34"/>
-      <c r="F85" s="34"/>
-      <c r="G85" s="34"/>
-      <c r="H85" s="34"/>
-    </row>
-    <row r="86" spans="1:8">
-      <c r="A86" s="34"/>
-      <c r="B86" s="34"/>
-      <c r="C86" s="34"/>
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
+      <c r="G90" s="60"/>
+      <c r="H90" s="61"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="34"/>
+      <c r="B91" s="34"/>
+      <c r="C91" s="34"/>
+      <c r="D91" s="34"/>
+      <c r="E91" s="34"/>
+      <c r="F91" s="34"/>
+      <c r="G91" s="34"/>
+      <c r="H91" s="34"/>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="34"/>
+      <c r="B92" s="34"/>
+      <c r="C92" s="34"/>
+      <c r="D92" s="34"/>
+      <c r="E92" s="34"/>
+      <c r="F92" s="34"/>
+      <c r="G92" s="34"/>
+      <c r="H92" s="34"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H84">
+  <autoFilter ref="A2:H90">
     <filterColumn colId="6"/>
   </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A83:E83"/>
-    <mergeCell ref="F83:H83"/>
-    <mergeCell ref="A84:E84"/>
-    <mergeCell ref="F84:H84"/>
+    <mergeCell ref="A89:E89"/>
+    <mergeCell ref="F89:H89"/>
+    <mergeCell ref="A90:E90"/>
+    <mergeCell ref="F90:H90"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7498,13 +7700,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="74" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="73"/>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="75"/>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="46" t="s">
@@ -7794,27 +7996,27 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25">
-      <c r="A19" s="55" t="s">
+      <c r="A19" s="57" t="s">
         <v>378</v>
       </c>
-      <c r="B19" s="56"/>
-      <c r="C19" s="74">
+      <c r="B19" s="58"/>
+      <c r="C19" s="76">
         <f>SUM(C3:C18)</f>
         <v>12597</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="55" t="s">
+      <c r="A20" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="B20" s="56"/>
-      <c r="C20" s="56">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58">
         <v>12397</v>
       </c>
-      <c r="D20" s="56"/>
-      <c r="E20" s="56"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E20">
@@ -7837,7 +8039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D38" sqref="D38:F38"/>
     </sheetView>
   </sheetViews>
@@ -7849,14 +8051,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
@@ -8485,29 +8687,29 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="70" t="s">
+      <c r="A37" s="72" t="s">
         <v>383</v>
       </c>
       <c r="B37" s="77"/>
       <c r="C37" s="78"/>
-      <c r="D37" s="57">
+      <c r="D37" s="59">
         <f>SUM(D3:D36)</f>
         <v>92312</v>
       </c>
-      <c r="E37" s="58"/>
-      <c r="F37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="61"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="55" t="s">
+      <c r="A38" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="B38" s="56"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="56">
+      <c r="B38" s="58"/>
+      <c r="C38" s="58"/>
+      <c r="D38" s="58">
         <v>92312</v>
       </c>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="58"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="34"/>
@@ -8542,10 +8744,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8559,15 +8761,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="75" t="s">
+      <c r="A1" s="79" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="75"/>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="46" t="s">
@@ -8901,41 +9103,71 @@
       <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9">
-      <c r="A17" s="55" t="s">
+      <c r="A17" s="11">
+        <v>15</v>
+      </c>
+      <c r="B17" s="26">
+        <v>42752</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>423</v>
+      </c>
+      <c r="D17" s="11">
+        <v>44</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="I17" s="34"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="11"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="I18" s="34"/>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="56">
-        <f>SUM(D3:D16)</f>
-        <v>16432</v>
-      </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
-      <c r="G17" s="56"/>
-      <c r="I17" s="35"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="55" t="s">
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58">
+        <f>SUM(D3:D17)</f>
+        <v>16476</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="I19" s="35"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="B18" s="56"/>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56">
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58">
         <v>5432</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
-      <c r="I18" s="34"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="I20" s="34"/>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:G16">
@@ -8943,10 +9175,10 @@
   </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:G17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:G18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:G20"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8956,10 +9188,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8967,17 +9199,17 @@
     <col min="1" max="1" width="7.125" customWidth="1"/>
     <col min="2" max="2" width="18.125" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="58" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
@@ -9137,36 +9369,87 @@
       </c>
       <c r="E11" s="38"/>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="55" t="s">
+    <row r="12" spans="1:5" ht="14.25">
+      <c r="A12" s="54">
+        <v>10</v>
+      </c>
+      <c r="B12" s="54" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="54">
+        <v>1523.8</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>417</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.25">
+      <c r="A13" s="55">
+        <v>11</v>
+      </c>
+      <c r="B13" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="C13" s="55">
+        <v>420</v>
+      </c>
+      <c r="D13" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" s="55">
+        <v>12</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>427</v>
+      </c>
+      <c r="C14" s="55">
+        <v>580</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>428</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="57" t="s">
         <v>379</v>
       </c>
-      <c r="B12" s="56"/>
-      <c r="C12" s="56">
-        <f>SUM(C3:C11)</f>
-        <v>302173</v>
-      </c>
-      <c r="D12" s="56"/>
-      <c r="E12" s="56"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="55" t="s">
+      <c r="B15" s="58"/>
+      <c r="C15" s="58">
+        <f>SUM(C3:C13)</f>
+        <v>304116.8</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="57" t="s">
         <v>380</v>
       </c>
-      <c r="B13" s="56"/>
-      <c r="C13" s="56">
+      <c r="B16" s="58"/>
+      <c r="C16" s="58">
         <v>242173</v>
       </c>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开支收入/领航教育账目.xlsx
+++ b/开支收入/领航教育账目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="装修零散材料" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="汇总数据" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">办公用品!$A$2:$H$95</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">办公用品!$A$2:$H$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">工作人员工资!$A$2:$F$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">借条!$A$2:$F$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">招待费!$B$2:$E$20</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="873" uniqueCount="441">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="448">
   <si>
     <t>序号</t>
   </si>
@@ -1630,6 +1630,34 @@
   </si>
   <si>
     <t>男卫生间换灯</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>53题霸</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>公告白板</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>春季收入</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>物业管理费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1844,7 +1872,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2012,6 +2040,21 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2371,16 +2414,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.1" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>224</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3429,33 +3472,33 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="57" t="s">
+      <c r="A49" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="B49" s="58"/>
-      <c r="C49" s="58"/>
-      <c r="D49" s="58"/>
-      <c r="E49" s="58"/>
-      <c r="F49" s="59">
+      <c r="B49" s="63"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="64">
         <f>SUM(F3:F48)</f>
         <v>4678</v>
       </c>
-      <c r="G49" s="60"/>
-      <c r="H49" s="61"/>
+      <c r="G49" s="65"/>
+      <c r="H49" s="66"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="57" t="s">
+      <c r="A50" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="B50" s="58"/>
-      <c r="C50" s="58"/>
-      <c r="D50" s="58"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="62">
+      <c r="B50" s="63"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="63"/>
+      <c r="F50" s="67">
         <v>520</v>
       </c>
-      <c r="G50" s="63"/>
-      <c r="H50" s="64"/>
+      <c r="G50" s="68"/>
+      <c r="H50" s="69"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H49">
@@ -3477,10 +3520,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3489,12 +3532,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>365</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -3579,105 +3622,141 @@
       </c>
     </row>
     <row r="8" spans="1:4">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="26">
+        <v>42781</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11">
+        <v>20240</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="77" t="s">
         <v>378</v>
       </c>
-      <c r="B8" s="60"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="4">
-        <f>SUM(D3:D7)</f>
-        <v>541590</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="46" t="s">
+      <c r="B9" s="65"/>
+      <c r="C9" s="66"/>
+      <c r="D9" s="4">
+        <f>SUM(D3:D8)</f>
+        <v>561830</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="58"/>
+      <c r="B10" s="56"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="58"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="58"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="57"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="58"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="57"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="46" t="s">
         <v>377</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B14" s="4">
         <v>576816</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C14" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="D9" s="31">
+      <c r="D14" s="31">
         <v>35226</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="46" t="s">
+    <row r="16" spans="1:4">
+      <c r="A16" s="46" t="s">
         <v>390</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B16" s="4">
         <v>466338</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="4"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="46" t="s">
-        <v>391</v>
-      </c>
-      <c r="B12" s="4">
-        <v>79953.2</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="49" t="s">
-        <v>392</v>
-      </c>
-      <c r="B13" s="4">
-        <v>12597</v>
-      </c>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="49" t="s">
-        <v>393</v>
-      </c>
-      <c r="B14" s="4">
-        <v>83512</v>
-      </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="49" t="s">
-        <v>394</v>
-      </c>
-      <c r="B15" s="4">
-        <v>16432</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="49" t="s">
-        <v>395</v>
-      </c>
-      <c r="B16" s="4">
-        <v>302173</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="49" t="s">
-        <v>396</v>
+      <c r="A17" s="46" t="s">
+        <v>391</v>
       </c>
       <c r="B17" s="4">
-        <f>SUM(B11:B16)</f>
-        <v>961005.2</v>
+        <v>79953.2</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="49" t="s">
+        <v>392</v>
+      </c>
+      <c r="B18" s="4">
+        <v>12597</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="49" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" s="4">
+        <v>83512</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="49" t="s">
+        <v>394</v>
+      </c>
+      <c r="B20" s="4">
+        <v>16432</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="49" t="s">
+        <v>395</v>
+      </c>
+      <c r="B21" s="4">
+        <v>302173</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="49" t="s">
+        <v>396</v>
+      </c>
+      <c r="B22" s="4">
+        <f>SUM(B16:B21)</f>
+        <v>961005.2</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3688,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3705,16 +3784,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="70" t="s">
         <v>360</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4169,10 +4248,10 @@
       <c r="F22" s="6">
         <v>11271.6</v>
       </c>
-      <c r="G22" s="69" t="s">
+      <c r="G22" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="H22" s="66" t="s">
+      <c r="H22" s="71" t="s">
         <v>233</v>
       </c>
       <c r="J22" s="9"/>
@@ -4196,8 +4275,8 @@
       <c r="F23" s="6">
         <v>27993</v>
       </c>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="72"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
@@ -4219,8 +4298,8 @@
       <c r="F24" s="6">
         <v>1700</v>
       </c>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="72"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
@@ -4242,8 +4321,8 @@
       <c r="F25" s="6">
         <v>665</v>
       </c>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="72"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
@@ -4265,8 +4344,8 @@
       <c r="F26" s="6">
         <v>1167.5</v>
       </c>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="72"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1">
@@ -4288,8 +4367,8 @@
       <c r="F27" s="6">
         <v>4038</v>
       </c>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1">
@@ -4311,8 +4390,8 @@
       <c r="F28" s="6">
         <v>2700</v>
       </c>
-      <c r="G28" s="67"/>
-      <c r="H28" s="67"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="72"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1">
@@ -4334,8 +4413,8 @@
       <c r="F29" s="6">
         <v>720</v>
       </c>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1">
@@ -4357,8 +4436,8 @@
       <c r="F30" s="6">
         <v>684</v>
       </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="72"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1">
@@ -4380,8 +4459,8 @@
       <c r="F31" s="6">
         <v>2272</v>
       </c>
-      <c r="G31" s="68"/>
-      <c r="H31" s="68"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1">
@@ -4459,40 +4538,40 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="57" t="s">
+      <c r="A35" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="B35" s="58"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="58"/>
-      <c r="E35" s="58"/>
-      <c r="F35" s="59">
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="64">
         <f>SUM(F3:F34)</f>
         <v>280750.09999999998</v>
       </c>
-      <c r="G35" s="60"/>
-      <c r="H35" s="61"/>
+      <c r="G35" s="65"/>
+      <c r="H35" s="66"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="57" t="s">
+      <c r="A36" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="B36" s="58"/>
-      <c r="C36" s="58"/>
-      <c r="D36" s="58"/>
-      <c r="E36" s="58"/>
-      <c r="F36" s="62">
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="67">
         <v>39369</v>
       </c>
-      <c r="G36" s="63"/>
-      <c r="H36" s="64"/>
+      <c r="G36" s="68"/>
+      <c r="H36" s="69"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="70"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
+      <c r="A37" s="75"/>
+      <c r="B37" s="76"/>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
       <c r="F37" s="47"/>
     </row>
   </sheetData>
@@ -4520,8 +4599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4536,16 +4615,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4592,10 +4671,10 @@
       <c r="F3" s="6">
         <v>360</v>
       </c>
-      <c r="G3" s="69" t="s">
+      <c r="G3" s="74" t="s">
         <v>227</v>
       </c>
-      <c r="H3" s="66" t="s">
+      <c r="H3" s="71" t="s">
         <v>234</v>
       </c>
       <c r="J3" s="9"/>
@@ -4619,8 +4698,8 @@
       <c r="F4" s="6">
         <v>1800</v>
       </c>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
@@ -4642,8 +4721,8 @@
       <c r="F5" s="6">
         <v>11800</v>
       </c>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
@@ -4665,8 +4744,8 @@
       <c r="F6" s="6">
         <v>11900</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
+      <c r="G6" s="73"/>
+      <c r="H6" s="73"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
@@ -5120,33 +5199,33 @@
       <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="57" t="s">
+      <c r="A30" s="62" t="s">
         <v>379</v>
       </c>
-      <c r="B30" s="58"/>
-      <c r="C30" s="58"/>
-      <c r="D30" s="58"/>
-      <c r="E30" s="58"/>
-      <c r="F30" s="58">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63">
         <f>SUM(F3:F29)</f>
         <v>180910.82</v>
       </c>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
     </row>
     <row r="31" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A31" s="57" t="s">
+      <c r="A31" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="B31" s="58"/>
-      <c r="C31" s="58"/>
-      <c r="D31" s="58"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="58">
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63">
         <v>44860</v>
       </c>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H31">
@@ -5186,14 +5265,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -5554,29 +5633,29 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58">
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63">
         <f>SUM(D3:D22)</f>
         <v>92630</v>
       </c>
-      <c r="E23" s="58"/>
-      <c r="F23" s="58"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="59">
+      <c r="B24" s="65"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="64">
         <v>68600</v>
       </c>
-      <c r="E24" s="60"/>
-      <c r="F24" s="61"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="66"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F24">
@@ -5598,10 +5677,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5617,16 +5696,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="78" t="s">
         <v>362</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
@@ -7776,54 +7855,112 @@
       </c>
       <c r="H93" s="11"/>
     </row>
-    <row r="94" spans="1:8">
-      <c r="A94" s="57" t="s">
+    <row r="94" spans="1:8" s="60" customFormat="1">
+      <c r="A94" s="11">
+        <v>92</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C94" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="D94" s="11">
+        <v>2</v>
+      </c>
+      <c r="E94" s="11">
+        <v>14</v>
+      </c>
+      <c r="F94" s="11">
+        <v>28</v>
+      </c>
+      <c r="G94" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="11">
+        <v>93</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C95" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="D95" s="11">
+        <v>1</v>
+      </c>
+      <c r="E95" s="11">
+        <v>52</v>
+      </c>
+      <c r="F95" s="11">
+        <v>52</v>
+      </c>
+      <c r="G95" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="11"/>
+      <c r="F96" s="11"/>
+      <c r="G96" s="11"/>
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="11"/>
+      <c r="F97" s="11"/>
+      <c r="G97" s="11"/>
+      <c r="H97" s="11"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="B94" s="58"/>
-      <c r="C94" s="58"/>
-      <c r="D94" s="58"/>
-      <c r="E94" s="58"/>
-      <c r="F94" s="58">
-        <f>SUM(F3:F93)</f>
-        <v>80657.149999999994</v>
-      </c>
-      <c r="G94" s="58"/>
-      <c r="H94" s="58"/>
-    </row>
-    <row r="95" spans="1:8">
-      <c r="A95" s="72" t="s">
+      <c r="B99" s="63"/>
+      <c r="C99" s="63"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="63"/>
+      <c r="F99" s="63">
+        <f>SUM(F3:F95)</f>
+        <v>80737.149999999994</v>
+      </c>
+      <c r="G99" s="63"/>
+      <c r="H99" s="63"/>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="77" t="s">
         <v>377</v>
       </c>
-      <c r="B95" s="60"/>
-      <c r="C95" s="60"/>
-      <c r="D95" s="60"/>
-      <c r="E95" s="61"/>
-      <c r="F95" s="59">
+      <c r="B100" s="65"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="64">
         <v>79953.2</v>
       </c>
-      <c r="G95" s="60"/>
-      <c r="H95" s="61"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="34"/>
-      <c r="B96" s="34"/>
-      <c r="C96" s="34"/>
-      <c r="D96" s="34"/>
-      <c r="E96" s="34"/>
-      <c r="F96" s="34"/>
-      <c r="G96" s="34"/>
-      <c r="H96" s="34"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="34"/>
-      <c r="B97" s="34"/>
-      <c r="C97" s="34"/>
-      <c r="D97" s="34"/>
-      <c r="E97" s="34"/>
-      <c r="F97" s="34"/>
-      <c r="G97" s="34"/>
-      <c r="H97" s="34"/>
+      <c r="G100" s="65"/>
+      <c r="H100" s="66"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H95">
@@ -7831,10 +7968,10 @@
   </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A94:E94"/>
-    <mergeCell ref="F94:H94"/>
-    <mergeCell ref="A95:E95"/>
-    <mergeCell ref="F95:H95"/>
+    <mergeCell ref="A99:E99"/>
+    <mergeCell ref="F99:H99"/>
+    <mergeCell ref="A100:E100"/>
+    <mergeCell ref="F100:H100"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7847,7 +7984,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E15:E16"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7860,13 +7997,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="74" t="s">
+      <c r="A1" s="79" t="s">
         <v>363</v>
       </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="75"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="80"/>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="46" t="s">
@@ -8156,27 +8293,27 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="14.25">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="62" t="s">
         <v>378</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="76">
+      <c r="B19" s="63"/>
+      <c r="C19" s="81">
         <f>SUM(C3:C18)</f>
         <v>12597</v>
       </c>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
+      <c r="D19" s="81"/>
+      <c r="E19" s="81"/>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="62" t="s">
         <v>377</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63">
         <v>12397</v>
       </c>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E20">
@@ -8199,7 +8336,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="D38" sqref="D38:F38"/>
     </sheetView>
   </sheetViews>
@@ -8211,14 +8348,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="77" t="s">
         <v>254</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="61"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
@@ -8847,29 +8984,29 @@
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="72" t="s">
+      <c r="A37" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="59">
+      <c r="B37" s="82"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="64">
         <f>SUM(D3:D36)</f>
         <v>92312</v>
       </c>
-      <c r="E37" s="60"/>
-      <c r="F37" s="61"/>
+      <c r="E37" s="65"/>
+      <c r="F37" s="66"/>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="57" t="s">
+      <c r="A38" s="62" t="s">
         <v>384</v>
       </c>
-      <c r="B38" s="58"/>
-      <c r="C38" s="58"/>
-      <c r="D38" s="58">
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63">
         <v>92312</v>
       </c>
-      <c r="E38" s="58"/>
-      <c r="F38" s="58"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="34"/>
@@ -8906,7 +9043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A19" sqref="A19:C19"/>
     </sheetView>
   </sheetViews>
@@ -8921,15 +9058,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="84" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="85"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="46" t="s">
@@ -9293,32 +9430,32 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="57" t="s">
+      <c r="A19" s="62" t="s">
         <v>383</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63">
         <f>SUM(D3:D17)</f>
         <v>16476</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
-      <c r="G19" s="58"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="57" t="s">
+      <c r="A20" s="62" t="s">
         <v>384</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63">
         <v>5432</v>
       </c>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="G20" s="58"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9">
@@ -9348,10 +9485,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9363,13 +9500,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
@@ -9564,52 +9701,72 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="55">
+      <c r="A14" s="59">
         <v>12</v>
       </c>
-      <c r="B14" s="55" t="s">
+      <c r="B14" s="59" t="s">
+        <v>445</v>
+      </c>
+      <c r="C14" s="59">
+        <v>15000</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="59"/>
+    </row>
+    <row r="15" spans="1:5" ht="14.25">
+      <c r="A15" s="55">
+        <v>13</v>
+      </c>
+      <c r="B15" s="55" t="s">
         <v>427</v>
       </c>
-      <c r="C14" s="55">
+      <c r="C15" s="55">
         <v>580</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="D15" s="40" t="s">
         <v>428</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E15" s="55" t="s">
         <v>430</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="57" t="s">
+    <row r="16" spans="1:5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="62" t="s">
         <v>379</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="58">
+      <c r="B17" s="63"/>
+      <c r="C17" s="63">
         <f>SUM(C3:C13)</f>
         <v>304116.8</v>
       </c>
-      <c r="D15" s="58"/>
-      <c r="E15" s="58"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="57" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="63"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="62" t="s">
         <v>380</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="58">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63">
         <v>242173</v>
       </c>
-      <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开支收入/领航教育账目.xlsx
+++ b/开支收入/领航教育账目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="2" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="装修零散材料" sheetId="1" r:id="rId1"/>
@@ -22,18 +22,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">办公用品!$A$2:$H$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">工作人员工资!$A$2:$F$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">借条!$A$2:$F$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">招待费!$B$2:$E$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">其他!$A$2:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">招待费!$B$2:$E$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">招生宣传、招聘职工!$B$2:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">装修工资!$A$2:$H$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">装修零散材料!$A$2:$H$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">装修主要材料!$A$2:$H$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">装修主要材料!$A$2:$H$36</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="452">
   <si>
     <t>序号</t>
   </si>
@@ -700,9 +701,6 @@
     <t>招待费用</t>
   </si>
   <si>
-    <t>都亭所四包中华</t>
-  </si>
-  <si>
     <t>请韩总吃饭</t>
   </si>
   <si>
@@ -768,16 +766,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>调解纠纷</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>杨春辉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>见附件， 
-已付6014订金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1396,10 +1385,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杨春辉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1666,6 +1651,40 @@
   </si>
   <si>
     <t>杨晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>试卷</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>本</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见附件， 
+已付6000订金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">871345
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>安全门</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1872,7 +1891,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2056,6 +2075,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2130,6 +2155,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2401,8 +2429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:E50"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49:H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2414,16 +2442,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.1" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="A1" s="63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2445,7 +2473,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -3321,7 +3349,7 @@
         <v>520</v>
       </c>
       <c r="G41" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H41" s="6"/>
     </row>
@@ -3472,33 +3500,33 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="B49" s="63"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="64">
+      <c r="A49" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B49" s="65"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="65"/>
+      <c r="E49" s="65"/>
+      <c r="F49" s="66">
         <f>SUM(F3:F48)</f>
         <v>4678</v>
       </c>
-      <c r="G49" s="65"/>
-      <c r="H49" s="66"/>
+      <c r="G49" s="67"/>
+      <c r="H49" s="68"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="63"/>
-      <c r="F50" s="67">
+      <c r="A50" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B50" s="65"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="69">
         <v>520</v>
       </c>
-      <c r="G50" s="68"/>
-      <c r="H50" s="69"/>
+      <c r="G50" s="70"/>
+      <c r="H50" s="71"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H49">
@@ -3520,171 +3548,177 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="15.375" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="63" t="s">
-        <v>365</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-    </row>
-    <row r="2" spans="1:4">
+    <row r="1" spans="1:6">
+      <c r="A1" s="65" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="26">
         <v>42583</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D3" s="11">
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:6">
       <c r="A4" s="26">
         <v>42583</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D4" s="11">
         <v>120000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="F4" s="34"/>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="26">
         <v>42583</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D5" s="11">
         <v>200000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="F5" s="34"/>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="26">
         <v>42583</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D6" s="11">
         <v>60000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="F6" s="34"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="26">
         <v>42750</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11">
         <v>61590</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="F7" s="34"/>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="26">
         <v>42781</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
         <v>20240</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="77" t="s">
-        <v>378</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="66"/>
+      <c r="F8" s="34"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="79" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
       <c r="D9" s="4">
         <f>SUM(D3:D8)</f>
         <v>561830</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:6">
       <c r="A10" s="58"/>
       <c r="B10" s="56"/>
       <c r="C10" s="57"/>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:6">
       <c r="A11" s="58"/>
       <c r="B11" s="56"/>
       <c r="C11" s="57"/>
       <c r="D11" s="4"/>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:6">
       <c r="A12" s="58"/>
       <c r="B12" s="56"/>
       <c r="C12" s="57"/>
       <c r="D12" s="4"/>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:6">
       <c r="A13" s="58"/>
       <c r="B13" s="56"/>
       <c r="C13" s="57"/>
       <c r="D13" s="4"/>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:6" ht="18" customHeight="1">
       <c r="A14" s="46" t="s">
-        <v>377</v>
-      </c>
-      <c r="B14" s="4">
-        <v>576816</v>
+        <v>374</v>
+      </c>
+      <c r="B14" s="88" t="s">
+        <v>449</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D14" s="31">
-        <v>35226</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>409515</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="46" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B16" s="4">
         <v>466338</v>
@@ -3694,61 +3728,61 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="46" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="B17" s="4">
-        <v>79953.2</v>
+        <v>82152.149999999994</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="49" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B18" s="4">
-        <v>12597</v>
+        <v>12397</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="49" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="B19" s="4">
-        <v>83512</v>
+        <v>113112</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="49" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="B20" s="4">
-        <v>16432</v>
+        <v>16476</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="49" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="B21" s="4">
-        <v>302173</v>
+        <v>319696.8</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="49" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="B22" s="4">
         <f>SUM(B16:B21)</f>
-        <v>961005.2</v>
+        <v>1010171.95</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
@@ -3767,8 +3801,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3784,16 +3818,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="70" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
+      <c r="A1" s="72" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3815,7 +3849,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -4104,10 +4138,10 @@
         <v>24000</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H15" s="50" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
@@ -4180,10 +4214,10 @@
         <v>68000</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1">
@@ -4248,11 +4282,11 @@
       <c r="F22" s="6">
         <v>11271.6</v>
       </c>
-      <c r="G22" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="H22" s="71" t="s">
-        <v>233</v>
+      <c r="G22" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="H22" s="73" t="s">
+        <v>447</v>
       </c>
       <c r="J22" s="9"/>
     </row>
@@ -4275,8 +4309,8 @@
       <c r="F23" s="6">
         <v>27993</v>
       </c>
-      <c r="G23" s="72"/>
-      <c r="H23" s="72"/>
+      <c r="G23" s="74"/>
+      <c r="H23" s="74"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
@@ -4298,8 +4332,8 @@
       <c r="F24" s="6">
         <v>1700</v>
       </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
+      <c r="G24" s="74"/>
+      <c r="H24" s="74"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
@@ -4321,8 +4355,8 @@
       <c r="F25" s="6">
         <v>665</v>
       </c>
-      <c r="G25" s="72"/>
-      <c r="H25" s="72"/>
+      <c r="G25" s="74"/>
+      <c r="H25" s="74"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
@@ -4344,8 +4378,8 @@
       <c r="F26" s="6">
         <v>1167.5</v>
       </c>
-      <c r="G26" s="72"/>
-      <c r="H26" s="72"/>
+      <c r="G26" s="74"/>
+      <c r="H26" s="74"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1">
@@ -4367,8 +4401,8 @@
       <c r="F27" s="6">
         <v>4038</v>
       </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
+      <c r="G27" s="74"/>
+      <c r="H27" s="74"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1">
@@ -4390,8 +4424,8 @@
       <c r="F28" s="6">
         <v>2700</v>
       </c>
-      <c r="G28" s="72"/>
-      <c r="H28" s="72"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1">
@@ -4413,8 +4447,8 @@
       <c r="F29" s="6">
         <v>720</v>
       </c>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
+      <c r="G29" s="74"/>
+      <c r="H29" s="74"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1">
@@ -4436,8 +4470,8 @@
       <c r="F30" s="6">
         <v>684</v>
       </c>
-      <c r="G30" s="72"/>
-      <c r="H30" s="72"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1">
@@ -4459,8 +4493,8 @@
       <c r="F31" s="6">
         <v>2272</v>
       </c>
-      <c r="G31" s="73"/>
-      <c r="H31" s="73"/>
+      <c r="G31" s="75"/>
+      <c r="H31" s="75"/>
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1">
@@ -4483,7 +4517,7 @@
         <v>1320</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>96</v>
@@ -4494,10 +4528,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D33" s="2">
         <v>1</v>
@@ -4509,7 +4543,7 @@
         <v>2000</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H33" s="2"/>
     </row>
@@ -4533,51 +4567,48 @@
         <v>35</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
-      <c r="F35" s="64">
+      <c r="A35" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B35" s="65"/>
+      <c r="C35" s="65"/>
+      <c r="D35" s="65"/>
+      <c r="E35" s="65"/>
+      <c r="F35" s="66">
         <f>SUM(F3:F34)</f>
         <v>280750.09999999998</v>
       </c>
-      <c r="G35" s="65"/>
-      <c r="H35" s="66"/>
+      <c r="G35" s="67"/>
+      <c r="H35" s="68"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="63"/>
-      <c r="F36" s="67">
+      <c r="A36" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B36" s="65"/>
+      <c r="C36" s="65"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="65"/>
+      <c r="F36" s="69">
         <v>39369</v>
       </c>
-      <c r="G36" s="68"/>
-      <c r="H36" s="69"/>
+      <c r="G36" s="70"/>
+      <c r="H36" s="71"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="75"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="78"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="78"/>
+      <c r="E37" s="78"/>
       <c r="F37" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H37">
-    <filterColumn colId="6"/>
-  </autoFilter>
   <mergeCells count="8">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H22:H31"/>
@@ -4599,8 +4630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4615,16 +4646,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
+      <c r="A1" s="63" t="s">
+        <v>222</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4646,7 +4677,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -4671,11 +4702,11 @@
       <c r="F3" s="6">
         <v>360</v>
       </c>
-      <c r="G3" s="74" t="s">
-        <v>227</v>
-      </c>
-      <c r="H3" s="71" t="s">
-        <v>234</v>
+      <c r="G3" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="H3" s="73" t="s">
+        <v>231</v>
       </c>
       <c r="J3" s="9"/>
     </row>
@@ -4698,8 +4729,8 @@
       <c r="F4" s="6">
         <v>1800</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
@@ -4721,8 +4752,8 @@
       <c r="F5" s="6">
         <v>11800</v>
       </c>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
@@ -4744,8 +4775,8 @@
       <c r="F6" s="6">
         <v>11900</v>
       </c>
-      <c r="G6" s="73"/>
-      <c r="H6" s="73"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
@@ -4937,7 +4968,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -4973,7 +5004,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -4982,10 +5013,10 @@
         <v>5000</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
@@ -5002,10 +5033,10 @@
         <v>2000</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
@@ -5013,7 +5044,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -5039,7 +5070,7 @@
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="50" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
@@ -5132,7 +5163,7 @@
         <v>2000</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H26" s="37"/>
     </row>
@@ -5141,7 +5172,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5150,7 +5181,7 @@
         <v>2000</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H27" s="37" t="s">
         <v>110</v>
@@ -5161,10 +5192,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -5176,7 +5207,7 @@
         <v>3000</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H28" s="37"/>
     </row>
@@ -5193,44 +5224,41 @@
       <c r="F29" s="38">
         <v>5000</v>
       </c>
-      <c r="G29" s="38" t="s">
-        <v>229</v>
+      <c r="G29" s="62" t="s">
+        <v>226</v>
       </c>
       <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="63"/>
-      <c r="F30" s="63">
+      <c r="A30" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="B30" s="65"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65">
         <f>SUM(F3:F29)</f>
         <v>180910.82</v>
       </c>
-      <c r="G30" s="63"/>
-      <c r="H30" s="63"/>
+      <c r="G30" s="65"/>
+      <c r="H30" s="65"/>
     </row>
     <row r="31" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A31" s="62" t="s">
-        <v>380</v>
-      </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
-      <c r="F31" s="63">
+      <c r="A31" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="B31" s="65"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="65">
         <v>44860</v>
       </c>
-      <c r="G31" s="63"/>
-      <c r="H31" s="63"/>
+      <c r="G31" s="65"/>
+      <c r="H31" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H31">
-    <filterColumn colId="6"/>
-  </autoFilter>
   <mergeCells count="7">
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="F31:H31"/>
@@ -5252,7 +5280,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24:F24"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5265,14 +5293,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="61"/>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
+      <c r="A1" s="63" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -5290,7 +5318,7 @@
         <v>112</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -5445,7 +5473,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C12" s="3">
         <v>42549</v>
@@ -5454,7 +5482,7 @@
         <v>2000</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -5463,7 +5491,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C13" s="3">
         <v>42559</v>
@@ -5472,7 +5500,7 @@
         <v>6000</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F13" s="2"/>
     </row>
@@ -5481,7 +5509,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C14" s="3">
         <v>42563</v>
@@ -5490,7 +5518,7 @@
         <v>10000</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -5499,7 +5527,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C15" s="3">
         <v>42574</v>
@@ -5508,7 +5536,7 @@
         <v>4000</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -5517,7 +5545,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C16" s="3">
         <v>42602</v>
@@ -5526,7 +5554,7 @@
         <v>1400</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -5535,7 +5563,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C17" s="3">
         <v>42608</v>
@@ -5544,7 +5572,7 @@
         <v>500</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -5553,7 +5581,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C18" s="3">
         <v>42609</v>
@@ -5562,7 +5590,7 @@
         <v>500</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -5571,7 +5599,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C19" s="3">
         <v>42622</v>
@@ -5580,7 +5608,7 @@
         <v>200</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -5589,14 +5617,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="10">
         <v>2000</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -5605,14 +5633,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10">
         <v>2000</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -5621,41 +5649,41 @@
         <v>20</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="10">
         <v>40000</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="63">
+      <c r="A23" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B23" s="65"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65">
         <f>SUM(D3:D22)</f>
         <v>92630</v>
       </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="64">
+      <c r="A24" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" s="67"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="66">
         <v>68600</v>
       </c>
-      <c r="E24" s="65"/>
-      <c r="F24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="68"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F24">
@@ -5679,8 +5707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99:H99"/>
+    <sheetView topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5696,16 +5724,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="78" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="A1" s="80" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="80"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
@@ -5727,7 +5755,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>6</v>
@@ -5753,7 +5781,7 @@
         <v>900</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H3" s="15"/>
     </row>
@@ -5777,7 +5805,7 @@
         <v>240</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H4" s="15"/>
     </row>
@@ -5797,7 +5825,7 @@
         <v>450</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>159</v>
@@ -5817,7 +5845,7 @@
         <v>150</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H6" s="15"/>
     </row>
@@ -5841,7 +5869,7 @@
         <v>3420</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H7" s="41" t="s">
         <v>96</v>
@@ -5861,7 +5889,7 @@
         <v>400</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H8" s="15" t="s">
         <v>163</v>
@@ -5887,7 +5915,7 @@
         <v>5440</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9" s="41" t="s">
         <v>165</v>
@@ -5909,7 +5937,7 @@
         <v>580</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>167</v>
@@ -5935,7 +5963,7 @@
         <v>2832</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H11" s="15" t="s">
         <v>168</v>
@@ -5961,7 +5989,7 @@
         <v>850</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -5985,7 +6013,7 @@
         <v>398</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -6009,10 +6037,10 @@
         <v>1600</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
@@ -6033,7 +6061,7 @@
         <v>391</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -6053,7 +6081,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -6077,7 +6105,7 @@
         <v>1500</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -6101,7 +6129,7 @@
         <v>4099</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H18" s="41"/>
     </row>
@@ -6125,7 +6153,7 @@
         <v>2799</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -6143,7 +6171,7 @@
         <v>187</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H20" s="15" t="s">
         <v>91</v>
@@ -6169,7 +6197,7 @@
         <v>300</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H21" s="15"/>
     </row>
@@ -6193,7 +6221,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H22" s="15"/>
     </row>
@@ -6217,7 +6245,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H23" s="15"/>
     </row>
@@ -6241,7 +6269,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H24" s="15"/>
     </row>
@@ -6265,7 +6293,7 @@
         <v>120</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H25" s="15"/>
     </row>
@@ -6289,7 +6317,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H26" s="15"/>
     </row>
@@ -6298,7 +6326,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C27" s="43" t="s">
         <v>8</v>
@@ -6313,7 +6341,7 @@
         <v>3800</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H27" s="41"/>
     </row>
@@ -6337,7 +6365,7 @@
         <v>780</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H28" s="15"/>
     </row>
@@ -6361,7 +6389,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H29" s="15"/>
     </row>
@@ -6385,7 +6413,7 @@
         <v>170</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H30" s="15"/>
     </row>
@@ -6409,7 +6437,7 @@
         <v>1170</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H31" s="15"/>
     </row>
@@ -6431,7 +6459,7 @@
         <v>1650</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H32" s="15"/>
     </row>
@@ -6455,7 +6483,7 @@
         <v>60</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H33" s="15"/>
     </row>
@@ -6479,7 +6507,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H34" s="15"/>
     </row>
@@ -6497,7 +6525,7 @@
         <v>3877</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H35" s="41" t="s">
         <v>194</v>
@@ -6523,7 +6551,7 @@
         <v>3200</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H36" s="41"/>
     </row>
@@ -6547,7 +6575,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H37" s="15"/>
     </row>
@@ -6571,7 +6599,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H38" s="15"/>
     </row>
@@ -6595,7 +6623,7 @@
         <v>420</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H39" s="15"/>
     </row>
@@ -6604,7 +6632,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C40" s="30" t="s">
         <v>199</v>
@@ -6619,7 +6647,7 @@
         <v>1000</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H40" s="15"/>
     </row>
@@ -6643,7 +6671,7 @@
         <v>2400</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H41" s="15"/>
     </row>
@@ -6667,7 +6695,7 @@
         <v>178</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H42" s="15"/>
     </row>
@@ -6691,7 +6719,7 @@
         <v>3700</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H43" s="41"/>
     </row>
@@ -6715,10 +6743,10 @@
         <v>60</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.25">
@@ -6741,10 +6769,10 @@
         <v>60</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.25">
@@ -6767,7 +6795,7 @@
         <v>514</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H46" s="15"/>
     </row>
@@ -6776,7 +6804,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -6787,7 +6815,7 @@
         <v>240</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H47" s="15"/>
     </row>
@@ -6796,7 +6824,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -6807,7 +6835,7 @@
         <v>1080</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H48" s="15"/>
     </row>
@@ -6816,10 +6844,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D49" s="30">
         <v>1</v>
@@ -6831,7 +6859,7 @@
         <v>50</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H49" s="15"/>
     </row>
@@ -6840,7 +6868,7 @@
         <v>48</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C50" s="29" t="s">
         <v>133</v>
@@ -6855,7 +6883,7 @@
         <v>2800</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H50" s="15"/>
     </row>
@@ -6879,7 +6907,7 @@
         <v>40</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H51" s="15"/>
     </row>
@@ -6888,7 +6916,7 @@
         <v>50</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C52" s="24" t="s">
         <v>133</v>
@@ -6903,7 +6931,7 @@
         <v>80</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H52" s="15"/>
     </row>
@@ -6912,7 +6940,7 @@
         <v>51</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C53" s="24" t="s">
         <v>133</v>
@@ -6927,7 +6955,7 @@
         <v>240</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H53" s="15"/>
     </row>
@@ -6936,7 +6964,7 @@
         <v>52</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C54" s="24" t="s">
         <v>133</v>
@@ -6951,7 +6979,7 @@
         <v>60</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H54" s="15"/>
     </row>
@@ -6960,10 +6988,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D55" s="15">
         <v>4</v>
@@ -6975,7 +7003,7 @@
         <v>72</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H55" s="15"/>
     </row>
@@ -6984,7 +7012,7 @@
         <v>54</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C56" s="24" t="s">
         <v>133</v>
@@ -6999,7 +7027,7 @@
         <v>260</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H56" s="15"/>
     </row>
@@ -7008,7 +7036,7 @@
         <v>55</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C57" s="25" t="s">
         <v>133</v>
@@ -7023,7 +7051,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H57" s="11"/>
     </row>
@@ -7032,10 +7060,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D58" s="11">
         <v>2</v>
@@ -7047,7 +7075,7 @@
         <v>6</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H58" s="11"/>
     </row>
@@ -7056,10 +7084,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -7071,7 +7099,7 @@
         <v>22</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H59" s="11"/>
     </row>
@@ -7080,7 +7108,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -7089,7 +7117,7 @@
         <v>218</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H60" s="25" t="s">
         <v>121</v>
@@ -7100,7 +7128,7 @@
         <v>59</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C61" s="25" t="s">
         <v>133</v>
@@ -7115,7 +7143,7 @@
         <v>60</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H61" s="11"/>
     </row>
@@ -7124,10 +7152,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D62" s="11">
         <v>3</v>
@@ -7139,7 +7167,7 @@
         <v>276</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H62" s="11"/>
     </row>
@@ -7148,10 +7176,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D63" s="11">
         <v>96</v>
@@ -7161,7 +7189,7 @@
         <v>1000</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H63" s="11"/>
     </row>
@@ -7170,10 +7198,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D64" s="44">
         <v>96</v>
@@ -7185,10 +7213,10 @@
         <v>16320</v>
       </c>
       <c r="G64" s="44" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H64" s="44" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="14.25">
@@ -7196,7 +7224,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>133</v>
@@ -7211,7 +7239,7 @@
         <v>1728</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H65" s="11"/>
     </row>
@@ -7220,10 +7248,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D66" s="11">
         <v>2</v>
@@ -7235,7 +7263,7 @@
         <v>31.2</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H66" s="11"/>
     </row>
@@ -7244,10 +7272,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D67" s="11">
         <v>2</v>
@@ -7259,7 +7287,7 @@
         <v>21.6</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H67" s="11"/>
     </row>
@@ -7268,10 +7296,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D68" s="11">
         <v>2</v>
@@ -7283,7 +7311,7 @@
         <v>240</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H68" s="11"/>
     </row>
@@ -7292,7 +7320,7 @@
         <v>67</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C69" s="31" t="s">
         <v>133</v>
@@ -7307,7 +7335,7 @@
         <v>90</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H69" s="11"/>
     </row>
@@ -7316,7 +7344,7 @@
         <v>68</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C70" s="11" t="s">
         <v>133</v>
@@ -7331,7 +7359,7 @@
         <v>120</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H70" s="11"/>
     </row>
@@ -7340,7 +7368,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -7349,10 +7377,10 @@
         <v>1048</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14.25">
@@ -7360,10 +7388,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D72" s="11">
         <v>1</v>
@@ -7375,7 +7403,7 @@
         <v>200</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H72" s="11"/>
     </row>
@@ -7384,7 +7412,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -7393,7 +7421,7 @@
         <v>981</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>121</v>
@@ -7404,7 +7432,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -7413,7 +7441,7 @@
         <v>500</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H74" s="11" t="s">
         <v>121</v>
@@ -7424,7 +7452,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -7433,7 +7461,7 @@
         <v>853</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H75" s="11" t="s">
         <v>121</v>
@@ -7444,10 +7472,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D76" s="11">
         <v>2</v>
@@ -7459,7 +7487,7 @@
         <v>240</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H76" s="11"/>
     </row>
@@ -7468,10 +7496,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D77" s="11">
         <v>1</v>
@@ -7483,7 +7511,7 @@
         <v>38.4</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H77" s="11"/>
     </row>
@@ -7492,7 +7520,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C78" s="11" t="s">
         <v>133</v>
@@ -7507,7 +7535,7 @@
         <v>109</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H78" s="11"/>
     </row>
@@ -7516,10 +7544,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D79" s="11">
         <v>50</v>
@@ -7531,7 +7559,7 @@
         <v>400</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H79" s="11"/>
     </row>
@@ -7540,7 +7568,7 @@
         <v>78</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C80" s="11" t="s">
         <v>133</v>
@@ -7555,7 +7583,7 @@
         <v>40</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H80" s="11"/>
     </row>
@@ -7564,7 +7592,7 @@
         <v>79</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C81" s="45" t="s">
         <v>133</v>
@@ -7579,7 +7607,7 @@
         <v>220</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H81" s="45"/>
     </row>
@@ -7588,10 +7616,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D82" s="11">
         <v>2</v>
@@ -7603,7 +7631,7 @@
         <v>176</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H82" s="11"/>
     </row>
@@ -7612,10 +7640,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D83" s="11">
         <v>1</v>
@@ -7627,7 +7655,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H83" s="11"/>
     </row>
@@ -7636,10 +7664,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D84" s="11">
         <v>1</v>
@@ -7651,7 +7679,7 @@
         <v>55</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H84" s="11"/>
     </row>
@@ -7660,7 +7688,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -7669,10 +7697,10 @@
         <v>135.30000000000001</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="14.25">
@@ -7680,7 +7708,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -7689,10 +7717,10 @@
         <v>164.5</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="14.25">
@@ -7700,7 +7728,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -7711,7 +7739,7 @@
         <v>30.9</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H87" s="11"/>
     </row>
@@ -7720,7 +7748,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -7729,10 +7757,10 @@
         <v>55</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="14.25">
@@ -7740,10 +7768,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D89" s="11">
         <v>1000</v>
@@ -7755,7 +7783,7 @@
         <v>125</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="H89" s="11"/>
     </row>
@@ -7764,10 +7792,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="D90" s="11">
         <v>50</v>
@@ -7779,7 +7807,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H90" s="11"/>
     </row>
@@ -7788,10 +7816,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D91" s="11">
         <v>1</v>
@@ -7803,7 +7831,7 @@
         <v>13</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H91" s="11"/>
     </row>
@@ -7812,10 +7840,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="D92" s="11">
         <v>1</v>
@@ -7827,7 +7855,7 @@
         <v>12.25</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="H92" s="11"/>
     </row>
@@ -7836,10 +7864,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D93" s="11">
         <v>2</v>
@@ -7851,7 +7879,7 @@
         <v>100</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H93" s="11"/>
     </row>
@@ -7860,10 +7888,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D94" s="11">
         <v>2</v>
@@ -7875,7 +7903,7 @@
         <v>28</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H94" s="11"/>
     </row>
@@ -7884,10 +7912,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="D95" s="11">
         <v>1</v>
@@ -7899,28 +7927,56 @@
         <v>52</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="H95" s="11"/>
     </row>
     <row r="96" spans="1:8">
-      <c r="A96" s="11"/>
-      <c r="B96" s="11"/>
-      <c r="C96" s="11"/>
-      <c r="D96" s="11"/>
-      <c r="E96" s="11"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="11"/>
+      <c r="A96" s="11">
+        <v>94</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="C96" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="D96" s="11">
+        <v>1</v>
+      </c>
+      <c r="E96" s="11">
+        <v>15</v>
+      </c>
+      <c r="F96" s="11">
+        <v>15</v>
+      </c>
+      <c r="G96" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="H96" s="11"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="11"/>
-      <c r="B97" s="11"/>
-      <c r="C97" s="11"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="11"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="11"/>
+      <c r="A97" s="11">
+        <v>95</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="C97" s="11" t="s">
+        <v>451</v>
+      </c>
+      <c r="D97" s="11">
+        <v>1</v>
+      </c>
+      <c r="E97" s="11">
+        <v>1400</v>
+      </c>
+      <c r="F97" s="11">
+        <v>1400</v>
+      </c>
+      <c r="G97" s="11" t="s">
+        <v>446</v>
+      </c>
       <c r="H97" s="11"/>
     </row>
     <row r="98" spans="1:8">
@@ -7934,33 +7990,33 @@
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="B99" s="63"/>
-      <c r="C99" s="63"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="63"/>
-      <c r="F99" s="63">
-        <f>SUM(F3:F95)</f>
-        <v>80737.149999999994</v>
-      </c>
-      <c r="G99" s="63"/>
-      <c r="H99" s="63"/>
+      <c r="A99" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B99" s="65"/>
+      <c r="C99" s="65"/>
+      <c r="D99" s="65"/>
+      <c r="E99" s="65"/>
+      <c r="F99" s="65">
+        <f>SUM(F3:F98)</f>
+        <v>82152.149999999994</v>
+      </c>
+      <c r="G99" s="65"/>
+      <c r="H99" s="65"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="77" t="s">
-        <v>377</v>
-      </c>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="64">
-        <v>79953.2</v>
+      <c r="A100" s="79" t="s">
+        <v>374</v>
+      </c>
+      <c r="B100" s="67"/>
+      <c r="C100" s="67"/>
+      <c r="D100" s="67"/>
+      <c r="E100" s="68"/>
+      <c r="F100" s="65">
+        <v>82152.149999999994</v>
       </c>
       <c r="G100" s="65"/>
-      <c r="H100" s="66"/>
+      <c r="H100" s="65"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H95">
@@ -7981,10 +8037,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="C18" sqref="C18:E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7997,17 +8053,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="79" t="s">
-        <v>363</v>
-      </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="80"/>
+      <c r="A1" s="81" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82"/>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="46" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>209</v>
@@ -8016,7 +8072,7 @@
         <v>210</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>6</v>
@@ -8030,13 +8086,13 @@
         <v>211</v>
       </c>
       <c r="C3" s="15">
-        <v>200</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>382</v>
+        <v>330</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>228</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>231</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -8047,10 +8103,10 @@
         <v>212</v>
       </c>
       <c r="C4" s="15">
-        <v>330</v>
+        <v>987</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="15" t="s">
         <v>150</v>
@@ -8064,13 +8120,13 @@
         <v>213</v>
       </c>
       <c r="C5" s="15">
-        <v>987</v>
+        <v>240</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>150</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
@@ -8078,16 +8134,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="C6" s="15">
+        <v>700</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>214</v>
-      </c>
-      <c r="C6" s="15">
-        <v>240</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>229</v>
-      </c>
-      <c r="E6" s="15" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
@@ -8098,13 +8154,13 @@
         <v>216</v>
       </c>
       <c r="C7" s="15">
-        <v>700</v>
+        <v>387</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
@@ -8115,13 +8171,13 @@
         <v>217</v>
       </c>
       <c r="C8" s="15">
-        <v>387</v>
+        <v>240</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
@@ -8129,16 +8185,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C9" s="15">
-        <v>240</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>229</v>
+        <v>290</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
@@ -8149,13 +8205,13 @@
         <v>218</v>
       </c>
       <c r="C10" s="15">
-        <v>290</v>
+        <v>590</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
@@ -8166,13 +8222,13 @@
         <v>219</v>
       </c>
       <c r="C11" s="15">
-        <v>590</v>
+        <v>1300</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -8183,47 +8239,47 @@
         <v>220</v>
       </c>
       <c r="C12" s="15">
-        <v>1300</v>
+        <v>938</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="14.25">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="28.5">
       <c r="A13" s="11">
         <v>11</v>
       </c>
-      <c r="B13" s="15" t="s">
-        <v>221</v>
+      <c r="B13" s="24" t="s">
+        <v>234</v>
       </c>
       <c r="C13" s="15">
-        <v>938</v>
+        <v>288</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.5">
+        <v>228</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
       <c r="A14" s="11">
         <v>12</v>
       </c>
-      <c r="B14" s="24" t="s">
-        <v>237</v>
-      </c>
-      <c r="C14" s="15">
-        <v>288</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" s="52" t="s">
-        <v>404</v>
+      <c r="B14" s="27" t="s">
+        <v>221</v>
+      </c>
+      <c r="C14" s="27">
+        <v>3672</v>
+      </c>
+      <c r="D14" s="28" t="s">
+        <v>228</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
@@ -8231,100 +8287,83 @@
         <v>13</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>222</v>
+        <v>286</v>
       </c>
       <c r="C15" s="27">
-        <v>3672</v>
+        <v>1360</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>91</v>
-      </c>
+        <v>228</v>
+      </c>
+      <c r="E15" s="27"/>
     </row>
     <row r="16" spans="1:5" ht="14.25">
       <c r="A16" s="11">
         <v>14</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="C16" s="27">
-        <v>1360</v>
+        <v>985</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="E16" s="27"/>
-    </row>
-    <row r="17" spans="1:5" ht="14.25">
+        <v>228</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="7" customFormat="1" ht="14.25">
       <c r="A17" s="11">
         <v>15</v>
       </c>
-      <c r="B17" s="27" t="s">
-        <v>298</v>
-      </c>
-      <c r="C17" s="27">
-        <v>985</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>229</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="7" customFormat="1" ht="14.25">
-      <c r="A18" s="11">
-        <v>16</v>
-      </c>
-      <c r="B18" s="24" t="s">
-        <v>262</v>
-      </c>
-      <c r="C18" s="15">
+      <c r="B17" s="24" t="s">
+        <v>259</v>
+      </c>
+      <c r="C17" s="15">
         <v>90</v>
       </c>
-      <c r="D18" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="E18" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.25">
-      <c r="A19" s="62" t="s">
-        <v>378</v>
-      </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="81">
-        <f>SUM(C3:C18)</f>
-        <v>12597</v>
-      </c>
-      <c r="D19" s="81"/>
-      <c r="E19" s="81"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="62" t="s">
-        <v>377</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63">
+      <c r="D17" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.25">
+      <c r="A18" s="64" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="83">
+        <f>SUM(C3:C17)</f>
         <v>12397</v>
       </c>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="64" t="s">
+        <v>374</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65">
+        <v>12397</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:E20">
+  <autoFilter ref="B2:E19">
     <filterColumn colId="2"/>
   </autoFilter>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C18:E18"/>
     <mergeCell ref="A19:B19"/>
     <mergeCell ref="C19:E19"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8334,10 +8373,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H42"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38:F38"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8348,33 +8387,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="77" t="s">
-        <v>254</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="66"/>
+      <c r="A1" s="79" t="s">
+        <v>251</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="68"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" s="25" t="s">
+        <v>244</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>252</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>246</v>
-      </c>
-      <c r="D2" s="25" t="s">
-        <v>247</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>255</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8382,16 +8421,16 @@
         <v>42658</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D3" s="11">
         <v>6000</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -8400,16 +8439,16 @@
         <v>42658</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D4" s="11">
         <v>2000</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -8426,16 +8465,16 @@
         <v>42689</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D6" s="11">
         <v>6000</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -8444,16 +8483,16 @@
         <v>42689</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D7" s="11">
         <v>2000</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -8462,16 +8501,16 @@
         <v>42689</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D8" s="11">
         <v>1000</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F8" s="11"/>
     </row>
@@ -8488,16 +8527,16 @@
         <v>42719</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D10" s="11">
         <v>6000</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F10" s="11"/>
     </row>
@@ -8506,16 +8545,16 @@
         <v>42719</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D11" s="11">
         <v>2000</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -8524,16 +8563,16 @@
         <v>42719</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D12" s="11">
         <v>2100</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -8542,16 +8581,16 @@
         <v>42719</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D13" s="11">
         <v>1000</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -8560,16 +8599,16 @@
         <v>42719</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D14" s="11">
         <v>2000</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F14" s="11"/>
     </row>
@@ -8586,16 +8625,16 @@
         <v>42384</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D16" s="11">
         <v>6000</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F16" s="11"/>
       <c r="H16" s="34"/>
@@ -8605,19 +8644,19 @@
         <v>42384</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D17" s="11">
         <v>6000</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H17" s="34"/>
     </row>
@@ -8626,19 +8665,19 @@
         <v>42384</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D18" s="11">
         <v>6000</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H18" s="34"/>
     </row>
@@ -8647,16 +8686,16 @@
         <v>42384</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D19" s="11">
         <v>2000</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F19" s="11"/>
       <c r="H19" s="34"/>
@@ -8666,16 +8705,16 @@
         <v>42384</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D20" s="11">
         <v>2000</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F20" s="11"/>
       <c r="H20" s="34"/>
@@ -8685,16 +8724,16 @@
         <v>42384</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D21" s="11">
         <v>2000</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F21" s="11"/>
       <c r="H21" s="34"/>
@@ -8704,19 +8743,19 @@
         <v>42384</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D22" s="11">
         <v>4400</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="H22" s="34"/>
     </row>
@@ -8725,19 +8764,19 @@
         <v>42384</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D23" s="11">
         <v>4617</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="H23" s="34"/>
     </row>
@@ -8746,19 +8785,19 @@
         <v>42384</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D24" s="11">
         <v>7630</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="H24" s="34"/>
     </row>
@@ -8767,16 +8806,16 @@
         <v>42384</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D25" s="11">
         <v>2000</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="F25" s="11"/>
       <c r="H25" s="34"/>
@@ -8786,16 +8825,16 @@
         <v>42384</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D26" s="11">
         <v>2000</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F26" s="11"/>
       <c r="H26" s="34"/>
@@ -8805,19 +8844,19 @@
         <v>42384</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D27" s="11">
         <v>2060</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="H27" s="34"/>
     </row>
@@ -8826,19 +8865,19 @@
         <v>42384</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D28" s="11">
         <v>2240</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="H28" s="34"/>
     </row>
@@ -8847,19 +8886,19 @@
         <v>42384</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D29" s="11">
         <v>2360</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="H29" s="34"/>
     </row>
@@ -8868,19 +8907,19 @@
         <v>42384</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D30" s="11">
         <v>2105</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="H30" s="34"/>
     </row>
@@ -8895,143 +8934,261 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="26">
-        <v>42384</v>
+        <v>42415</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>334</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>413</v>
+        <v>247</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="D32" s="11">
-        <v>2000</v>
-      </c>
-      <c r="E32" s="4" t="s">
-        <v>410</v>
+        <v>6000</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>248</v>
       </c>
       <c r="F32" s="4"/>
+      <c r="H32" s="7"/>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="26">
-        <v>42384</v>
+        <v>42415</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>412</v>
+        <v>331</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>409</v>
       </c>
       <c r="D33" s="11">
         <v>2000</v>
       </c>
-      <c r="E33" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F33" s="11"/>
+      <c r="E33" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="F33" s="4"/>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="26">
-        <v>42384</v>
+        <v>42415</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D34" s="11">
         <v>2000</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F34" s="11"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="26">
-        <v>42384</v>
+        <v>42415</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>339</v>
+        <v>315</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D35" s="11">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="26">
-        <v>42384</v>
+        <v>42415</v>
       </c>
       <c r="B36" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D36" s="11">
+        <v>1800</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="F36" s="11"/>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="26">
+        <v>42415</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="D37" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E37" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F37" s="11"/>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" s="26">
+        <v>42444</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="D39" s="11">
+        <v>6000</v>
+      </c>
+      <c r="E39" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F39" s="4"/>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="26">
+        <v>42444</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="D40" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="F40" s="4"/>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="26">
+        <v>42444</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>408</v>
+      </c>
+      <c r="D41" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F41" s="11"/>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" s="26">
+        <v>42444</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="C42" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="C36" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="D36" s="11">
+      <c r="D42" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F42" s="11"/>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="26">
+        <v>42444</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>405</v>
+      </c>
+      <c r="D43" s="11">
+        <v>1800</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="26">
+        <v>42444</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="D44" s="11">
         <v>1000</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="F36" s="11"/>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="77" t="s">
-        <v>383</v>
-      </c>
-      <c r="B37" s="82"/>
-      <c r="C37" s="83"/>
-      <c r="D37" s="64">
-        <f>SUM(D3:D36)</f>
-        <v>92312</v>
-      </c>
-      <c r="E37" s="65"/>
-      <c r="F37" s="66"/>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38" s="62" t="s">
-        <v>384</v>
-      </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="63">
-        <v>92312</v>
-      </c>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="34"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="34"/>
-    </row>
-    <row r="42" spans="1:6">
-      <c r="A42" s="34"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="34"/>
+      <c r="E44" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="79" t="s">
+        <v>379</v>
+      </c>
+      <c r="B45" s="84"/>
+      <c r="C45" s="85"/>
+      <c r="D45" s="66">
+        <f>SUM(D3:D44)</f>
+        <v>113112</v>
+      </c>
+      <c r="E45" s="67"/>
+      <c r="F45" s="68"/>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B46" s="65"/>
+      <c r="C46" s="65"/>
+      <c r="D46" s="66">
+        <v>113112</v>
+      </c>
+      <c r="E46" s="67"/>
+      <c r="F46" s="68"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F4"/>
   <mergeCells count="5">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:F45"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9044,7 +9201,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+      <selection activeCell="D20" sqref="D20:G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9058,37 +9215,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="84" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="85"/>
+      <c r="A1" s="86" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="46" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C2" s="25" t="s">
+        <v>272</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="D2" s="25" t="s">
-        <v>278</v>
-      </c>
       <c r="E2" s="25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9099,16 +9256,16 @@
         <v>42720</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D3" s="25">
         <v>40</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -9120,16 +9277,16 @@
         <v>42720</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="D4" s="11">
         <v>8</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -9141,16 +9298,16 @@
         <v>42724</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D5" s="11">
         <v>272</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -9162,16 +9319,16 @@
         <v>42727</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D6" s="11">
         <v>60</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -9183,16 +9340,16 @@
         <v>42727</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G7" s="11"/>
       <c r="I7" s="33"/>
@@ -9205,16 +9362,16 @@
         <v>42727</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D8" s="11">
         <v>80</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G8" s="11"/>
       <c r="I8" s="34"/>
@@ -9227,16 +9384,16 @@
         <v>42728</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D9" s="11">
         <v>920</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G9" s="11"/>
       <c r="I9" s="34"/>
@@ -9249,16 +9406,16 @@
         <v>42736</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="D10" s="11">
         <v>380</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G10" s="11"/>
       <c r="I10" s="34"/>
@@ -9271,16 +9428,16 @@
         <v>42736</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D11" s="11">
         <v>680</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G11" s="11"/>
       <c r="I11" s="34"/>
@@ -9293,16 +9450,16 @@
         <v>42736</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D12" s="11">
         <v>120</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="34"/>
@@ -9315,16 +9472,16 @@
         <v>42743</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="D13" s="11">
         <v>1200</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="34"/>
@@ -9337,19 +9494,19 @@
         <v>42776</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D14" s="31">
         <v>1500</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="I14" s="34"/>
     </row>
@@ -9361,19 +9518,19 @@
         <v>42780</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D15" s="11">
         <v>152</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I15" s="34"/>
     </row>
@@ -9385,17 +9542,19 @@
         <v>42787</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D16" s="11">
         <v>11000</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="F16" s="11"/>
+        <v>364</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="G16" s="11" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="I16" s="34"/>
     </row>
@@ -9407,15 +9566,17 @@
         <v>42752</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="D17" s="11">
         <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>424</v>
-      </c>
-      <c r="F17" s="11"/>
+        <v>420</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>448</v>
+      </c>
       <c r="G17" s="11"/>
       <c r="I17" s="34"/>
     </row>
@@ -9430,32 +9591,32 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="62" t="s">
-        <v>383</v>
-      </c>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63">
+      <c r="A19" s="64" t="s">
+        <v>379</v>
+      </c>
+      <c r="B19" s="65"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65">
         <f>SUM(D3:D17)</f>
         <v>16476</v>
       </c>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63"/>
-      <c r="G19" s="63"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="62" t="s">
-        <v>384</v>
-      </c>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63">
-        <v>5432</v>
-      </c>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
+      <c r="A20" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B20" s="65"/>
+      <c r="C20" s="65"/>
+      <c r="D20" s="65">
+        <v>16476</v>
+      </c>
+      <c r="E20" s="65"/>
+      <c r="F20" s="65"/>
+      <c r="G20" s="65"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9">
@@ -9488,7 +9649,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C17" sqref="C17:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9500,13 +9661,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="63" t="s">
-        <v>369</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
@@ -9519,7 +9680,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>6</v>
@@ -9536,7 +9697,7 @@
         <v>205000</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" s="38"/>
     </row>
@@ -9545,13 +9706,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C4" s="38">
         <v>800</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E4" s="38"/>
     </row>
@@ -9566,7 +9727,7 @@
         <v>35</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E5" s="38"/>
     </row>
@@ -9581,10 +9742,10 @@
         <v>80000</v>
       </c>
       <c r="D6" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="38" t="s">
         <v>229</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="14.25">
@@ -9598,7 +9759,7 @@
         <v>3000</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="38"/>
     </row>
@@ -9613,7 +9774,7 @@
         <v>460</v>
       </c>
       <c r="D8" s="38" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E8" s="38"/>
     </row>
@@ -9622,16 +9783,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C9" s="37">
         <v>4160</v>
       </c>
-      <c r="D9" s="37" t="s">
-        <v>229</v>
+      <c r="D9" s="61" t="s">
+        <v>226</v>
       </c>
       <c r="E9" s="39" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
@@ -9639,16 +9800,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C10" s="37">
         <v>4000</v>
       </c>
       <c r="D10" s="37" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E10" s="37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
@@ -9662,7 +9823,7 @@
         <v>4718</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E11" s="38"/>
     </row>
@@ -9671,16 +9832,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="C12" s="54">
         <v>1523.8</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
@@ -9688,16 +9849,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C13" s="55">
         <v>420</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
@@ -9705,12 +9866,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="C14" s="59">
         <v>15000</v>
       </c>
-      <c r="D14" s="40"/>
+      <c r="D14" s="40" t="s">
+        <v>446</v>
+      </c>
       <c r="E14" s="59"/>
     </row>
     <row r="15" spans="1:5" ht="14.25">
@@ -9718,16 +9881,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="C15" s="55">
         <v>580</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9738,29 +9901,29 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="62" t="s">
-        <v>379</v>
-      </c>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63">
-        <f>SUM(C3:C13)</f>
-        <v>304116.8</v>
-      </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
+      <c r="A17" s="64" t="s">
+        <v>376</v>
+      </c>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65">
+        <v>319696.8</v>
+      </c>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="62" t="s">
-        <v>380</v>
-      </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63">
-        <v>242173</v>
-      </c>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
+      <c r="A18" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="B18" s="65"/>
+      <c r="C18" s="65">
+        <v>319696.8</v>
+      </c>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:E15"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A17:B17"/>

--- a/开支收入/领航教育账目.xlsx
+++ b/开支收入/领航教育账目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="2" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="装修零散材料" sheetId="1" r:id="rId1"/>
@@ -27,14 +27,14 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">招生宣传、招聘职工!$B$2:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">装修工资!$A$2:$H$31</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">装修零散材料!$A$2:$H$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">装修主要材料!$A$2:$H$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">装修主要材料!$A$2:$H$34</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="909" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="462">
   <si>
     <t>序号</t>
   </si>
@@ -1257,14 +1257,6 @@
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
-    <t>吧台形象墙</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>个</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>收入项</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1442,11 +1434,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>见附件（估）,
-已付20000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>见附件（估），
 已付10000</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1666,11 +1653,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>见附件， 
-已付6000订金</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>杨晨</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1685,6 +1667,65 @@
   </si>
   <si>
     <t>个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨春辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丛稳付9000
+杨春辉付17500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">见附件（估）,
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>个</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨春辉付7000见附件</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨春辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>见附件， 
+杨晨已付6000订金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨春辉已付3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防开孔800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨春辉已付1000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨春辉付14957，李丛稳3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>李丛稳付完</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1891,7 +1932,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2081,6 +2122,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2155,9 +2202,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2429,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49:H49"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2442,16 +2486,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.1" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>223</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -3500,33 +3544,33 @@
       <c r="H48" s="4"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="B49" s="65"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="65"/>
-      <c r="E49" s="65"/>
-      <c r="F49" s="66">
+      <c r="A49" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="B49" s="67"/>
+      <c r="C49" s="67"/>
+      <c r="D49" s="67"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="68">
         <f>SUM(F3:F48)</f>
         <v>4678</v>
       </c>
-      <c r="G49" s="67"/>
-      <c r="H49" s="68"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="70"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="69">
+      <c r="A50" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="B50" s="67"/>
+      <c r="C50" s="67"/>
+      <c r="D50" s="67"/>
+      <c r="E50" s="67"/>
+      <c r="F50" s="71">
         <v>520</v>
       </c>
-      <c r="G50" s="70"/>
-      <c r="H50" s="71"/>
+      <c r="G50" s="72"/>
+      <c r="H50" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H49">
@@ -3550,7 +3594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -3561,25 +3605,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="65" t="s">
-        <v>362</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
+      <c r="A1" s="67" t="s">
+        <v>360</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>349</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>350</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3587,7 +3631,7 @@
         <v>42583</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C3" s="11" t="s">
         <v>226</v>
@@ -3601,10 +3645,10 @@
         <v>42583</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D4" s="11">
         <v>120000</v>
@@ -3616,10 +3660,10 @@
         <v>42583</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>353</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>355</v>
       </c>
       <c r="D5" s="11">
         <v>200000</v>
@@ -3631,7 +3675,7 @@
         <v>42583</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C6" s="11" t="s">
         <v>230</v>
@@ -3646,7 +3690,7 @@
         <v>42750</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11">
@@ -3659,7 +3703,7 @@
         <v>42781</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
@@ -3668,11 +3712,11 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="79" t="s">
-        <v>375</v>
-      </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
+      <c r="A9" s="81" t="s">
+        <v>373</v>
+      </c>
+      <c r="B9" s="69"/>
+      <c r="C9" s="70"/>
       <c r="D9" s="4">
         <f>SUM(D3:D8)</f>
         <v>561830</v>
@@ -3704,13 +3748,13 @@
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1">
       <c r="A14" s="46" t="s">
-        <v>374</v>
-      </c>
-      <c r="B14" s="88" t="s">
-        <v>449</v>
+        <v>372</v>
+      </c>
+      <c r="B14" s="64" t="s">
+        <v>445</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D14" s="31">
         <v>409515</v>
@@ -3718,7 +3762,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="46" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B16" s="4">
         <v>466338</v>
@@ -3728,7 +3772,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="46" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B17" s="4">
         <v>82152.149999999994</v>
@@ -3738,7 +3782,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B18" s="4">
         <v>12397</v>
@@ -3748,7 +3792,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="49" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B19" s="4">
         <v>113112</v>
@@ -3758,7 +3802,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B20" s="4">
         <v>16476</v>
@@ -3768,7 +3812,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="49" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B21" s="4">
         <v>319696.8</v>
@@ -3778,7 +3822,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="49" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B22" s="4">
         <f>SUM(B16:B21)</f>
@@ -3799,35 +3843,35 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="2" max="2" width="19.125" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
     <col min="6" max="6" width="10.875" customWidth="1"/>
-    <col min="7" max="7" width="6.25" customWidth="1"/>
-    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="7" max="7" width="8.75" customWidth="1"/>
+    <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="72" t="s">
-        <v>357</v>
-      </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="72"/>
-      <c r="G1" s="72"/>
-      <c r="H1" s="72"/>
+      <c r="A1" s="74" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="74"/>
+      <c r="C1" s="74"/>
+      <c r="D1" s="74"/>
+      <c r="E1" s="74"/>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="H1" s="74"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3875,8 +3919,12 @@
         <f>D3*E3</f>
         <v>4600</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H3" s="75" t="s">
+        <v>449</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
       <c r="A4" s="6">
@@ -3895,11 +3943,13 @@
         <v>270</v>
       </c>
       <c r="F4" s="6">
-        <f t="shared" ref="F4:F13" si="0">D4*E4</f>
+        <f t="shared" ref="F4:F12" si="0">D4*E4</f>
         <v>10260</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H4" s="76"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="6">
@@ -3921,8 +3971,10 @@
         <f t="shared" si="0"/>
         <v>2880</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H5" s="76"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="6">
@@ -3935,17 +3987,19 @@
         <v>71</v>
       </c>
       <c r="D6" s="6">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="6">
         <v>120</v>
       </c>
       <c r="F6" s="6">
         <f t="shared" si="0"/>
-        <v>8640</v>
-      </c>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+        <v>8760</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H6" s="77"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="6">
@@ -3967,7 +4021,9 @@
         <f t="shared" si="0"/>
         <v>19703</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="30" customHeight="1">
@@ -3990,7 +4046,9 @@
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="30" customHeight="1">
@@ -4013,7 +4071,9 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="30" customHeight="1">
@@ -4036,7 +4096,9 @@
         <f t="shared" si="0"/>
         <v>7480</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="30" customHeight="1">
@@ -4044,22 +4106,24 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="E11" s="6">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="F11" s="6">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="G11" s="6"/>
+        <v>3150</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="30" customHeight="1">
@@ -4067,22 +4131,24 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>25</v>
+        <v>57</v>
       </c>
       <c r="D12" s="6">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6">
-        <v>150</v>
+        <v>20</v>
       </c>
       <c r="F12" s="6">
         <f t="shared" si="0"/>
-        <v>3150</v>
-      </c>
-      <c r="G12" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="30" customHeight="1">
@@ -4090,58 +4156,57 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" s="6">
-        <v>10</v>
-      </c>
-      <c r="E13" s="6">
-        <v>20</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
       <c r="F13" s="6">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>440</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H13" s="6"/>
     </row>
-    <row r="14" spans="1:8" ht="30" customHeight="1">
+    <row r="14" spans="1:8" ht="45" customHeight="1">
       <c r="A14" s="6">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6">
-        <v>440</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" ht="45" customHeight="1">
+        <v>24000</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="H14" s="50" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
       <c r="F15" s="6">
-        <v>24000</v>
+        <v>9000</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="H15" s="50" t="s">
-        <v>393</v>
+        <v>226</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
@@ -4149,75 +4214,91 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D16" s="6">
+        <v>34</v>
+      </c>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
-        <v>9000</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6" t="s">
-        <v>84</v>
-      </c>
+        <v>11440</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:10" ht="30" customHeight="1">
       <c r="A17" s="6">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
+        <v>87</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D17" s="6">
+        <v>1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>2000</v>
+      </c>
       <c r="F17" s="6">
-        <v>11440</v>
-      </c>
-      <c r="G17" s="6"/>
+        <v>2000</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>226</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="30" customHeight="1">
+    <row r="18" spans="1:10" ht="44.25" customHeight="1">
       <c r="A18" s="6">
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="6">
-        <v>13</v>
-      </c>
-      <c r="E18" s="6">
-        <v>150</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
       <c r="F18" s="6">
-        <v>1950</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-    </row>
-    <row r="19" spans="1:10" ht="44.25" customHeight="1">
+        <v>68000</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>226</v>
+      </c>
+      <c r="H18" s="50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="30" customHeight="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
+        <v>90</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="6">
+        <v>1500</v>
+      </c>
+      <c r="E19" s="6">
+        <v>13.5</v>
+      </c>
       <c r="F19" s="6">
-        <v>68000</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>226</v>
-      </c>
-      <c r="H19" s="50" t="s">
-        <v>394</v>
+        <v>31890</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1">
@@ -4225,41 +4306,46 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="6">
-        <v>1500</v>
-      </c>
-      <c r="E20" s="6">
-        <v>13.5</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
       <c r="F20" s="6">
-        <v>31891</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>20015</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="H20" s="6" t="s">
-        <v>91</v>
-      </c>
+        <v>453</v>
+      </c>
+      <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10" ht="30" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D21" s="6">
+        <v>606</v>
+      </c>
+      <c r="E21" s="6">
+        <v>18.600000000000001</v>
+      </c>
       <c r="F21" s="6">
-        <v>20015</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6" t="s">
-        <v>91</v>
+        <v>11271.6</v>
+      </c>
+      <c r="G21" s="78" t="s">
+        <v>454</v>
+      </c>
+      <c r="H21" s="75" t="s">
+        <v>455</v>
       </c>
       <c r="J21" s="9"/>
     </row>
@@ -4268,26 +4354,22 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D22" s="6">
-        <v>606</v>
+        <v>2666</v>
       </c>
       <c r="E22" s="6">
-        <v>18.600000000000001</v>
+        <v>10.5</v>
       </c>
       <c r="F22" s="6">
-        <v>11271.6</v>
-      </c>
-      <c r="G22" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="H22" s="73" t="s">
-        <v>447</v>
-      </c>
+        <v>27993</v>
+      </c>
+      <c r="G22" s="76"/>
+      <c r="H22" s="76"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1">
@@ -4295,22 +4377,22 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D23" s="6">
-        <v>2666</v>
+        <v>85</v>
       </c>
       <c r="E23" s="6">
-        <v>10.5</v>
+        <v>20</v>
       </c>
       <c r="F23" s="6">
-        <v>27993</v>
-      </c>
-      <c r="G23" s="74"/>
-      <c r="H23" s="74"/>
+        <v>1700</v>
+      </c>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
@@ -4318,22 +4400,22 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D24" s="6">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="E24" s="6">
-        <v>20</v>
+        <v>9.5</v>
       </c>
       <c r="F24" s="6">
-        <v>1700</v>
-      </c>
-      <c r="G24" s="74"/>
-      <c r="H24" s="74"/>
+        <v>665</v>
+      </c>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
@@ -4341,22 +4423,22 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D25" s="6">
-        <v>70</v>
+        <v>467</v>
       </c>
       <c r="E25" s="6">
-        <v>9.5</v>
+        <v>2.5</v>
       </c>
       <c r="F25" s="6">
-        <v>665</v>
-      </c>
-      <c r="G25" s="74"/>
-      <c r="H25" s="74"/>
+        <v>1167.5</v>
+      </c>
+      <c r="G25" s="76"/>
+      <c r="H25" s="76"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
@@ -4364,22 +4446,22 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D26" s="6">
-        <v>467</v>
+        <v>1346</v>
       </c>
       <c r="E26" s="6">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="F26" s="6">
-        <v>1167.5</v>
-      </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
+        <v>4038</v>
+      </c>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1">
@@ -4387,22 +4469,22 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D27" s="6">
-        <v>1346</v>
+        <v>90</v>
       </c>
       <c r="E27" s="6">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="F27" s="6">
-        <v>4038</v>
-      </c>
-      <c r="G27" s="74"/>
-      <c r="H27" s="74"/>
+        <v>2700</v>
+      </c>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1">
@@ -4410,22 +4492,22 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D28" s="6">
-        <v>90</v>
+        <v>240</v>
       </c>
       <c r="E28" s="6">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="F28" s="6">
-        <v>2700</v>
-      </c>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
+        <v>720</v>
+      </c>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1">
@@ -4433,22 +4515,22 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D29" s="6">
-        <v>240</v>
+        <v>72</v>
       </c>
       <c r="E29" s="6">
-        <v>3</v>
+        <v>9.5</v>
       </c>
       <c r="F29" s="6">
-        <v>720</v>
-      </c>
-      <c r="G29" s="74"/>
-      <c r="H29" s="74"/>
+        <v>684</v>
+      </c>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1">
@@ -4456,168 +4538,123 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>122</v>
       </c>
       <c r="D30" s="6">
-        <v>72</v>
+        <v>1420</v>
       </c>
       <c r="E30" s="6">
-        <v>9.5</v>
+        <v>1.6</v>
       </c>
       <c r="F30" s="6">
-        <v>684</v>
-      </c>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="J30" s="9"/>
+        <v>2272</v>
+      </c>
+      <c r="G30" s="77"/>
+      <c r="H30" s="77"/>
+      <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1">
       <c r="A31" s="6">
         <v>29</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D31" s="6">
-        <v>1420</v>
-      </c>
-      <c r="E31" s="6">
-        <v>1.6</v>
-      </c>
-      <c r="F31" s="6">
-        <v>2272</v>
-      </c>
-      <c r="G31" s="75"/>
-      <c r="H31" s="75"/>
-      <c r="J31" s="7"/>
+      <c r="B31" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D31" s="2">
+        <v>60</v>
+      </c>
+      <c r="E31" s="2">
+        <v>22</v>
+      </c>
+      <c r="F31" s="2">
+        <v>1320</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1">
       <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>95</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2">
-        <v>1320</v>
-      </c>
-      <c r="G32" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="22" t="s">
         <v>226</v>
       </c>
-      <c r="H32" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="30" customHeight="1">
-      <c r="A33" s="6">
-        <v>31</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>347</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>348</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1</v>
-      </c>
-      <c r="E33" s="2">
-        <v>2000</v>
-      </c>
-      <c r="F33" s="2">
-        <v>2000</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="1:8" ht="30" customHeight="1">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D34" s="2">
-        <v>35</v>
-      </c>
-      <c r="E34" s="2">
-        <v>1</v>
-      </c>
-      <c r="F34" s="2">
-        <v>35</v>
-      </c>
-      <c r="G34" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H34" s="2"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="A33" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="67"/>
+      <c r="E33" s="67"/>
+      <c r="F33" s="68">
+        <f>SUM(F3:F32)</f>
+        <v>278799.09999999998</v>
+      </c>
+      <c r="G33" s="69"/>
+      <c r="H33" s="70"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="71">
+        <v>39369</v>
+      </c>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="65"/>
-      <c r="D35" s="65"/>
-      <c r="E35" s="65"/>
-      <c r="F35" s="66">
-        <f>SUM(F3:F34)</f>
-        <v>280750.09999999998</v>
-      </c>
-      <c r="G35" s="67"/>
-      <c r="H35" s="68"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="B36" s="65"/>
-      <c r="C36" s="65"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
-      <c r="F36" s="69">
-        <v>39369</v>
-      </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="71"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
-      <c r="E37" s="78"/>
-      <c r="F37" s="47"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <autoFilter ref="A2:H34"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="H22:H31"/>
-    <mergeCell ref="G22:G31"/>
-    <mergeCell ref="A36:E36"/>
-    <mergeCell ref="A37:E37"/>
+    <mergeCell ref="H21:H30"/>
+    <mergeCell ref="G21:G30"/>
+    <mergeCell ref="A34:E34"/>
     <mergeCell ref="A35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="F36:H36"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="H3:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -4630,8 +4667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:H31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4642,20 +4679,20 @@
     <col min="5" max="5" width="7" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="8" max="8" width="14.125" customWidth="1"/>
+    <col min="8" max="8" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="65" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4702,10 +4739,10 @@
       <c r="F3" s="6">
         <v>360</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="78" t="s">
         <v>226</v>
       </c>
-      <c r="H3" s="73" t="s">
+      <c r="H3" s="75" t="s">
         <v>231</v>
       </c>
       <c r="J3" s="9"/>
@@ -4729,8 +4766,8 @@
       <c r="F4" s="6">
         <v>1800</v>
       </c>
-      <c r="G4" s="74"/>
-      <c r="H4" s="74"/>
+      <c r="G4" s="76"/>
+      <c r="H4" s="76"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
@@ -4752,8 +4789,8 @@
       <c r="F5" s="6">
         <v>11800</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
+      <c r="G5" s="76"/>
+      <c r="H5" s="76"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
@@ -4775,8 +4812,8 @@
       <c r="F6" s="6">
         <v>11900</v>
       </c>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
@@ -4792,7 +4829,9 @@
       <c r="F7" s="6">
         <v>22800</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1">
@@ -4814,7 +4853,9 @@
       <c r="F8" s="6">
         <v>21933.279999999999</v>
       </c>
-      <c r="G8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
@@ -4836,7 +4877,9 @@
       <c r="F9" s="6">
         <v>5445.54</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
@@ -4858,7 +4901,9 @@
       <c r="F10" s="6">
         <v>6235</v>
       </c>
-      <c r="G10" s="6"/>
+      <c r="G10" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
@@ -4878,7 +4923,9 @@
       <c r="F11" s="6">
         <v>1000</v>
       </c>
-      <c r="G11" s="6"/>
+      <c r="G11" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
@@ -4900,7 +4947,9 @@
       <c r="F12" s="6">
         <v>2400</v>
       </c>
-      <c r="G12" s="6"/>
+      <c r="G12" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
@@ -4922,8 +4971,12 @@
       <c r="F13" s="6">
         <v>17706</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>456</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
       <c r="A14" s="6">
@@ -4942,10 +4995,14 @@
         <v>16</v>
       </c>
       <c r="F14" s="6">
-        <v>23360</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+        <v>24160</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>457</v>
+      </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1">
       <c r="A15" s="6">
@@ -4960,7 +5017,9 @@
       <c r="F15" s="6">
         <v>3000</v>
       </c>
-      <c r="G15" s="6"/>
+      <c r="G15" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
@@ -4968,16 +5027,20 @@
         <v>14</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="6"/>
       <c r="F16" s="6">
-        <v>2400</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+        <v>6300</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>458</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
       <c r="A17" s="6">
@@ -4992,9 +5055,11 @@
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6">
-        <v>5950</v>
-      </c>
-      <c r="G17" s="6"/>
+        <v>6000</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H17" s="5" t="s">
         <v>148</v>
       </c>
@@ -5013,10 +5078,10 @@
         <v>5000</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>226</v>
+        <v>459</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
@@ -5036,7 +5101,7 @@
         <v>226</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
@@ -5044,16 +5109,20 @@
         <v>18</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6">
-        <v>14957</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+        <v>17957</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="H20" s="6" t="s">
+        <v>460</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
       <c r="A21" s="6">
@@ -5068,9 +5137,11 @@
       <c r="F21" s="6">
         <v>1394</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>452</v>
+      </c>
       <c r="H21" s="50" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
@@ -5090,7 +5161,9 @@
       <c r="F22" s="6">
         <v>530</v>
       </c>
-      <c r="G22" s="6"/>
+      <c r="G22" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
@@ -5106,9 +5179,11 @@
       <c r="D23" s="6"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6">
-        <v>4000</v>
-      </c>
-      <c r="G23" s="6"/>
+        <v>4500</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
@@ -5124,7 +5199,9 @@
       <c r="F24" s="6">
         <v>2700</v>
       </c>
-      <c r="G24" s="6"/>
+      <c r="G24" s="6" t="s">
+        <v>448</v>
+      </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
@@ -5147,7 +5224,9 @@
         <v>240</v>
       </c>
       <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
+      <c r="H25" s="63" t="s">
+        <v>461</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
       <c r="A26" s="6">
@@ -5172,7 +5251,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5230,33 +5309,33 @@
       <c r="H29" s="38"/>
     </row>
     <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="B30" s="65"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65">
+      <c r="A30" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="B30" s="67"/>
+      <c r="C30" s="67"/>
+      <c r="D30" s="67"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67">
         <f>SUM(F3:F29)</f>
-        <v>180910.82</v>
-      </c>
-      <c r="G30" s="65"/>
-      <c r="H30" s="65"/>
+        <v>189160.82</v>
+      </c>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
     </row>
     <row r="31" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A31" s="64" t="s">
-        <v>377</v>
-      </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="65"/>
-      <c r="E31" s="65"/>
-      <c r="F31" s="65">
+      <c r="A31" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="B31" s="67"/>
+      <c r="C31" s="67"/>
+      <c r="D31" s="67"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="67">
         <v>44860</v>
       </c>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -5279,8 +5358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5293,14 +5372,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A1" s="63" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
+      <c r="A1" s="65" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -5661,29 +5740,29 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="65">
+      <c r="A23" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="B23" s="67"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="67">
         <f>SUM(D3:D22)</f>
         <v>92630</v>
       </c>
-      <c r="E23" s="65"/>
-      <c r="F23" s="65"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="67"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="79" t="s">
-        <v>374</v>
-      </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="68"/>
-      <c r="D24" s="66">
+      <c r="A24" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24" s="69"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="68">
         <v>68600</v>
       </c>
-      <c r="E24" s="67"/>
-      <c r="F24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F24">
@@ -5707,7 +5786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView topLeftCell="A81" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H103" sqref="H103"/>
     </sheetView>
   </sheetViews>
@@ -5724,16 +5803,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="80" t="s">
-        <v>359</v>
-      </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="80"/>
+      <c r="A1" s="82" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
@@ -6040,7 +6119,7 @@
         <v>228</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
@@ -6326,7 +6405,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="C27" s="43" t="s">
         <v>8</v>
@@ -7198,10 +7277,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D64" s="44">
         <v>96</v>
@@ -7616,7 +7695,7 @@
         <v>80</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>271</v>
@@ -7640,10 +7719,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D83" s="11">
         <v>1</v>
@@ -7664,10 +7743,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="D84" s="11">
         <v>1</v>
@@ -7679,7 +7758,7 @@
         <v>55</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H84" s="11"/>
     </row>
@@ -7688,7 +7767,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -7697,10 +7776,10 @@
         <v>135.30000000000001</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="14.25">
@@ -7708,7 +7787,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -7717,10 +7796,10 @@
         <v>164.5</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="14.25">
@@ -7728,7 +7807,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -7739,7 +7818,7 @@
         <v>30.9</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H87" s="11"/>
     </row>
@@ -7748,7 +7827,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -7757,10 +7836,10 @@
         <v>55</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="14.25">
@@ -7768,10 +7847,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D89" s="11">
         <v>1000</v>
@@ -7783,7 +7862,7 @@
         <v>125</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="H89" s="11"/>
     </row>
@@ -7792,10 +7871,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="D90" s="11">
         <v>50</v>
@@ -7807,7 +7886,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H90" s="11"/>
     </row>
@@ -7816,10 +7895,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D91" s="11">
         <v>1</v>
@@ -7831,7 +7910,7 @@
         <v>13</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H91" s="11"/>
     </row>
@@ -7840,10 +7919,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D92" s="11">
         <v>1</v>
@@ -7855,7 +7934,7 @@
         <v>12.25</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H92" s="11"/>
     </row>
@@ -7864,10 +7943,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D93" s="11">
         <v>2</v>
@@ -7879,7 +7958,7 @@
         <v>100</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="H93" s="11"/>
     </row>
@@ -7888,10 +7967,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="D94" s="11">
         <v>2</v>
@@ -7912,10 +7991,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="C95" s="11" t="s">
         <v>439</v>
-      </c>
-      <c r="C95" s="11" t="s">
-        <v>442</v>
       </c>
       <c r="D95" s="11">
         <v>1</v>
@@ -7927,7 +8006,7 @@
         <v>52</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H95" s="11"/>
     </row>
@@ -7936,10 +8015,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D96" s="11">
         <v>1</v>
@@ -7951,7 +8030,7 @@
         <v>15</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H96" s="11"/>
     </row>
@@ -7960,10 +8039,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D97" s="11">
         <v>1</v>
@@ -7975,7 +8054,7 @@
         <v>1400</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="H97" s="11"/>
     </row>
@@ -7990,33 +8069,33 @@
       <c r="H98" s="4"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
-      <c r="D99" s="65"/>
-      <c r="E99" s="65"/>
-      <c r="F99" s="65">
+      <c r="A99" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="B99" s="67"/>
+      <c r="C99" s="67"/>
+      <c r="D99" s="67"/>
+      <c r="E99" s="67"/>
+      <c r="F99" s="67">
         <f>SUM(F3:F98)</f>
         <v>82152.149999999994</v>
       </c>
-      <c r="G99" s="65"/>
-      <c r="H99" s="65"/>
+      <c r="G99" s="67"/>
+      <c r="H99" s="67"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="79" t="s">
-        <v>374</v>
-      </c>
-      <c r="B100" s="67"/>
-      <c r="C100" s="67"/>
-      <c r="D100" s="67"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="65">
+      <c r="A100" s="81" t="s">
+        <v>372</v>
+      </c>
+      <c r="B100" s="69"/>
+      <c r="C100" s="69"/>
+      <c r="D100" s="69"/>
+      <c r="E100" s="70"/>
+      <c r="F100" s="67">
         <v>82152.149999999994</v>
       </c>
-      <c r="G100" s="65"/>
-      <c r="H100" s="65"/>
+      <c r="G100" s="67"/>
+      <c r="H100" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H95">
@@ -8053,17 +8132,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="81" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82"/>
+      <c r="A1" s="83" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="84"/>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="46" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>209</v>
@@ -8262,7 +8341,7 @@
         <v>228</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
@@ -8332,27 +8411,27 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25">
-      <c r="A18" s="64" t="s">
-        <v>375</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="83">
+      <c r="A18" s="66" t="s">
+        <v>373</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="85">
         <f>SUM(C3:C17)</f>
         <v>12397</v>
       </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="64" t="s">
-        <v>374</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65">
+      <c r="A19" s="66" t="s">
+        <v>372</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67">
         <v>12397</v>
       </c>
-      <c r="D19" s="65"/>
-      <c r="E19" s="65"/>
+      <c r="D19" s="67"/>
+      <c r="E19" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E19">
@@ -8387,14 +8466,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>251</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="70"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
@@ -8755,7 +8834,7 @@
         <v>248</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H22" s="34"/>
     </row>
@@ -8806,7 +8885,7 @@
         <v>42384</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>330</v>
@@ -8815,7 +8894,7 @@
         <v>2000</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F25" s="11"/>
       <c r="H25" s="34"/>
@@ -8856,7 +8935,7 @@
         <v>248</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H27" s="34"/>
     </row>
@@ -8877,7 +8956,7 @@
         <v>248</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="H28" s="34"/>
     </row>
@@ -8898,7 +8977,7 @@
         <v>248</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="H29" s="34"/>
     </row>
@@ -8959,13 +9038,13 @@
         <v>331</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D33" s="11">
         <v>2000</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F33" s="4"/>
     </row>
@@ -8977,13 +9056,13 @@
         <v>316</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D34" s="11">
         <v>2000</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F34" s="11"/>
     </row>
@@ -8995,13 +9074,13 @@
         <v>315</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D35" s="11">
         <v>2000</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F35" s="11"/>
     </row>
@@ -9013,13 +9092,13 @@
         <v>336</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D36" s="11">
         <v>1800</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F36" s="11"/>
     </row>
@@ -9028,10 +9107,10 @@
         <v>42415</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="D37" s="11">
         <v>1000</v>
@@ -9081,7 +9160,7 @@
         <v>2000</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F40" s="4"/>
     </row>
@@ -9093,13 +9172,13 @@
         <v>316</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="D41" s="11">
         <v>2000</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F41" s="11"/>
     </row>
@@ -9111,13 +9190,13 @@
         <v>315</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="D42" s="11">
         <v>2000</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F42" s="11"/>
     </row>
@@ -9129,13 +9208,13 @@
         <v>336</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="D43" s="11">
         <v>1800</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F43" s="11"/>
     </row>
@@ -9144,7 +9223,7 @@
         <v>42444</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>254</v>
@@ -9158,29 +9237,29 @@
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="79" t="s">
-        <v>379</v>
-      </c>
-      <c r="B45" s="84"/>
-      <c r="C45" s="85"/>
-      <c r="D45" s="66">
+      <c r="A45" s="81" t="s">
+        <v>377</v>
+      </c>
+      <c r="B45" s="86"/>
+      <c r="C45" s="87"/>
+      <c r="D45" s="68">
         <f>SUM(D3:D44)</f>
         <v>113112</v>
       </c>
-      <c r="E45" s="67"/>
-      <c r="F45" s="68"/>
+      <c r="E45" s="69"/>
+      <c r="F45" s="70"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="64" t="s">
-        <v>380</v>
-      </c>
-      <c r="B46" s="65"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="66">
+      <c r="A46" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="B46" s="67"/>
+      <c r="C46" s="67"/>
+      <c r="D46" s="68">
         <v>113112</v>
       </c>
-      <c r="E46" s="67"/>
-      <c r="F46" s="68"/>
+      <c r="E46" s="69"/>
+      <c r="F46" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9201,7 +9280,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20:G20"/>
+      <selection activeCell="D19" sqref="D19:G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9215,19 +9294,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="86" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="87"/>
+      <c r="A1" s="88" t="s">
+        <v>359</v>
+      </c>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="46" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B2" s="25" t="s">
         <v>245</v>
@@ -9506,7 +9585,7 @@
         <v>248</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="I14" s="34"/>
     </row>
@@ -9542,19 +9621,19 @@
         <v>42787</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D16" s="11">
-        <v>11000</v>
+        <v>11700</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="I16" s="34"/>
     </row>
@@ -9566,16 +9645,16 @@
         <v>42752</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D17" s="11">
         <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="34"/>
@@ -9591,32 +9670,32 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="64" t="s">
-        <v>379</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="65">
+      <c r="A19" s="66" t="s">
+        <v>377</v>
+      </c>
+      <c r="B19" s="67"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="67">
         <f>SUM(D3:D17)</f>
-        <v>16476</v>
-      </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="65"/>
+        <v>17176</v>
+      </c>
+      <c r="E19" s="67"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="64" t="s">
-        <v>380</v>
-      </c>
-      <c r="B20" s="65"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="65">
-        <v>16476</v>
-      </c>
-      <c r="E20" s="65"/>
-      <c r="F20" s="65"/>
-      <c r="G20" s="65"/>
+      <c r="A20" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="B20" s="67"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67">
+        <v>17176</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9">
@@ -9649,7 +9728,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17:E17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9661,13 +9740,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="65" t="s">
-        <v>366</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
+      <c r="A1" s="67" t="s">
+        <v>364</v>
+      </c>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
@@ -9706,7 +9785,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C4" s="38">
         <v>800</v>
@@ -9832,16 +9911,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="54" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C12" s="54">
         <v>1523.8</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E12" s="54" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
@@ -9849,16 +9928,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="55" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C13" s="55">
         <v>420</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E13" s="55" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
@@ -9866,13 +9945,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="C14" s="59">
-        <v>15000</v>
+        <v>26000</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E14" s="59"/>
     </row>
@@ -9881,16 +9960,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="55" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C15" s="55">
         <v>580</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E15" s="55" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -9901,26 +9980,26 @@
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="64" t="s">
-        <v>376</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="65">
+      <c r="A17" s="66" t="s">
+        <v>374</v>
+      </c>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67">
         <v>319696.8</v>
       </c>
-      <c r="D17" s="65"/>
-      <c r="E17" s="65"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="64" t="s">
-        <v>377</v>
-      </c>
-      <c r="B18" s="65"/>
-      <c r="C18" s="65">
+      <c r="A18" s="66" t="s">
+        <v>375</v>
+      </c>
+      <c r="B18" s="67"/>
+      <c r="C18" s="67">
         <v>319696.8</v>
       </c>
-      <c r="D18" s="65"/>
-      <c r="E18" s="65"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:E15"/>

--- a/开支收入/领航教育账目.xlsx
+++ b/开支收入/领航教育账目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="装修零散材料" sheetId="1" r:id="rId1"/>
@@ -22,19 +22,19 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">办公用品!$A$2:$H$100</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">工作人员工资!$A$2:$F$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">借条!$A$2:$F$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">其他!$A$2:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">其他!$A$2:$E$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">招待费!$B$2:$E$19</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">招生宣传、招聘职工!$B$2:$G$16</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">装修工资!$A$2:$H$31</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">装修零散材料!$A$2:$H$49</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">装修主要材料!$A$2:$H$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">装修工资!$A$2:$H$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">装修零散材料!$A$2:$H$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">装修主要材料!$A$2:$H$36</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="943" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="472">
   <si>
     <t>序号</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>1楼卫生清理</t>
-  </si>
-  <si>
-    <t>小工清场</t>
   </si>
   <si>
     <t>门锁</t>
@@ -524,9 +521,6 @@
   </si>
   <si>
     <t>装修工人保险</t>
-  </si>
-  <si>
-    <t>复印图纸</t>
   </si>
   <si>
     <t>晒消防图纸</t>
@@ -1674,11 +1668,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>李丛稳付9000
-杨春辉付17500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">见附件（估）,
 </t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1721,11 +1710,64 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杨春辉付14957，李丛稳3000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>李丛稳付完</t>
+    <t>25直接内丝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>胶带</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫把</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>消防管</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>挑水泥</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大厅吊顶，包柱子过梁木材</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>已用5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨春辉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工地管理人员</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨已付3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨付9000
+杨春辉付17500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨春辉付14957，杨晨付3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨付2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1932,7 +1974,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="90">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2128,6 +2170,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2202,6 +2253,12 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2471,10 +2528,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F48" sqref="F48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2486,16 +2543,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.1" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="A1" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2517,7 +2574,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -2542,7 +2599,9 @@
       <c r="F3" s="6">
         <v>12</v>
       </c>
-      <c r="G3" s="6"/>
+      <c r="G3" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2564,7 +2623,9 @@
       <c r="F4" s="6">
         <v>4</v>
       </c>
-      <c r="G4" s="6"/>
+      <c r="G4" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2586,7 +2647,9 @@
       <c r="F5" s="6">
         <v>12</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2608,7 +2671,9 @@
       <c r="F6" s="6">
         <v>80</v>
       </c>
-      <c r="G6" s="6"/>
+      <c r="G6" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2630,7 +2695,9 @@
       <c r="F7" s="6">
         <v>15</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H7" s="6"/>
     </row>
     <row r="8" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2638,21 +2705,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6">
-        <v>2</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
       <c r="F8" s="6">
-        <v>2</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H8" s="6"/>
     </row>
     <row r="9" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2660,21 +2723,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="6">
+        <v>458</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6">
         <v>2</v>
       </c>
-      <c r="E9" s="6">
-        <v>10</v>
-      </c>
-      <c r="F9" s="6">
-        <v>20</v>
-      </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2682,21 +2741,23 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D10" s="6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E10" s="6">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F10" s="6">
-        <v>50</v>
-      </c>
-      <c r="G10" s="6"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2704,71 +2765,73 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D11" s="6">
-        <v>400</v>
+        <v>2</v>
       </c>
       <c r="E11" s="6">
-        <v>0.8</v>
+        <v>10</v>
       </c>
       <c r="F11" s="6">
-        <v>320</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="G11" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D12" s="6">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="E12" s="6">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="F12" s="6">
-        <v>420</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D13" s="6">
-        <v>17</v>
+        <v>400</v>
       </c>
       <c r="E13" s="6">
-        <v>12</v>
+        <v>0.8</v>
       </c>
       <c r="F13" s="6">
-        <v>204</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>360</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H13" s="6" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2776,65 +2839,75 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D14" s="6">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E14" s="6">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="F14" s="6">
-        <v>4</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+        <v>450</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A15" s="6">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D15" s="6">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="E15" s="6">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" s="6">
-        <v>20</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+        <v>244</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D16" s="6">
+        <v>1</v>
+      </c>
+      <c r="E16" s="6">
         <v>4</v>
       </c>
-      <c r="E16" s="6">
-        <v>5</v>
-      </c>
       <c r="F16" s="6">
-        <v>20</v>
-      </c>
-      <c r="G16" s="6"/>
+        <v>4</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2842,21 +2915,23 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D17" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E17" s="6">
+        <v>10</v>
+      </c>
+      <c r="F17" s="6">
         <v>20</v>
       </c>
-      <c r="F17" s="6">
-        <v>60</v>
-      </c>
-      <c r="G17" s="6"/>
+      <c r="G17" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2864,21 +2939,23 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="D18" s="6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="6">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F18" s="6">
-        <v>15</v>
-      </c>
-      <c r="G18" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2886,45 +2963,47 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>22</v>
       </c>
       <c r="D19" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E19" s="6">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="F19" s="6">
-        <v>320</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6" t="s">
-        <v>23</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A20" s="6">
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D20" s="6">
         <v>1</v>
       </c>
       <c r="E20" s="6">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F20" s="6">
-        <v>70</v>
-      </c>
-      <c r="G20" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2932,43 +3011,49 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D21" s="6">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E21" s="6">
-        <v>5</v>
+        <v>160</v>
       </c>
       <c r="F21" s="6">
-        <v>40</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>350</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H21" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A22" s="6">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="D22" s="6">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E22" s="6">
-        <v>5</v>
+        <v>70</v>
       </c>
       <c r="F22" s="6">
-        <v>30</v>
-      </c>
-      <c r="G22" s="6"/>
+        <v>70</v>
+      </c>
+      <c r="G22" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -2976,69 +3061,65 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="6">
-        <v>2</v>
-      </c>
-      <c r="E23" s="6">
-        <v>20</v>
-      </c>
+        <v>459</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
       <c r="F23" s="6">
-        <v>40</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6" t="s">
-        <v>39</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A24" s="6">
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D24" s="6">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E24" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F24" s="6">
-        <v>10</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6" t="s">
         <v>40</v>
       </c>
+      <c r="G24" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A25" s="6">
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="D25" s="6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E25" s="6">
         <v>5</v>
       </c>
       <c r="F25" s="6">
-        <v>40</v>
-      </c>
-      <c r="G25" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3046,65 +3127,75 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D26" s="6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E26" s="6">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="F26" s="6">
-        <v>18</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H26" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="27" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A27" s="6">
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>44</v>
+        <v>8</v>
       </c>
       <c r="D27" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="6">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F27" s="6">
+        <v>10</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A28" s="6">
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="D28" s="6">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="E28" s="6">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F28" s="6">
-        <v>270</v>
-      </c>
-      <c r="G28" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3112,21 +3203,23 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>47</v>
+        <v>17</v>
       </c>
       <c r="D29" s="6">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E29" s="6">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F29" s="6">
-        <v>16</v>
-      </c>
-      <c r="G29" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3134,45 +3227,47 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D30" s="6">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E30" s="6">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="F30" s="6">
-        <v>312</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6" t="s">
-        <v>49</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="G30" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A31" s="6">
         <v>29</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="D31" s="6">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="E31" s="6">
         <v>10</v>
       </c>
       <c r="F31" s="6">
-        <v>10</v>
-      </c>
-      <c r="G31" s="6"/>
+        <v>270</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3180,21 +3275,23 @@
         <v>30</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D32" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F32" s="6">
-        <v>21</v>
-      </c>
-      <c r="G32" s="6"/>
+        <v>16</v>
+      </c>
+      <c r="G32" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3202,43 +3299,49 @@
         <v>31</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="D33" s="6">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="E33" s="6">
-        <v>0.5</v>
+        <v>26</v>
       </c>
       <c r="F33" s="6">
-        <v>10</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+        <v>332</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="34" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A34" s="6">
         <v>32</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="D34" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E34" s="6">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34" s="6">
-        <v>36</v>
-      </c>
-      <c r="G34" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3246,21 +3349,23 @@
         <v>33</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="D35" s="6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E35" s="6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F35" s="6">
-        <v>12</v>
-      </c>
-      <c r="G35" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3268,21 +3373,23 @@
         <v>34</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>17</v>
+        <v>54</v>
       </c>
       <c r="D36" s="6">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E36" s="6">
-        <v>3</v>
+        <v>0.5</v>
       </c>
       <c r="F36" s="6">
-        <v>15</v>
-      </c>
-      <c r="G36" s="6"/>
+        <v>10</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3290,21 +3397,23 @@
         <v>35</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>37</v>
+        <v>55</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D37" s="6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E37" s="6">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F37" s="6">
-        <v>30</v>
-      </c>
-      <c r="G37" s="6"/>
+        <v>36</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3312,21 +3421,23 @@
         <v>36</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>17</v>
+        <v>57</v>
       </c>
       <c r="D38" s="6">
         <v>2</v>
       </c>
       <c r="E38" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F38" s="6">
-        <v>10</v>
-      </c>
-      <c r="G38" s="6"/>
+        <v>12</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3334,21 +3445,23 @@
         <v>37</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E39" s="6">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="F39" s="6">
-        <v>20</v>
-      </c>
-      <c r="G39" s="6"/>
+        <v>15</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3356,21 +3469,23 @@
         <v>38</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>61</v>
+        <v>22</v>
       </c>
       <c r="D40" s="6">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E40" s="6">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="F40" s="6">
-        <v>40</v>
-      </c>
-      <c r="G40" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3378,22 +3493,22 @@
         <v>39</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D41" s="6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="6">
-        <v>520</v>
+        <v>5</v>
       </c>
       <c r="F41" s="6">
-        <v>520</v>
-      </c>
-      <c r="G41" s="23" t="s">
-        <v>226</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>465</v>
       </c>
       <c r="H41" s="6"/>
     </row>
@@ -3402,21 +3517,23 @@
         <v>40</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>64</v>
+        <v>17</v>
       </c>
       <c r="D42" s="6">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="E42" s="6">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F42" s="6">
-        <v>100</v>
-      </c>
-      <c r="G42" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="G42" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3424,43 +3541,47 @@
         <v>41</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>31</v>
+        <v>61</v>
       </c>
       <c r="D43" s="6">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E43" s="6">
-        <v>0.01</v>
+        <v>40</v>
       </c>
       <c r="F43" s="6">
-        <v>200</v>
-      </c>
-      <c r="G43" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" ht="20.100000000000001" customHeight="1">
+    <row r="44" spans="1:8">
       <c r="A44" s="6">
         <v>42</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="D44" s="6">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="E44" s="6">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F44" s="6">
-        <v>20</v>
-      </c>
-      <c r="G44" s="6"/>
+        <v>100</v>
+      </c>
+      <c r="G44" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3468,17 +3589,23 @@
         <v>43</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D45" s="6">
+        <v>100</v>
+      </c>
       <c r="E45" s="6">
-        <v>100</v>
+        <v>0.01</v>
       </c>
       <c r="F45" s="6">
-        <v>100</v>
-      </c>
-      <c r="G45" s="6"/>
+        <v>200</v>
+      </c>
+      <c r="G45" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" ht="20.100000000000001" customHeight="1">
@@ -3486,102 +3613,135 @@
         <v>44</v>
       </c>
       <c r="B46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="6">
+        <v>2</v>
+      </c>
+      <c r="E46" s="6">
+        <v>10</v>
+      </c>
+      <c r="F46" s="6">
+        <v>20</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H46" s="6"/>
+    </row>
+    <row r="47" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A47" s="6">
+        <v>45</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6">
+        <v>100</v>
+      </c>
+      <c r="F47" s="6">
+        <v>100</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H47" s="6"/>
+    </row>
+    <row r="48" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A48" s="6">
+        <v>46</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6">
+        <v>1100</v>
+      </c>
+      <c r="F48" s="6">
+        <v>1100</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H48" s="6"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A49" s="6">
+        <v>47</v>
+      </c>
+      <c r="B49" s="66" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6">
-        <v>900</v>
-      </c>
-      <c r="F46" s="6">
-        <v>900</v>
-      </c>
-      <c r="G46" s="6"/>
-      <c r="H46" s="6"/>
-    </row>
-    <row r="47" spans="1:8" s="8" customFormat="1" ht="18.95" customHeight="1">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="C49" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D49" s="66">
         <v>4</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E49" s="66">
         <v>30</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F49" s="66">
         <v>120</v>
       </c>
-      <c r="G47" s="2"/>
-      <c r="H47" s="2"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="10">
-        <v>46</v>
-      </c>
-      <c r="B48" s="10" t="s">
+      <c r="G49" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H49" s="66"/>
+    </row>
+    <row r="50" spans="1:8" s="8" customFormat="1" ht="18.95" customHeight="1">
+      <c r="A50" s="6">
+        <v>48</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="10" t="s">
         <v>132</v>
       </c>
-      <c r="C48" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D48" s="10">
+      <c r="D50" s="10">
         <v>5</v>
       </c>
-      <c r="E48" s="10">
+      <c r="E50" s="10">
         <v>10</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F50" s="66">
         <v>50</v>
       </c>
-      <c r="G48" s="2"/>
-      <c r="H48" s="4"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="B49" s="67"/>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="68">
-        <f>SUM(F3:F48)</f>
-        <v>4678</v>
-      </c>
-      <c r="G49" s="69"/>
-      <c r="H49" s="70"/>
-    </row>
-    <row r="50" spans="1:8">
-      <c r="A50" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="B50" s="67"/>
-      <c r="C50" s="67"/>
-      <c r="D50" s="67"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="71">
-        <v>520</v>
-      </c>
-      <c r="G50" s="72"/>
-      <c r="H50" s="73"/>
+      <c r="G50" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="H50" s="4"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="65" t="s">
+        <v>371</v>
+      </c>
+      <c r="B51" s="66"/>
+      <c r="C51" s="66"/>
+      <c r="D51" s="66"/>
+      <c r="E51" s="66"/>
+      <c r="F51" s="71">
+        <f>SUM(F3:F50)</f>
+        <v>4562</v>
+      </c>
+      <c r="G51" s="72"/>
+      <c r="H51" s="73"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H49">
+  <autoFilter ref="A2:H51">
     <filterColumn colId="6"/>
   </autoFilter>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A49:E49"/>
-    <mergeCell ref="A50:E50"/>
-    <mergeCell ref="F49:H49"/>
-    <mergeCell ref="F50:H50"/>
+    <mergeCell ref="F51:H51"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -3595,7 +3755,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3605,25 +3765,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="67" t="s">
-        <v>360</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
+      <c r="A1" s="70" t="s">
+        <v>358</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="D2" s="11" t="s">
         <v>347</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>348</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3631,10 +3791,10 @@
         <v>42583</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D3" s="11">
         <v>100000</v>
@@ -3645,10 +3805,10 @@
         <v>42583</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="D4" s="11">
         <v>120000</v>
@@ -3660,10 +3820,10 @@
         <v>42583</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>351</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>353</v>
       </c>
       <c r="D5" s="11">
         <v>200000</v>
@@ -3675,10 +3835,10 @@
         <v>42583</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D6" s="11">
         <v>60000</v>
@@ -3690,7 +3850,7 @@
         <v>42750</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C7" s="11"/>
       <c r="D7" s="11">
@@ -3703,7 +3863,7 @@
         <v>42781</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11">
@@ -3712,11 +3872,11 @@
       <c r="F8" s="34"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="81" t="s">
-        <v>373</v>
-      </c>
-      <c r="B9" s="69"/>
-      <c r="C9" s="70"/>
+      <c r="A9" s="84" t="s">
+        <v>371</v>
+      </c>
+      <c r="B9" s="72"/>
+      <c r="C9" s="73"/>
       <c r="D9" s="4">
         <f>SUM(D3:D8)</f>
         <v>561830</v>
@@ -3748,13 +3908,13 @@
     </row>
     <row r="14" spans="1:6" ht="18" customHeight="1">
       <c r="A14" s="46" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B14" s="64" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D14" s="31">
         <v>409515</v>
@@ -3762,7 +3922,7 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="46" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B16" s="4">
         <v>466338</v>
@@ -3772,7 +3932,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="46" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B17" s="4">
         <v>82152.149999999994</v>
@@ -3782,7 +3942,7 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="49" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B18" s="4">
         <v>12397</v>
@@ -3792,7 +3952,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="49" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B19" s="4">
         <v>113112</v>
@@ -3802,7 +3962,7 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="49" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B20" s="4">
         <v>16476</v>
@@ -3812,7 +3972,7 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="49" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B21" s="4">
         <v>319696.8</v>
@@ -3822,7 +3982,7 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="49" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B22" s="4">
         <f>SUM(B16:B21)</f>
@@ -3843,16 +4003,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="5.25" customWidth="1"/>
-    <col min="2" max="2" width="19.125" customWidth="1"/>
+    <col min="1" max="1" width="9.5" customWidth="1"/>
+    <col min="2" max="2" width="26.25" customWidth="1"/>
     <col min="3" max="3" width="9.375" customWidth="1"/>
     <col min="4" max="4" width="9.875" customWidth="1"/>
     <col min="5" max="5" width="10.625" customWidth="1"/>
@@ -3862,16 +4022,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="74" t="s">
-        <v>355</v>
-      </c>
-      <c r="B1" s="74"/>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="H1" s="74"/>
+      <c r="A1" s="77" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="77"/>
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -3893,7 +4053,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -3904,10 +4064,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>70</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>71</v>
       </c>
       <c r="D3" s="6">
         <v>23</v>
@@ -3920,10 +4080,10 @@
         <v>4600</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>449</v>
+        <v>446</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>468</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
@@ -3931,10 +4091,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>72</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>73</v>
       </c>
       <c r="D4" s="6">
         <v>38</v>
@@ -3947,19 +4107,19 @@
         <v>10260</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H4" s="76"/>
+        <v>446</v>
+      </c>
+      <c r="H4" s="79"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="6">
         <v>24</v>
@@ -3972,19 +4132,19 @@
         <v>2880</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H5" s="76"/>
+        <v>446</v>
+      </c>
+      <c r="H5" s="79"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="6">
         <v>73</v>
@@ -3997,16 +4157,16 @@
         <v>8760</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H6" s="77"/>
+        <v>446</v>
+      </c>
+      <c r="H6" s="80"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>19</v>
@@ -4022,7 +4182,7 @@
         <v>19703</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -4031,7 +4191,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
@@ -4047,7 +4207,7 @@
         <v>330</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -4056,7 +4216,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>19</v>
@@ -4072,7 +4232,7 @@
         <v>85</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -4081,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>19</v>
@@ -4097,7 +4257,7 @@
         <v>7480</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -4106,7 +4266,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>25</v>
@@ -4122,7 +4282,7 @@
         <v>3150</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -4131,7 +4291,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>57</v>
@@ -4147,7 +4307,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -4156,7 +4316,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -4165,7 +4325,7 @@
         <v>440</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -4174,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -4183,10 +4343,10 @@
         <v>24000</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="H14" s="50" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
@@ -4194,7 +4354,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -4203,10 +4363,10 @@
         <v>9000</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="30" customHeight="1">
@@ -4214,10 +4374,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D16" s="6">
         <v>34</v>
@@ -4227,7 +4387,7 @@
         <v>11440</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -4236,10 +4396,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -4251,7 +4411,7 @@
         <v>2000</v>
       </c>
       <c r="G17" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -4260,7 +4420,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -4269,10 +4429,10 @@
         <v>68000</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="30" customHeight="1">
@@ -4280,10 +4440,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D19" s="6">
         <v>1500</v>
@@ -4295,10 +4455,10 @@
         <v>31890</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="30" customHeight="1">
@@ -4306,7 +4466,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -4315,10 +4475,10 @@
         <v>20015</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J20" s="9"/>
     </row>
@@ -4327,10 +4487,10 @@
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D21" s="6">
         <v>606</v>
@@ -4341,11 +4501,11 @@
       <c r="F21" s="6">
         <v>11271.6</v>
       </c>
-      <c r="G21" s="78" t="s">
-        <v>454</v>
-      </c>
-      <c r="H21" s="75" t="s">
-        <v>455</v>
+      <c r="G21" s="81" t="s">
+        <v>451</v>
+      </c>
+      <c r="H21" s="78" t="s">
+        <v>452</v>
       </c>
       <c r="J21" s="9"/>
     </row>
@@ -4354,10 +4514,10 @@
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D22" s="6">
         <v>2666</v>
@@ -4368,8 +4528,8 @@
       <c r="F22" s="6">
         <v>27993</v>
       </c>
-      <c r="G22" s="76"/>
-      <c r="H22" s="76"/>
+      <c r="G22" s="79"/>
+      <c r="H22" s="79"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1">
@@ -4377,10 +4537,10 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D23" s="6">
         <v>85</v>
@@ -4391,8 +4551,8 @@
       <c r="F23" s="6">
         <v>1700</v>
       </c>
-      <c r="G23" s="76"/>
-      <c r="H23" s="76"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="79"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
@@ -4400,10 +4560,10 @@
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D24" s="6">
         <v>70</v>
@@ -4414,8 +4574,8 @@
       <c r="F24" s="6">
         <v>665</v>
       </c>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="79"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
@@ -4423,10 +4583,10 @@
         <v>23</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D25" s="6">
         <v>467</v>
@@ -4437,8 +4597,8 @@
       <c r="F25" s="6">
         <v>1167.5</v>
       </c>
-      <c r="G25" s="76"/>
-      <c r="H25" s="76"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="79"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
@@ -4446,10 +4606,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D26" s="6">
         <v>1346</v>
@@ -4460,8 +4620,8 @@
       <c r="F26" s="6">
         <v>4038</v>
       </c>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="79"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1">
@@ -4469,10 +4629,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D27" s="6">
         <v>90</v>
@@ -4483,8 +4643,8 @@
       <c r="F27" s="6">
         <v>2700</v>
       </c>
-      <c r="G27" s="76"/>
-      <c r="H27" s="76"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1">
@@ -4492,10 +4652,10 @@
         <v>26</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D28" s="6">
         <v>240</v>
@@ -4506,8 +4666,8 @@
       <c r="F28" s="6">
         <v>720</v>
       </c>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="79"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1">
@@ -4515,10 +4675,10 @@
         <v>27</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D29" s="6">
         <v>72</v>
@@ -4529,8 +4689,8 @@
       <c r="F29" s="6">
         <v>684</v>
       </c>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="79"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1">
@@ -4538,10 +4698,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D30" s="6">
         <v>1420</v>
@@ -4552,8 +4712,8 @@
       <c r="F30" s="6">
         <v>2272</v>
       </c>
-      <c r="G30" s="77"/>
-      <c r="H30" s="77"/>
+      <c r="G30" s="80"/>
+      <c r="H30" s="80"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1">
@@ -4561,10 +4721,10 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D31" s="2">
         <v>60</v>
@@ -4576,84 +4736,120 @@
         <v>1320</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="30" customHeight="1">
       <c r="A32" s="6">
         <v>30</v>
       </c>
-      <c r="B32" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="C32" s="2" t="s">
+      <c r="B32" s="66" t="s">
+        <v>462</v>
+      </c>
+      <c r="C32" s="66"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="66"/>
+      <c r="F32" s="66">
+        <v>5000</v>
+      </c>
+      <c r="G32" s="66" t="s">
+        <v>464</v>
+      </c>
+      <c r="H32" s="66"/>
+    </row>
+    <row r="33" spans="1:8" ht="30" customHeight="1">
+      <c r="A33" s="6">
+        <v>31</v>
+      </c>
+      <c r="B33" s="66" t="s">
+        <v>460</v>
+      </c>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66">
+        <v>2000</v>
+      </c>
+      <c r="G33" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="H33" s="66"/>
+    </row>
+    <row r="34" spans="1:8" ht="30" customHeight="1">
+      <c r="A34" s="6">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="2">
+      <c r="D34" s="2">
         <v>35</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E34" s="2">
         <v>1</v>
       </c>
-      <c r="F32" s="2">
+      <c r="F34" s="2">
         <v>35</v>
       </c>
-      <c r="G32" s="22" t="s">
-        <v>226</v>
-      </c>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="68">
-        <f>SUM(F3:F32)</f>
-        <v>278799.09999999998</v>
-      </c>
-      <c r="G33" s="69"/>
-      <c r="H33" s="70"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="B34" s="67"/>
-      <c r="C34" s="67"/>
-      <c r="D34" s="67"/>
-      <c r="E34" s="67"/>
-      <c r="F34" s="71">
+      <c r="G34" s="22" t="s">
+        <v>224</v>
+      </c>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="B35" s="70"/>
+      <c r="C35" s="70"/>
+      <c r="D35" s="70"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="71">
+        <f>SUM(F3:F34)</f>
+        <v>285799.09999999998</v>
+      </c>
+      <c r="G35" s="72"/>
+      <c r="H35" s="73"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="74">
         <v>39369</v>
       </c>
-      <c r="G34" s="72"/>
-      <c r="H34" s="73"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="79"/>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="47"/>
+      <c r="G36" s="75"/>
+      <c r="H36" s="76"/>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="82"/>
+      <c r="B37" s="83"/>
+      <c r="C37" s="83"/>
+      <c r="D37" s="83"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="47"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H34"/>
+  <autoFilter ref="A2:H36"/>
   <mergeCells count="9">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H21:H30"/>
     <mergeCell ref="G21:G30"/>
-    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="A37:E37"/>
     <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A33:E33"/>
-    <mergeCell ref="F33:H33"/>
-    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F35:H35"/>
+    <mergeCell ref="F36:H36"/>
     <mergeCell ref="H3:H6"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -4665,10 +4861,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4683,16 +4879,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>222</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
+      <c r="A1" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4714,7 +4910,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>6</v>
@@ -4725,10 +4921,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D3" s="6">
         <v>12</v>
@@ -4739,11 +4935,11 @@
       <c r="F3" s="6">
         <v>360</v>
       </c>
-      <c r="G3" s="78" t="s">
-        <v>226</v>
-      </c>
-      <c r="H3" s="75" t="s">
-        <v>231</v>
+      <c r="G3" s="81" t="s">
+        <v>224</v>
+      </c>
+      <c r="H3" s="78" t="s">
+        <v>229</v>
       </c>
       <c r="J3" s="9"/>
     </row>
@@ -4752,10 +4948,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D4" s="6">
         <v>9</v>
@@ -4766,8 +4962,8 @@
       <c r="F4" s="6">
         <v>1800</v>
       </c>
-      <c r="G4" s="76"/>
-      <c r="H4" s="76"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
@@ -4775,10 +4971,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D5" s="6">
         <v>2950</v>
@@ -4789,8 +4985,8 @@
       <c r="F5" s="6">
         <v>11800</v>
       </c>
-      <c r="G5" s="76"/>
-      <c r="H5" s="76"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
@@ -4798,10 +4994,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D6" s="6">
         <v>14875</v>
@@ -4812,8 +5008,8 @@
       <c r="F6" s="6">
         <v>11900</v>
       </c>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
@@ -4821,7 +5017,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
@@ -4830,19 +5026,21 @@
         <v>22800</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H7" s="6"/>
+        <v>446</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1">
-      <c r="A8" s="6">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D8" s="6">
         <v>1370.83</v>
@@ -4854,19 +5052,21 @@
         <v>21933.279999999999</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="H8" s="6"/>
+        <v>446</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>470</v>
+      </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
-      <c r="A9" s="6">
+      <c r="A9" s="5">
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>141</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>142</v>
       </c>
       <c r="D9" s="6">
         <v>1815.18</v>
@@ -4878,19 +5078,19 @@
         <v>5445.54</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H9" s="6"/>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1">
-      <c r="A10" s="6">
+      <c r="A10" s="5">
         <v>8</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="6">
         <v>311.75</v>
@@ -4902,19 +5102,19 @@
         <v>6235</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H10" s="6"/>
     </row>
     <row r="11" spans="1:10" ht="30" customHeight="1">
-      <c r="A11" s="6">
+      <c r="A11" s="5">
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D11" s="6">
         <v>7</v>
@@ -4924,19 +5124,19 @@
         <v>1000</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H11" s="6"/>
     </row>
     <row r="12" spans="1:10" ht="30" customHeight="1">
-      <c r="A12" s="6">
+      <c r="A12" s="5">
         <v>10</v>
       </c>
       <c r="B12" s="6" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>143</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>144</v>
       </c>
       <c r="D12" s="6">
         <v>60</v>
@@ -4948,19 +5148,19 @@
         <v>2400</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H12" s="6"/>
     </row>
     <row r="13" spans="1:10" ht="30" customHeight="1">
-      <c r="A13" s="6">
+      <c r="A13" s="5">
         <v>11</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13" s="6">
         <v>1362</v>
@@ -4972,21 +5172,21 @@
         <v>17706</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
-      <c r="A14" s="6">
+      <c r="A14" s="5">
         <v>12</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D14" s="6">
         <v>1460</v>
@@ -4998,18 +5198,18 @@
         <v>24160</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1">
-      <c r="A15" s="6">
+      <c r="A15" s="5">
         <v>13</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
@@ -5018,16 +5218,16 @@
         <v>3000</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:10" ht="30" customHeight="1">
-      <c r="A16" s="6">
+      <c r="A16" s="5">
         <v>14</v>
       </c>
       <c r="B16" s="50" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
@@ -5036,21 +5236,21 @@
         <v>6300</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
-      <c r="A17" s="6">
+      <c r="A17" s="5">
         <v>15</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D17" s="6"/>
       <c r="E17" s="6"/>
@@ -5058,18 +5258,18 @@
         <v>6000</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="30" customHeight="1">
-      <c r="A18" s="6">
+      <c r="A18" s="5">
         <v>16</v>
       </c>
       <c r="B18" s="23" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
@@ -5078,18 +5278,18 @@
         <v>5000</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="H18" s="50" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="30" customHeight="1">
-      <c r="A19" s="6">
+      <c r="A19" s="5">
         <v>17</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
@@ -5098,18 +5298,18 @@
         <v>2000</v>
       </c>
       <c r="G19" s="23" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" customHeight="1">
-      <c r="A20" s="6">
+      <c r="A20" s="5">
         <v>18</v>
       </c>
       <c r="B20" s="50" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
@@ -5118,18 +5318,18 @@
         <v>17957</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>460</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
-      <c r="A21" s="6">
+      <c r="A21" s="5">
         <v>19</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
@@ -5138,21 +5338,21 @@
         <v>1394</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H21" s="50" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" customHeight="1">
-      <c r="A22" s="6">
+      <c r="A22" s="5">
         <v>20</v>
       </c>
       <c r="B22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C22" s="6" t="s">
         <v>105</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>106</v>
       </c>
       <c r="D22" s="6">
         <v>133</v>
@@ -5162,16 +5362,16 @@
         <v>530</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" ht="30" customHeight="1">
-      <c r="A23" s="6">
+      <c r="A23" s="5">
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>47</v>
@@ -5182,16 +5382,16 @@
         <v>4500</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" ht="30" customHeight="1">
-      <c r="A24" s="6">
+      <c r="A24" s="5">
         <v>22</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
@@ -5200,19 +5400,19 @@
         <v>2700</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" ht="30" customHeight="1">
-      <c r="A25" s="6">
+      <c r="A25" s="5">
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="2">
         <v>2</v>
@@ -5223,17 +5423,17 @@
       <c r="F25" s="37">
         <v>240</v>
       </c>
-      <c r="G25" s="37"/>
-      <c r="H25" s="63" t="s">
-        <v>461</v>
-      </c>
+      <c r="G25" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="H25" s="63"/>
     </row>
     <row r="26" spans="1:8" ht="30" customHeight="1">
-      <c r="A26" s="6">
+      <c r="A26" s="5">
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -5242,16 +5442,16 @@
         <v>2000</v>
       </c>
       <c r="G26" s="37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H26" s="37"/>
     </row>
     <row r="27" spans="1:8" ht="30" customHeight="1">
-      <c r="A27" s="6">
+      <c r="A27" s="5">
         <v>25</v>
       </c>
       <c r="B27" s="51" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -5260,21 +5460,21 @@
         <v>2000</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H27" s="37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="30" customHeight="1">
-      <c r="A28" s="6">
+      <c r="A28" s="5">
         <v>26</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D28" s="2">
         <v>1</v>
@@ -5286,66 +5486,102 @@
         <v>3000</v>
       </c>
       <c r="G28" s="37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H28" s="37"/>
     </row>
-    <row r="29" spans="1:8" s="8" customFormat="1" ht="14.25">
-      <c r="A29" s="38">
+    <row r="29" spans="1:8" ht="30" customHeight="1">
+      <c r="A29" s="5">
         <v>27</v>
       </c>
-      <c r="B29" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38">
+      <c r="B29" s="65" t="s">
+        <v>461</v>
+      </c>
+      <c r="C29" s="65"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="66"/>
+      <c r="F29" s="66">
+        <v>700</v>
+      </c>
+      <c r="G29" s="66"/>
+      <c r="H29" s="66"/>
+    </row>
+    <row r="30" spans="1:8" ht="30" customHeight="1">
+      <c r="A30" s="5">
+        <v>28</v>
+      </c>
+      <c r="B30" s="65" t="s">
+        <v>466</v>
+      </c>
+      <c r="C30" s="65"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="66"/>
+      <c r="F30" s="66">
+        <v>20000</v>
+      </c>
+      <c r="G30" s="66" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30" s="66" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="8" customFormat="1" ht="14.25">
+      <c r="A31" s="5">
+        <v>29</v>
+      </c>
+      <c r="B31" s="38" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38">
         <v>5000</v>
       </c>
-      <c r="G29" s="62" t="s">
-        <v>226</v>
-      </c>
-      <c r="H29" s="38"/>
-    </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="B30" s="67"/>
-      <c r="C30" s="67"/>
-      <c r="D30" s="67"/>
-      <c r="E30" s="67"/>
-      <c r="F30" s="67">
-        <f>SUM(F3:F29)</f>
-        <v>189160.82</v>
-      </c>
-      <c r="G30" s="67"/>
-      <c r="H30" s="67"/>
-    </row>
-    <row r="31" spans="1:8" ht="29.25" customHeight="1">
-      <c r="A31" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="B31" s="67"/>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67">
+      <c r="G31" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="H31" s="38"/>
+    </row>
+    <row r="32" spans="1:8" ht="30" customHeight="1">
+      <c r="A32" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70">
+        <f>SUM(F3:F31)</f>
+        <v>209860.82</v>
+      </c>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+    </row>
+    <row r="33" spans="1:8" ht="29.25" customHeight="1">
+      <c r="A33" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="B33" s="70"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="70">
         <v>44860</v>
       </c>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="F31:H31"/>
+    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="F33:H33"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H3:H6"/>
     <mergeCell ref="G3:G6"/>
-    <mergeCell ref="A30:E30"/>
-    <mergeCell ref="F30:H30"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="F32:H32"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -5358,8 +5594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5372,14 +5608,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A1" s="65" t="s">
-        <v>356</v>
-      </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="A1" s="68" t="s">
+        <v>354</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -5391,13 +5627,13 @@
         <v>1</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>6</v>
@@ -5408,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C3" s="3">
         <v>42560</v>
@@ -5424,7 +5660,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="3">
         <v>42564</v>
@@ -5440,7 +5676,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="3">
         <v>42564</v>
@@ -5456,7 +5692,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C6" s="3">
         <v>42575</v>
@@ -5472,7 +5708,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="2">
@@ -5480,7 +5716,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="36" customHeight="1">
@@ -5488,7 +5724,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="18">
@@ -5496,7 +5732,7 @@
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="36" customHeight="1">
@@ -5504,7 +5740,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -5512,7 +5748,7 @@
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="36" customHeight="1">
@@ -5520,7 +5756,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -5528,7 +5764,7 @@
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="36" customHeight="1">
@@ -5536,7 +5772,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -5544,7 +5780,7 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="36" customHeight="1">
@@ -5552,7 +5788,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C12" s="3">
         <v>42549</v>
@@ -5561,7 +5797,7 @@
         <v>2000</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F12" s="2"/>
     </row>
@@ -5570,7 +5806,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C13" s="3">
         <v>42559</v>
@@ -5579,16 +5815,18 @@
         <v>6000</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="F13" s="2"/>
+        <v>224</v>
+      </c>
+      <c r="F13" s="66" t="s">
+        <v>463</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1">
       <c r="A14" s="2">
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C14" s="3">
         <v>42563</v>
@@ -5597,7 +5835,7 @@
         <v>10000</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F14" s="2"/>
     </row>
@@ -5606,7 +5844,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C15" s="3">
         <v>42574</v>
@@ -5615,7 +5853,7 @@
         <v>4000</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F15" s="2"/>
     </row>
@@ -5624,7 +5862,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C16" s="3">
         <v>42602</v>
@@ -5633,7 +5871,7 @@
         <v>1400</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -5642,7 +5880,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C17" s="3">
         <v>42608</v>
@@ -5651,7 +5889,7 @@
         <v>500</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F17" s="2"/>
     </row>
@@ -5660,7 +5898,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C18" s="3">
         <v>42609</v>
@@ -5669,7 +5907,7 @@
         <v>500</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F18" s="2"/>
     </row>
@@ -5678,7 +5916,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C19" s="3">
         <v>42622</v>
@@ -5687,7 +5925,7 @@
         <v>200</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F19" s="2"/>
     </row>
@@ -5696,14 +5934,14 @@
         <v>18</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="10">
         <v>2000</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F20" s="4"/>
     </row>
@@ -5712,14 +5950,14 @@
         <v>19</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="10">
         <v>2000</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F21" s="4"/>
     </row>
@@ -5728,41 +5966,41 @@
         <v>20</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="10">
         <v>40000</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="B23" s="67"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67">
+      <c r="A23" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="B23" s="70"/>
+      <c r="C23" s="70"/>
+      <c r="D23" s="70">
         <f>SUM(D3:D22)</f>
         <v>92630</v>
       </c>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
+      <c r="E23" s="70"/>
+      <c r="F23" s="70"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="B24" s="69"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="68">
+      <c r="A24" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="73"/>
+      <c r="D24" s="71">
         <v>68600</v>
       </c>
-      <c r="E24" s="69"/>
-      <c r="F24" s="70"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="73"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F24">
@@ -5786,8 +6024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H103" sqref="H103"/>
+    <sheetView topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F99" sqref="F99:H99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5803,16 +6041,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="82" t="s">
-        <v>357</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="A1" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
@@ -5834,7 +6072,7 @@
         <v>5</v>
       </c>
       <c r="G2" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="H2" s="13" t="s">
         <v>6</v>
@@ -5845,7 +6083,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C3" s="15" t="s">
         <v>8</v>
@@ -5860,7 +6098,7 @@
         <v>900</v>
       </c>
       <c r="G3" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H3" s="15"/>
     </row>
@@ -5869,7 +6107,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C4" s="15" t="s">
         <v>8</v>
@@ -5884,7 +6122,7 @@
         <v>240</v>
       </c>
       <c r="G4" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H4" s="15"/>
     </row>
@@ -5893,10 +6131,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15"/>
@@ -5904,10 +6142,10 @@
         <v>450</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H5" s="15" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="14.25">
@@ -5915,7 +6153,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="15"/>
@@ -5924,7 +6162,7 @@
         <v>150</v>
       </c>
       <c r="G6" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H6" s="15"/>
     </row>
@@ -5933,7 +6171,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C7" s="41" t="s">
         <v>8</v>
@@ -5948,10 +6186,10 @@
         <v>3420</v>
       </c>
       <c r="G7" s="41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H7" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.25">
@@ -5959,7 +6197,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="15"/>
@@ -5968,10 +6206,10 @@
         <v>400</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="42" customFormat="1" ht="14.25">
@@ -5979,7 +6217,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>8</v>
@@ -5994,10 +6232,10 @@
         <v>5440</v>
       </c>
       <c r="G9" s="41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.25">
@@ -6005,10 +6243,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D10" s="15"/>
       <c r="E10" s="15"/>
@@ -6016,10 +6254,10 @@
         <v>580</v>
       </c>
       <c r="G10" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.25">
@@ -6027,7 +6265,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C11" s="15" t="s">
         <v>8</v>
@@ -6042,10 +6280,10 @@
         <v>2832</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.25">
@@ -6053,7 +6291,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>8</v>
@@ -6068,7 +6306,7 @@
         <v>850</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H12" s="15"/>
     </row>
@@ -6077,7 +6315,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C13" s="15" t="s">
         <v>8</v>
@@ -6092,7 +6330,7 @@
         <v>398</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -6101,7 +6339,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C14" s="15" t="s">
         <v>8</v>
@@ -6116,10 +6354,10 @@
         <v>1600</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H14" s="52" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
@@ -6127,7 +6365,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C15" s="15" t="s">
         <v>8</v>
@@ -6140,7 +6378,7 @@
         <v>391</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H15" s="15"/>
     </row>
@@ -6149,10 +6387,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="15" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -6160,7 +6398,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H16" s="15"/>
     </row>
@@ -6169,7 +6407,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C17" s="15" t="s">
         <v>8</v>
@@ -6184,7 +6422,7 @@
         <v>1500</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H17" s="15"/>
     </row>
@@ -6193,7 +6431,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="41" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C18" s="41" t="s">
         <v>8</v>
@@ -6208,7 +6446,7 @@
         <v>4099</v>
       </c>
       <c r="G18" s="41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H18" s="41"/>
     </row>
@@ -6217,7 +6455,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>8</v>
@@ -6232,7 +6470,7 @@
         <v>2799</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H19" s="15"/>
     </row>
@@ -6241,7 +6479,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="15" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
@@ -6250,10 +6488,10 @@
         <v>187</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.25">
@@ -6261,7 +6499,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="15" t="s">
         <v>8</v>
@@ -6276,7 +6514,7 @@
         <v>300</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H21" s="15"/>
     </row>
@@ -6300,7 +6538,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H22" s="15"/>
     </row>
@@ -6309,7 +6547,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C23" s="15" t="s">
         <v>28</v>
@@ -6324,7 +6562,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H23" s="15"/>
     </row>
@@ -6333,7 +6571,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C24" s="15" t="s">
         <v>8</v>
@@ -6348,7 +6586,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H24" s="15"/>
     </row>
@@ -6357,7 +6595,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>54</v>
@@ -6372,7 +6610,7 @@
         <v>120</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H25" s="15"/>
     </row>
@@ -6381,10 +6619,10 @@
         <v>24</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D26" s="15">
         <v>5</v>
@@ -6396,7 +6634,7 @@
         <v>10</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H26" s="15"/>
     </row>
@@ -6405,7 +6643,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="43" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C27" s="43" t="s">
         <v>8</v>
@@ -6420,7 +6658,7 @@
         <v>3800</v>
       </c>
       <c r="G27" s="41" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H27" s="41"/>
     </row>
@@ -6429,7 +6667,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="30" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C28" s="30" t="s">
         <v>8</v>
@@ -6444,7 +6682,7 @@
         <v>780</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H28" s="15"/>
     </row>
@@ -6453,7 +6691,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="30" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C29" s="30" t="s">
         <v>8</v>
@@ -6468,7 +6706,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H29" s="15"/>
     </row>
@@ -6477,7 +6715,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="30" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C30" s="30" t="s">
         <v>8</v>
@@ -6492,7 +6730,7 @@
         <v>170</v>
       </c>
       <c r="G30" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H30" s="15"/>
     </row>
@@ -6501,7 +6739,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="30" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C31" s="30" t="s">
         <v>19</v>
@@ -6516,7 +6754,7 @@
         <v>1170</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H31" s="15"/>
     </row>
@@ -6525,10 +6763,10 @@
         <v>30</v>
       </c>
       <c r="B32" s="30" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D32" s="30">
         <v>12</v>
@@ -6538,7 +6776,7 @@
         <v>1650</v>
       </c>
       <c r="G32" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H32" s="15"/>
     </row>
@@ -6547,7 +6785,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="30" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C33" s="30" t="s">
         <v>8</v>
@@ -6562,7 +6800,7 @@
         <v>60</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H33" s="15"/>
     </row>
@@ -6571,7 +6809,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="30" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C34" s="30" t="s">
         <v>12</v>
@@ -6586,7 +6824,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H34" s="15"/>
     </row>
@@ -6595,7 +6833,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="43" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C35" s="41"/>
       <c r="D35" s="41"/>
@@ -6604,10 +6842,10 @@
         <v>3877</v>
       </c>
       <c r="G35" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="36" spans="1:8" s="42" customFormat="1" ht="14.25">
@@ -6615,7 +6853,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="43" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C36" s="43" t="s">
         <v>8</v>
@@ -6630,7 +6868,7 @@
         <v>3200</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H36" s="41"/>
     </row>
@@ -6639,7 +6877,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="30" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C37" s="30" t="s">
         <v>8</v>
@@ -6654,7 +6892,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H37" s="15"/>
     </row>
@@ -6663,7 +6901,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="30" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C38" s="30" t="s">
         <v>8</v>
@@ -6678,7 +6916,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H38" s="15"/>
     </row>
@@ -6687,10 +6925,10 @@
         <v>37</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D39" s="30">
         <v>1</v>
@@ -6702,7 +6940,7 @@
         <v>420</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H39" s="15"/>
     </row>
@@ -6711,10 +6949,10 @@
         <v>38</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D40" s="30">
         <v>1</v>
@@ -6726,7 +6964,7 @@
         <v>1000</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H40" s="15"/>
     </row>
@@ -6735,7 +6973,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="30" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C41" s="30" t="s">
         <v>8</v>
@@ -6750,7 +6988,7 @@
         <v>2400</v>
       </c>
       <c r="G41" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H41" s="15"/>
     </row>
@@ -6759,7 +6997,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C42" s="30" t="s">
         <v>8</v>
@@ -6774,7 +7012,7 @@
         <v>178</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H42" s="15"/>
     </row>
@@ -6783,7 +7021,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="43" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C43" s="43" t="s">
         <v>8</v>
@@ -6798,7 +7036,7 @@
         <v>3700</v>
       </c>
       <c r="G43" s="43" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H43" s="41"/>
     </row>
@@ -6807,7 +7045,7 @@
         <v>42</v>
       </c>
       <c r="B44" s="30" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C44" s="30" t="s">
         <v>8</v>
@@ -6822,10 +7060,10 @@
         <v>60</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H44" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="14.25">
@@ -6833,10 +7071,10 @@
         <v>43</v>
       </c>
       <c r="B45" s="30" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D45" s="30">
         <v>4</v>
@@ -6848,10 +7086,10 @@
         <v>60</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H45" s="24" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="14.25">
@@ -6859,7 +7097,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="30" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C46" s="30" t="s">
         <v>8</v>
@@ -6874,7 +7112,7 @@
         <v>514</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H46" s="15"/>
     </row>
@@ -6883,7 +7121,7 @@
         <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C47" s="30"/>
       <c r="D47" s="30"/>
@@ -6894,7 +7132,7 @@
         <v>240</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H47" s="15"/>
     </row>
@@ -6903,7 +7141,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C48" s="30"/>
       <c r="D48" s="30"/>
@@ -6914,7 +7152,7 @@
         <v>1080</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H48" s="15"/>
     </row>
@@ -6923,10 +7161,10 @@
         <v>47</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C49" s="29" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D49" s="30">
         <v>1</v>
@@ -6938,7 +7176,7 @@
         <v>50</v>
       </c>
       <c r="G49" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H49" s="15"/>
     </row>
@@ -6947,10 +7185,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="29" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C50" s="29" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D50" s="30">
         <v>1</v>
@@ -6962,7 +7200,7 @@
         <v>2800</v>
       </c>
       <c r="G50" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H50" s="15"/>
     </row>
@@ -6971,7 +7209,7 @@
         <v>49</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C51" s="15" t="s">
         <v>17</v>
@@ -6986,7 +7224,7 @@
         <v>40</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H51" s="15"/>
     </row>
@@ -6995,10 +7233,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D52" s="15">
         <v>2</v>
@@ -7010,7 +7248,7 @@
         <v>80</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H52" s="15"/>
     </row>
@@ -7019,10 +7257,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D53" s="15">
         <v>2</v>
@@ -7034,7 +7272,7 @@
         <v>240</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H53" s="15"/>
     </row>
@@ -7043,10 +7281,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D54" s="15">
         <v>1</v>
@@ -7058,7 +7296,7 @@
         <v>60</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H54" s="15"/>
     </row>
@@ -7067,10 +7305,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C55" s="24" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D55" s="15">
         <v>4</v>
@@ -7082,7 +7320,7 @@
         <v>72</v>
       </c>
       <c r="G55" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H55" s="15"/>
     </row>
@@ -7091,10 +7329,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="24" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C56" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D56" s="15">
         <v>1</v>
@@ -7106,7 +7344,7 @@
         <v>260</v>
       </c>
       <c r="G56" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H56" s="15"/>
     </row>
@@ -7115,10 +7353,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C57" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D57" s="11">
         <v>1</v>
@@ -7130,7 +7368,7 @@
         <v>12</v>
       </c>
       <c r="G57" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H57" s="11"/>
     </row>
@@ -7139,10 +7377,10 @@
         <v>56</v>
       </c>
       <c r="B58" s="25" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C58" s="25" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D58" s="11">
         <v>2</v>
@@ -7154,7 +7392,7 @@
         <v>6</v>
       </c>
       <c r="G58" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H58" s="11"/>
     </row>
@@ -7163,10 +7401,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="25" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C59" s="25" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D59" s="11">
         <v>1</v>
@@ -7178,7 +7416,7 @@
         <v>22</v>
       </c>
       <c r="G59" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H59" s="11"/>
     </row>
@@ -7187,7 +7425,7 @@
         <v>58</v>
       </c>
       <c r="B60" s="25" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C60" s="11"/>
       <c r="D60" s="11"/>
@@ -7196,10 +7434,10 @@
         <v>218</v>
       </c>
       <c r="G60" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H60" s="25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="14.25">
@@ -7207,10 +7445,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D61" s="11">
         <v>1</v>
@@ -7222,7 +7460,7 @@
         <v>60</v>
       </c>
       <c r="G61" s="25" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H61" s="11"/>
     </row>
@@ -7231,10 +7469,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D62" s="11">
         <v>3</v>
@@ -7246,7 +7484,7 @@
         <v>276</v>
       </c>
       <c r="G62" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H62" s="11"/>
     </row>
@@ -7255,10 +7493,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="11" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C63" s="11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D63" s="11">
         <v>96</v>
@@ -7268,7 +7506,7 @@
         <v>1000</v>
       </c>
       <c r="G63" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H63" s="11"/>
     </row>
@@ -7277,10 +7515,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="44" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C64" s="44" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D64" s="44">
         <v>96</v>
@@ -7292,10 +7530,10 @@
         <v>16320</v>
       </c>
       <c r="G64" s="44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H64" s="44" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="14.25">
@@ -7303,10 +7541,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="11" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C65" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="11">
         <v>96</v>
@@ -7318,7 +7556,7 @@
         <v>1728</v>
       </c>
       <c r="G65" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H65" s="11"/>
     </row>
@@ -7327,10 +7565,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C66" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D66" s="11">
         <v>2</v>
@@ -7342,7 +7580,7 @@
         <v>31.2</v>
       </c>
       <c r="G66" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H66" s="11"/>
     </row>
@@ -7351,10 +7589,10 @@
         <v>65</v>
       </c>
       <c r="B67" s="11" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C67" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D67" s="11">
         <v>2</v>
@@ -7366,7 +7604,7 @@
         <v>21.6</v>
       </c>
       <c r="G67" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H67" s="11"/>
     </row>
@@ -7375,10 +7613,10 @@
         <v>66</v>
       </c>
       <c r="B68" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C68" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D68" s="11">
         <v>2</v>
@@ -7390,7 +7628,7 @@
         <v>240</v>
       </c>
       <c r="G68" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H68" s="11"/>
     </row>
@@ -7399,10 +7637,10 @@
         <v>67</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C69" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D69" s="31">
         <v>1</v>
@@ -7414,7 +7652,7 @@
         <v>90</v>
       </c>
       <c r="G69" s="31" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H69" s="11"/>
     </row>
@@ -7423,10 +7661,10 @@
         <v>68</v>
       </c>
       <c r="B70" s="11" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D70" s="11">
         <v>1</v>
@@ -7438,7 +7676,7 @@
         <v>120</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H70" s="11"/>
     </row>
@@ -7447,7 +7685,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C71" s="11"/>
       <c r="D71" s="11"/>
@@ -7456,10 +7694,10 @@
         <v>1048</v>
       </c>
       <c r="G71" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H71" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14.25">
@@ -7467,10 +7705,10 @@
         <v>70</v>
       </c>
       <c r="B72" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D72" s="11">
         <v>1</v>
@@ -7482,7 +7720,7 @@
         <v>200</v>
       </c>
       <c r="G72" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H72" s="11"/>
     </row>
@@ -7491,7 +7729,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C73" s="11"/>
       <c r="D73" s="11"/>
@@ -7500,10 +7738,10 @@
         <v>981</v>
       </c>
       <c r="G73" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H73" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="14.25">
@@ -7511,7 +7749,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="11" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C74" s="11"/>
       <c r="D74" s="11"/>
@@ -7520,10 +7758,10 @@
         <v>500</v>
       </c>
       <c r="G74" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H74" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="14.25">
@@ -7531,7 +7769,7 @@
         <v>73</v>
       </c>
       <c r="B75" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
@@ -7540,10 +7778,10 @@
         <v>853</v>
       </c>
       <c r="G75" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H75" s="11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="14.25">
@@ -7551,10 +7789,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="11" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D76" s="11">
         <v>2</v>
@@ -7566,7 +7804,7 @@
         <v>240</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H76" s="11"/>
     </row>
@@ -7575,10 +7813,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C77" s="11" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D77" s="11">
         <v>1</v>
@@ -7590,7 +7828,7 @@
         <v>38.4</v>
       </c>
       <c r="G77" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H77" s="11"/>
     </row>
@@ -7599,10 +7837,10 @@
         <v>76</v>
       </c>
       <c r="B78" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D78" s="11">
         <v>1</v>
@@ -7614,7 +7852,7 @@
         <v>109</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H78" s="11"/>
     </row>
@@ -7623,10 +7861,10 @@
         <v>77</v>
       </c>
       <c r="B79" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="D79" s="11">
         <v>50</v>
@@ -7638,7 +7876,7 @@
         <v>400</v>
       </c>
       <c r="G79" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H79" s="11"/>
     </row>
@@ -7647,10 +7885,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="11" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D80" s="11">
         <v>1</v>
@@ -7662,7 +7900,7 @@
         <v>40</v>
       </c>
       <c r="G80" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H80" s="11"/>
     </row>
@@ -7671,10 +7909,10 @@
         <v>79</v>
       </c>
       <c r="B81" s="45" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C81" s="45" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D81" s="45">
         <v>1</v>
@@ -7686,7 +7924,7 @@
         <v>220</v>
       </c>
       <c r="G81" s="45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H81" s="45"/>
     </row>
@@ -7695,10 +7933,10 @@
         <v>80</v>
       </c>
       <c r="B82" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D82" s="11">
         <v>2</v>
@@ -7710,7 +7948,7 @@
         <v>176</v>
       </c>
       <c r="G82" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H82" s="11"/>
     </row>
@@ -7719,10 +7957,10 @@
         <v>81</v>
       </c>
       <c r="B83" s="11" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C83" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D83" s="11">
         <v>1</v>
@@ -7734,7 +7972,7 @@
         <v>3</v>
       </c>
       <c r="G83" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H83" s="11"/>
     </row>
@@ -7743,10 +7981,10 @@
         <v>82</v>
       </c>
       <c r="B84" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="C84" s="11" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D84" s="11">
         <v>1</v>
@@ -7758,7 +7996,7 @@
         <v>55</v>
       </c>
       <c r="G84" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H84" s="11"/>
     </row>
@@ -7767,7 +8005,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="11" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C85" s="11"/>
       <c r="D85" s="11"/>
@@ -7776,10 +8014,10 @@
         <v>135.30000000000001</v>
       </c>
       <c r="G85" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H85" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="14.25">
@@ -7787,7 +8025,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="11" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C86" s="11"/>
       <c r="D86" s="11"/>
@@ -7796,10 +8034,10 @@
         <v>164.5</v>
       </c>
       <c r="G86" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H86" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="14.25">
@@ -7807,7 +8045,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="11" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
@@ -7818,7 +8056,7 @@
         <v>30.9</v>
       </c>
       <c r="G87" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H87" s="11"/>
     </row>
@@ -7827,7 +8065,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="11" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C88" s="11"/>
       <c r="D88" s="11"/>
@@ -7836,10 +8074,10 @@
         <v>55</v>
       </c>
       <c r="G88" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H88" s="11" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="14.25">
@@ -7847,10 +8085,10 @@
         <v>87</v>
       </c>
       <c r="B89" s="11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C89" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D89" s="11">
         <v>1000</v>
@@ -7862,7 +8100,7 @@
         <v>125</v>
       </c>
       <c r="G89" s="11" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="H89" s="11"/>
     </row>
@@ -7871,10 +8109,10 @@
         <v>88</v>
       </c>
       <c r="B90" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="D90" s="11">
         <v>50</v>
@@ -7886,7 +8124,7 @@
         <v>10</v>
       </c>
       <c r="G90" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H90" s="11"/>
     </row>
@@ -7895,10 +8133,10 @@
         <v>89</v>
       </c>
       <c r="B91" s="11" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D91" s="11">
         <v>1</v>
@@ -7910,7 +8148,7 @@
         <v>13</v>
       </c>
       <c r="G91" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H91" s="11"/>
     </row>
@@ -7919,10 +8157,10 @@
         <v>90</v>
       </c>
       <c r="B92" s="11" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="D92" s="11">
         <v>1</v>
@@ -7934,7 +8172,7 @@
         <v>12.25</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H92" s="11"/>
     </row>
@@ -7943,10 +8181,10 @@
         <v>91</v>
       </c>
       <c r="B93" s="11" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C93" s="11" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="D93" s="11">
         <v>2</v>
@@ -7958,7 +8196,7 @@
         <v>100</v>
       </c>
       <c r="G93" s="11" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="H93" s="11"/>
     </row>
@@ -7967,10 +8205,10 @@
         <v>92</v>
       </c>
       <c r="B94" s="11" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="D94" s="11">
         <v>2</v>
@@ -7982,7 +8220,7 @@
         <v>28</v>
       </c>
       <c r="G94" s="11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H94" s="11"/>
     </row>
@@ -7991,10 +8229,10 @@
         <v>93</v>
       </c>
       <c r="B95" s="11" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="C95" s="11" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D95" s="11">
         <v>1</v>
@@ -8006,7 +8244,7 @@
         <v>52</v>
       </c>
       <c r="G95" s="11" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="H95" s="11"/>
     </row>
@@ -8015,10 +8253,10 @@
         <v>94</v>
       </c>
       <c r="B96" s="11" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C96" s="11" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="D96" s="11">
         <v>1</v>
@@ -8030,7 +8268,7 @@
         <v>15</v>
       </c>
       <c r="G96" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H96" s="11"/>
     </row>
@@ -8039,10 +8277,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="11" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="C97" s="11" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D97" s="11">
         <v>1</v>
@@ -8054,48 +8292,62 @@
         <v>1400</v>
       </c>
       <c r="G97" s="11" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H97" s="11"/>
     </row>
-    <row r="98" spans="1:8">
-      <c r="A98" s="4"/>
-      <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
-      <c r="D98" s="4"/>
-      <c r="E98" s="4"/>
-      <c r="F98" s="4"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+    <row r="98" spans="1:8" ht="20.100000000000001" customHeight="1">
+      <c r="A98" s="93">
+        <v>96</v>
+      </c>
+      <c r="B98" s="93" t="s">
+        <v>62</v>
+      </c>
+      <c r="C98" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="D98" s="93">
+        <v>1</v>
+      </c>
+      <c r="E98" s="93">
+        <v>520</v>
+      </c>
+      <c r="F98" s="93">
+        <v>520</v>
+      </c>
+      <c r="G98" s="94" t="s">
+        <v>224</v>
+      </c>
+      <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="B99" s="67"/>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67">
+      <c r="A99" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="B99" s="70"/>
+      <c r="C99" s="70"/>
+      <c r="D99" s="70"/>
+      <c r="E99" s="70"/>
+      <c r="F99" s="70">
         <f>SUM(F3:F98)</f>
-        <v>82152.149999999994</v>
-      </c>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
+        <v>82672.149999999994</v>
+      </c>
+      <c r="G99" s="70"/>
+      <c r="H99" s="70"/>
     </row>
     <row r="100" spans="1:8">
-      <c r="A100" s="81" t="s">
-        <v>372</v>
-      </c>
-      <c r="B100" s="69"/>
-      <c r="C100" s="69"/>
-      <c r="D100" s="69"/>
-      <c r="E100" s="70"/>
-      <c r="F100" s="67">
-        <v>82152.149999999994</v>
-      </c>
-      <c r="G100" s="67"/>
-      <c r="H100" s="67"/>
+      <c r="A100" s="84" t="s">
+        <v>370</v>
+      </c>
+      <c r="B100" s="72"/>
+      <c r="C100" s="72"/>
+      <c r="D100" s="72"/>
+      <c r="E100" s="73"/>
+      <c r="F100" s="70">
+        <v>82672.149999999994</v>
+      </c>
+      <c r="G100" s="70"/>
+      <c r="H100" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H95">
@@ -8132,26 +8384,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="83" t="s">
-        <v>358</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="84"/>
+      <c r="A1" s="86" t="s">
+        <v>356</v>
+      </c>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="87"/>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="46" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E2" s="14" t="s">
         <v>6</v>
@@ -8162,16 +8414,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C3" s="15">
         <v>330</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="14.25">
@@ -8179,16 +8431,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C4" s="15">
         <v>987</v>
       </c>
       <c r="D4" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="14.25">
@@ -8196,16 +8448,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C5" s="15">
         <v>240</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="14.25">
@@ -8213,16 +8465,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C6" s="15">
         <v>700</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="14.25">
@@ -8230,16 +8482,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C7" s="15">
         <v>387</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="14.25">
@@ -8247,16 +8499,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C8" s="15">
         <v>240</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="14.25">
@@ -8264,16 +8516,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C9" s="15">
         <v>290</v>
       </c>
       <c r="D9" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
@@ -8281,16 +8533,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C10" s="15">
         <v>590</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25">
@@ -8298,16 +8550,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C11" s="15">
         <v>1300</v>
       </c>
       <c r="D11" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
@@ -8315,16 +8567,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C12" s="15">
         <v>938</v>
       </c>
       <c r="D12" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="28.5">
@@ -8332,16 +8584,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C13" s="15">
         <v>288</v>
       </c>
       <c r="D13" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E13" s="52" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="14.25">
@@ -8349,16 +8601,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C14" s="27">
         <v>3672</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="14.25">
@@ -8366,13 +8618,13 @@
         <v>13</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C15" s="27">
         <v>1360</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E15" s="27"/>
     </row>
@@ -8381,16 +8633,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="C16" s="27">
         <v>985</v>
       </c>
       <c r="D16" s="28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="7" customFormat="1" ht="14.25">
@@ -8398,40 +8650,40 @@
         <v>15</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C17" s="15">
         <v>90</v>
       </c>
       <c r="D17" s="24" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25">
-      <c r="A18" s="66" t="s">
-        <v>373</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="85">
+      <c r="A18" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="B18" s="70"/>
+      <c r="C18" s="88">
         <f>SUM(C3:C17)</f>
         <v>12397</v>
       </c>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="66" t="s">
-        <v>372</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67">
+      <c r="A19" s="69" t="s">
+        <v>370</v>
+      </c>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70">
         <v>12397</v>
       </c>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
+      <c r="D19" s="70"/>
+      <c r="E19" s="70"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E19">
@@ -8454,8 +8706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8466,33 +8718,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="81" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="70"/>
+      <c r="A1" s="84" t="s">
+        <v>249</v>
+      </c>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B2" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="D2" s="25" t="s">
         <v>242</v>
       </c>
-      <c r="C2" s="25" t="s">
-        <v>243</v>
-      </c>
-      <c r="D2" s="25" t="s">
+      <c r="E2" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="F2" s="25" t="s">
         <v>244</v>
-      </c>
-      <c r="E2" s="25" t="s">
-        <v>252</v>
-      </c>
-      <c r="F2" s="25" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -8500,16 +8752,16 @@
         <v>42658</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D3" s="11">
         <v>6000</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F3" s="11"/>
     </row>
@@ -8518,16 +8770,16 @@
         <v>42658</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D4" s="11">
         <v>2000</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F4" s="11"/>
     </row>
@@ -8544,16 +8796,16 @@
         <v>42689</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C6" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D6" s="11">
         <v>6000</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F6" s="11"/>
     </row>
@@ -8562,16 +8814,16 @@
         <v>42689</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C7" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D7" s="11">
         <v>2000</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F7" s="11"/>
     </row>
@@ -8580,16 +8832,16 @@
         <v>42689</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C8" s="25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D8" s="11">
         <v>1000</v>
       </c>
       <c r="E8" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F8" s="11"/>
     </row>
@@ -8606,16 +8858,16 @@
         <v>42719</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D10" s="11">
         <v>6000</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F10" s="11"/>
     </row>
@@ -8624,16 +8876,16 @@
         <v>42719</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D11" s="11">
         <v>2000</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F11" s="11"/>
     </row>
@@ -8642,16 +8894,16 @@
         <v>42719</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D12" s="11">
         <v>2100</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F12" s="11"/>
     </row>
@@ -8660,16 +8912,16 @@
         <v>42719</v>
       </c>
       <c r="B13" s="25" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C13" s="25" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D13" s="11">
         <v>1000</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F13" s="11"/>
     </row>
@@ -8678,16 +8930,16 @@
         <v>42719</v>
       </c>
       <c r="B14" s="25" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C14" s="25" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D14" s="11">
         <v>2000</v>
       </c>
       <c r="E14" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F14" s="11"/>
     </row>
@@ -8704,16 +8956,16 @@
         <v>42384</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D16" s="11">
         <v>6000</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F16" s="11"/>
       <c r="H16" s="34"/>
@@ -8723,19 +8975,19 @@
         <v>42384</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D17" s="11">
         <v>6000</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F17" s="32" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="H17" s="34"/>
     </row>
@@ -8744,19 +8996,19 @@
         <v>42384</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D18" s="11">
         <v>6000</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F18" s="32" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H18" s="34"/>
     </row>
@@ -8765,16 +9017,16 @@
         <v>42384</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D19" s="11">
         <v>2000</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F19" s="11"/>
       <c r="H19" s="34"/>
@@ -8784,16 +9036,16 @@
         <v>42384</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D20" s="11">
         <v>2000</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F20" s="11"/>
       <c r="H20" s="34"/>
@@ -8803,16 +9055,16 @@
         <v>42384</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D21" s="11">
         <v>2000</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F21" s="11"/>
       <c r="H21" s="34"/>
@@ -8822,19 +9074,19 @@
         <v>42384</v>
       </c>
       <c r="B22" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D22" s="11">
         <v>4400</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F22" s="48" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="H22" s="34"/>
     </row>
@@ -8843,19 +9095,19 @@
         <v>42384</v>
       </c>
       <c r="B23" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D23" s="11">
         <v>4617</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H23" s="34"/>
     </row>
@@ -8864,19 +9116,19 @@
         <v>42384</v>
       </c>
       <c r="B24" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D24" s="11">
         <v>7630</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F24" s="32" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H24" s="34"/>
     </row>
@@ -8885,16 +9137,16 @@
         <v>42384</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D25" s="11">
         <v>2000</v>
       </c>
       <c r="E25" s="25" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F25" s="11"/>
       <c r="H25" s="34"/>
@@ -8904,16 +9156,16 @@
         <v>42384</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D26" s="11">
         <v>2000</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F26" s="11"/>
       <c r="H26" s="34"/>
@@ -8923,19 +9175,19 @@
         <v>42384</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C27" s="11" t="s">
         <v>331</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>333</v>
       </c>
       <c r="D27" s="11">
         <v>2060</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F27" s="25" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="H27" s="34"/>
     </row>
@@ -8944,19 +9196,19 @@
         <v>42384</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="D28" s="11">
         <v>2240</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F28" s="25" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="H28" s="34"/>
     </row>
@@ -8965,19 +9217,19 @@
         <v>42384</v>
       </c>
       <c r="B29" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D29" s="11">
         <v>2360</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F29" s="25" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="H29" s="34"/>
     </row>
@@ -8986,19 +9238,19 @@
         <v>42384</v>
       </c>
       <c r="B30" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D30" s="11">
         <v>2105</v>
       </c>
       <c r="E30" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="H30" s="34"/>
     </row>
@@ -9016,16 +9268,16 @@
         <v>42415</v>
       </c>
       <c r="B32" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D32" s="11">
         <v>6000</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F32" s="4"/>
       <c r="H32" s="7"/>
@@ -9035,16 +9287,16 @@
         <v>42415</v>
       </c>
       <c r="B33" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D33" s="11">
         <v>2000</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F33" s="4"/>
     </row>
@@ -9053,16 +9305,16 @@
         <v>42415</v>
       </c>
       <c r="B34" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D34" s="11">
         <v>2000</v>
       </c>
       <c r="E34" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F34" s="11"/>
     </row>
@@ -9071,16 +9323,16 @@
         <v>42415</v>
       </c>
       <c r="B35" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D35" s="11">
         <v>2000</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F35" s="11"/>
     </row>
@@ -9089,16 +9341,16 @@
         <v>42415</v>
       </c>
       <c r="B36" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D36" s="11">
         <v>1800</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F36" s="11"/>
     </row>
@@ -9107,16 +9359,16 @@
         <v>42415</v>
       </c>
       <c r="B37" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="D37" s="11">
         <v>1000</v>
       </c>
       <c r="E37" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F37" s="11"/>
     </row>
@@ -9133,16 +9385,16 @@
         <v>42444</v>
       </c>
       <c r="B39" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D39" s="11">
         <v>6000</v>
       </c>
       <c r="E39" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F39" s="4"/>
     </row>
@@ -9151,16 +9403,16 @@
         <v>42444</v>
       </c>
       <c r="B40" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>331</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>333</v>
       </c>
       <c r="D40" s="11">
         <v>2000</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F40" s="4"/>
     </row>
@@ -9169,16 +9421,16 @@
         <v>42444</v>
       </c>
       <c r="B41" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D41" s="11">
         <v>2000</v>
       </c>
       <c r="E41" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F41" s="11"/>
     </row>
@@ -9187,16 +9439,16 @@
         <v>42444</v>
       </c>
       <c r="B42" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D42" s="11">
         <v>2000</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F42" s="11"/>
     </row>
@@ -9205,16 +9457,16 @@
         <v>42444</v>
       </c>
       <c r="B43" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C43" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D43" s="11">
         <v>1800</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F43" s="11"/>
     </row>
@@ -9223,43 +9475,43 @@
         <v>42444</v>
       </c>
       <c r="B44" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D44" s="11">
         <v>1000</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F44" s="11"/>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="81" t="s">
-        <v>377</v>
-      </c>
-      <c r="B45" s="86"/>
-      <c r="C45" s="87"/>
-      <c r="D45" s="68">
+      <c r="A45" s="84" t="s">
+        <v>375</v>
+      </c>
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="71">
         <f>SUM(D3:D44)</f>
         <v>113112</v>
       </c>
-      <c r="E45" s="69"/>
-      <c r="F45" s="70"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="73"/>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="B46" s="67"/>
-      <c r="C46" s="67"/>
-      <c r="D46" s="68">
+      <c r="A46" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="B46" s="70"/>
+      <c r="C46" s="70"/>
+      <c r="D46" s="71">
         <v>113112</v>
       </c>
-      <c r="E46" s="69"/>
-      <c r="F46" s="70"/>
+      <c r="E46" s="72"/>
+      <c r="F46" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -9280,7 +9532,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19:G19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9294,37 +9546,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="88" t="s">
-        <v>359</v>
-      </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
+      <c r="A1" s="91" t="s">
+        <v>357</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="92"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="46" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B2" s="25" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C2" s="25" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D2" s="25" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E2" s="25" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F2" s="25" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G2" s="25" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9335,16 +9587,16 @@
         <v>42720</v>
       </c>
       <c r="C3" s="25" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D3" s="25">
         <v>40</v>
       </c>
       <c r="E3" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F3" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G3" s="11"/>
     </row>
@@ -9356,16 +9608,16 @@
         <v>42720</v>
       </c>
       <c r="C4" s="25" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D4" s="11">
         <v>8</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F4" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G4" s="11"/>
     </row>
@@ -9377,16 +9629,16 @@
         <v>42724</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D5" s="11">
         <v>272</v>
       </c>
       <c r="E5" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G5" s="11"/>
     </row>
@@ -9398,16 +9650,16 @@
         <v>42727</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D6" s="11">
         <v>60</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G6" s="11"/>
     </row>
@@ -9419,16 +9671,16 @@
         <v>42727</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D7" s="11">
         <v>20</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G7" s="11"/>
       <c r="I7" s="33"/>
@@ -9441,16 +9693,16 @@
         <v>42727</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="11">
         <v>80</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G8" s="11"/>
       <c r="I8" s="34"/>
@@ -9463,16 +9715,16 @@
         <v>42728</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D9" s="11">
         <v>920</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G9" s="11"/>
       <c r="I9" s="34"/>
@@ -9485,16 +9737,16 @@
         <v>42736</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D10" s="11">
         <v>380</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G10" s="11"/>
       <c r="I10" s="34"/>
@@ -9507,16 +9759,16 @@
         <v>42736</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D11" s="11">
         <v>680</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G11" s="11"/>
       <c r="I11" s="34"/>
@@ -9529,16 +9781,16 @@
         <v>42736</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D12" s="11">
         <v>120</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="34"/>
@@ -9551,16 +9803,16 @@
         <v>42743</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D13" s="11">
         <v>1200</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G13" s="11"/>
       <c r="I13" s="34"/>
@@ -9573,19 +9825,19 @@
         <v>42776</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="D14" s="31">
         <v>1500</v>
       </c>
       <c r="E14" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F14" s="31" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G14" s="53" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="I14" s="34"/>
     </row>
@@ -9597,19 +9849,19 @@
         <v>42780</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="D15" s="11">
         <v>152</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="I15" s="34"/>
     </row>
@@ -9621,19 +9873,19 @@
         <v>42787</v>
       </c>
       <c r="C16" s="25" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D16" s="11">
         <v>11700</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="I16" s="34"/>
     </row>
@@ -9645,16 +9897,16 @@
         <v>42752</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D17" s="11">
         <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="34"/>
@@ -9670,32 +9922,32 @@
       <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:9">
-      <c r="A19" s="66" t="s">
-        <v>377</v>
-      </c>
-      <c r="B19" s="67"/>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67">
+      <c r="A19" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" s="70"/>
+      <c r="C19" s="70"/>
+      <c r="D19" s="70">
         <f>SUM(D3:D17)</f>
         <v>17176</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
+      <c r="E19" s="70"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
       <c r="I19" s="35"/>
     </row>
     <row r="20" spans="1:9">
-      <c r="A20" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="B20" s="67"/>
-      <c r="C20" s="67"/>
-      <c r="D20" s="67">
+      <c r="A20" s="69" t="s">
+        <v>376</v>
+      </c>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70">
         <v>17176</v>
       </c>
-      <c r="E20" s="67"/>
-      <c r="F20" s="67"/>
-      <c r="G20" s="67"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
       <c r="I20" s="34"/>
     </row>
     <row r="21" spans="1:9">
@@ -9725,10 +9977,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E18"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9740,13 +9992,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="67" t="s">
-        <v>364</v>
-      </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
+      <c r="A1" s="70" t="s">
+        <v>362</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="12" t="s">
@@ -9759,7 +10011,7 @@
         <v>5</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E2" s="13" t="s">
         <v>6</v>
@@ -9770,245 +10022,230 @@
         <v>1</v>
       </c>
       <c r="B3" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C3" s="38">
         <v>205000</v>
       </c>
       <c r="D3" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5" s="8" customFormat="1" ht="14.25">
-      <c r="A4" s="38">
+      <c r="A4" s="67">
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="C4" s="38">
         <v>800</v>
       </c>
       <c r="D4" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5" s="8" customFormat="1" ht="14.25">
-      <c r="A5" s="38">
+      <c r="A5" s="67">
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C5" s="38">
-        <v>35</v>
+        <v>80000</v>
       </c>
       <c r="D5" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E5" s="38"/>
+        <v>226</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="6" spans="1:5" s="8" customFormat="1" ht="14.25">
-      <c r="A6" s="38">
+      <c r="A6" s="67">
         <v>4</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>151</v>
+        <v>206</v>
       </c>
       <c r="C6" s="38">
-        <v>80000</v>
+        <v>3000</v>
       </c>
       <c r="D6" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>229</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5" s="8" customFormat="1" ht="14.25">
-      <c r="A7" s="38">
+      <c r="A7" s="67">
         <v>5</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>208</v>
+        <v>152</v>
       </c>
       <c r="C7" s="38">
-        <v>3000</v>
+        <v>460</v>
       </c>
       <c r="D7" s="38" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E7" s="38"/>
     </row>
-    <row r="8" spans="1:5" s="8" customFormat="1" ht="14.25">
-      <c r="A8" s="38">
+    <row r="8" spans="1:5" ht="54">
+      <c r="A8" s="67">
         <v>6</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="38">
-        <v>460</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="38"/>
-    </row>
-    <row r="9" spans="1:5" ht="54">
-      <c r="A9" s="38">
+      <c r="B8" s="37" t="s">
+        <v>307</v>
+      </c>
+      <c r="C8" s="37">
+        <v>4160</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="E8" s="39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.25">
+      <c r="A9" s="67">
         <v>7</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="C9" s="37">
-        <v>4160</v>
-      </c>
-      <c r="D9" s="61" t="s">
+        <v>4000</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>226</v>
       </c>
-      <c r="E9" s="39" t="s">
+      <c r="E9" s="37" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25">
-      <c r="A10" s="38">
+      <c r="A10" s="67">
         <v>8</v>
       </c>
-      <c r="B10" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="C10" s="37">
-        <v>4000</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>228</v>
-      </c>
-      <c r="E10" s="37" t="s">
-        <v>312</v>
-      </c>
+      <c r="B10" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="C10" s="38">
+        <v>4718</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>226</v>
+      </c>
+      <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5" ht="14.25">
-      <c r="A11" s="38">
+      <c r="A11" s="67">
         <v>9</v>
       </c>
-      <c r="B11" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="C11" s="38">
-        <v>4718</v>
+      <c r="B11" s="54" t="s">
+        <v>409</v>
+      </c>
+      <c r="C11" s="54">
+        <v>1523.8</v>
       </c>
       <c r="D11" s="40" t="s">
-        <v>228</v>
-      </c>
-      <c r="E11" s="38"/>
+        <v>408</v>
+      </c>
+      <c r="E11" s="54" t="s">
+        <v>410</v>
+      </c>
     </row>
     <row r="12" spans="1:5" ht="14.25">
-      <c r="A12" s="54">
+      <c r="A12" s="67">
         <v>10</v>
       </c>
-      <c r="B12" s="54" t="s">
-        <v>411</v>
-      </c>
-      <c r="C12" s="54">
-        <v>1523.8</v>
+      <c r="B12" s="55" t="s">
+        <v>418</v>
+      </c>
+      <c r="C12" s="55">
+        <v>420</v>
       </c>
       <c r="D12" s="40" t="s">
-        <v>410</v>
-      </c>
-      <c r="E12" s="54" t="s">
-        <v>412</v>
+        <v>419</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="14.25">
-      <c r="A13" s="55">
+      <c r="A13" s="67">
         <v>11</v>
       </c>
-      <c r="B13" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="C13" s="55">
-        <v>420</v>
+      <c r="B13" s="59" t="s">
+        <v>436</v>
+      </c>
+      <c r="C13" s="59">
+        <v>26000</v>
       </c>
       <c r="D13" s="40" t="s">
+        <v>441</v>
+      </c>
+      <c r="E13" s="59"/>
+    </row>
+    <row r="14" spans="1:5" ht="14.25">
+      <c r="A14" s="67">
+        <v>12</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>418</v>
+      </c>
+      <c r="C14" s="55">
+        <v>580</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>419</v>
+      </c>
+      <c r="E14" s="55" t="s">
         <v>421</v>
       </c>
-      <c r="E13" s="55" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="14.25">
-      <c r="A14" s="59">
-        <v>12</v>
-      </c>
-      <c r="B14" s="59" t="s">
-        <v>438</v>
-      </c>
-      <c r="C14" s="59">
-        <v>26000</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>443</v>
-      </c>
-      <c r="E14" s="59"/>
-    </row>
-    <row r="15" spans="1:5" ht="14.25">
-      <c r="A15" s="55">
-        <v>13</v>
-      </c>
-      <c r="B15" s="55" t="s">
-        <v>420</v>
-      </c>
-      <c r="C15" s="55">
-        <v>580</v>
-      </c>
-      <c r="D15" s="40" t="s">
-        <v>421</v>
-      </c>
-      <c r="E15" s="55" t="s">
-        <v>423</v>
-      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+      <c r="A16" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70">
+        <v>330661.8</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="66" t="s">
-        <v>374</v>
-      </c>
-      <c r="B17" s="67"/>
-      <c r="C17" s="67">
+      <c r="A17" s="69" t="s">
+        <v>373</v>
+      </c>
+      <c r="B17" s="70"/>
+      <c r="C17" s="70">
         <v>319696.8</v>
       </c>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="66" t="s">
-        <v>375</v>
-      </c>
-      <c r="B18" s="67"/>
-      <c r="C18" s="67">
-        <v>319696.8</v>
-      </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E15"/>
+  <autoFilter ref="A2:E14"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="C16:E16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开支收入/领航教育账目.xlsx
+++ b/开支收入/领航教育账目.xlsx
@@ -22,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">办公用品!$A$2:$H$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">工作人员工资!$A$2:$F$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">借条!$A$2:$F$24</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">其他!$A$2:$E$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">其他!$A$2:$E$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">招待费!$B$2:$E$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">招生宣传、招聘职工!$B$2:$G$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">装修工资!$A$2:$H$32</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="492">
   <si>
     <t>序号</t>
   </si>
@@ -1248,10 +1248,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>12月-2月电费</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>见附件</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1738,10 +1734,6 @@
   </si>
   <si>
     <t>寒假杂物开支</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月份电费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1846,6 +1838,26 @@
   <si>
     <t>杨春辉付7000见附件
 杨晨付3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12月-1月电费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2月份电费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>电费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月份电费</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2066,7 +2078,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2300,6 +2312,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2653,16 +2668,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.1" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2710,7 +2725,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -2734,7 +2749,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -2758,7 +2773,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -2782,7 +2797,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -2806,7 +2821,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -2815,7 +2830,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2824,7 +2839,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -2833,7 +2848,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2842,7 +2857,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2866,7 +2881,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -2890,7 +2905,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -2914,7 +2929,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -2938,7 +2953,7 @@
         <v>360</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>20</v>
@@ -2964,7 +2979,7 @@
         <v>450</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>23</v>
@@ -2990,7 +3005,7 @@
         <v>244</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>26</v>
@@ -3016,7 +3031,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -3040,7 +3055,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -3064,7 +3079,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -3088,7 +3103,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -3112,7 +3127,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -3136,7 +3151,7 @@
         <v>350</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>23</v>
@@ -3162,7 +3177,7 @@
         <v>70</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -3171,7 +3186,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3180,7 +3195,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H23" s="6"/>
     </row>
@@ -3204,7 +3219,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -3228,7 +3243,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -3252,7 +3267,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>39</v>
@@ -3278,7 +3293,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>40</v>
@@ -3304,7 +3319,7 @@
         <v>40</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H28" s="6"/>
     </row>
@@ -3328,7 +3343,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H29" s="6"/>
     </row>
@@ -3352,7 +3367,7 @@
         <v>40</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H30" s="6"/>
     </row>
@@ -3376,7 +3391,7 @@
         <v>270</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H31" s="6"/>
     </row>
@@ -3400,7 +3415,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H32" s="6"/>
     </row>
@@ -3424,7 +3439,7 @@
         <v>332</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>49</v>
@@ -3450,7 +3465,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H34" s="6"/>
     </row>
@@ -3474,7 +3489,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H35" s="6"/>
     </row>
@@ -3498,7 +3513,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H36" s="6"/>
     </row>
@@ -3522,7 +3537,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H37" s="6"/>
     </row>
@@ -3546,7 +3561,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H38" s="6"/>
     </row>
@@ -3570,7 +3585,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H39" s="6"/>
     </row>
@@ -3594,7 +3609,7 @@
         <v>30</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H40" s="6"/>
     </row>
@@ -3618,7 +3633,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H41" s="6"/>
     </row>
@@ -3642,7 +3657,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H42" s="6"/>
     </row>
@@ -3666,7 +3681,7 @@
         <v>40</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H43" s="6"/>
     </row>
@@ -3690,7 +3705,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H44" s="6"/>
     </row>
@@ -3714,7 +3729,7 @@
         <v>200</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H45" s="6"/>
     </row>
@@ -3738,7 +3753,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H46" s="6"/>
     </row>
@@ -3758,7 +3773,7 @@
         <v>100</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H47" s="6"/>
     </row>
@@ -3767,7 +3782,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -3778,7 +3793,7 @@
         <v>1100</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H48" s="6"/>
     </row>
@@ -3802,7 +3817,7 @@
         <v>120</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H49" s="55"/>
     </row>
@@ -3826,7 +3841,7 @@
         <v>50</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -3838,16 +3853,16 @@
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
-      <c r="F51" s="79">
+      <c r="F51" s="80">
         <f>SUM(F3:F50)</f>
         <v>4562</v>
       </c>
-      <c r="G51" s="80"/>
-      <c r="H51" s="81"/>
+      <c r="G51" s="81"/>
+      <c r="H51" s="82"/>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="72" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
     </row>
   </sheetData>
@@ -3881,11 +3896,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="82"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="11" t="s">
@@ -3895,7 +3910,7 @@
         <v>306</v>
       </c>
       <c r="C2" s="43" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3910,7 +3925,7 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B4" s="74">
         <v>5060</v>
@@ -3920,13 +3935,13 @@
     </row>
     <row r="5" spans="1:4" ht="27">
       <c r="A5" s="25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B5" s="74">
         <v>2400</v>
       </c>
       <c r="C5" s="77" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D5" s="33"/>
     </row>
@@ -3945,26 +3960,26 @@
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1">
-      <c r="A8" s="91" t="s">
-        <v>475</v>
-      </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
+      <c r="A8" s="92" t="s">
+        <v>473</v>
+      </c>
+      <c r="B8" s="98"/>
+      <c r="C8" s="99"/>
     </row>
     <row r="9" spans="1:4" s="7" customFormat="1">
       <c r="A9" s="56" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B9" s="76" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="C9" s="43" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="7" customFormat="1">
       <c r="A10" s="56" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B10" s="75">
         <v>500790.92</v>
@@ -3973,7 +3988,7 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="43" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B11" s="75">
         <v>83354.98</v>
@@ -3982,7 +3997,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="43" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B12" s="75">
         <v>12397</v>
@@ -3991,7 +4006,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="43" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B13" s="75">
         <v>114352</v>
@@ -4000,7 +4015,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="46" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B14" s="75">
         <v>17209</v>
@@ -4009,7 +4024,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="46" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B15" s="75">
         <v>331025.56</v>
@@ -4018,7 +4033,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="46" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B16" s="75">
         <f>SUM(B10:B15)</f>
@@ -4046,8 +4061,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4063,16 +4078,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4121,10 +4136,10 @@
         <v>4600</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="H3" s="83" t="s">
-        <v>383</v>
+        <v>361</v>
+      </c>
+      <c r="H3" s="84" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30" customHeight="1">
@@ -4148,9 +4163,9 @@
         <v>10260</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="H4" s="84"/>
+        <v>361</v>
+      </c>
+      <c r="H4" s="85"/>
     </row>
     <row r="5" spans="1:8" ht="30" customHeight="1">
       <c r="A5" s="6">
@@ -4173,9 +4188,9 @@
         <v>2880</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="H5" s="84"/>
+        <v>361</v>
+      </c>
+      <c r="H5" s="85"/>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1">
       <c r="A6" s="6">
@@ -4198,9 +4213,9 @@
         <v>8760</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="H6" s="85"/>
+        <v>361</v>
+      </c>
+      <c r="H6" s="86"/>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1">
       <c r="A7" s="6">
@@ -4223,7 +4238,7 @@
         <v>19703</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -4248,7 +4263,7 @@
         <v>330</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -4273,7 +4288,7 @@
         <v>85</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -4298,7 +4313,7 @@
         <v>7480</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -4323,7 +4338,7 @@
         <v>3150</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -4348,7 +4363,7 @@
         <v>200</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -4366,7 +4381,7 @@
         <v>440</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H13" s="6"/>
     </row>
@@ -4387,7 +4402,7 @@
         <v>314</v>
       </c>
       <c r="H14" s="47" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" customHeight="1">
@@ -4418,7 +4433,7 @@
         <v>85</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D16" s="6">
         <v>34</v>
@@ -4428,7 +4443,7 @@
         <v>11440</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -4440,7 +4455,7 @@
         <v>86</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D17" s="6">
         <v>1</v>
@@ -4496,7 +4511,7 @@
         <v>31890</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H19" s="6" t="s">
         <v>90</v>
@@ -4516,10 +4531,10 @@
         <v>20015</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J20" s="9"/>
     </row>
@@ -4542,11 +4557,11 @@
       <c r="F21" s="6">
         <v>11271.6</v>
       </c>
-      <c r="G21" s="86" t="s">
+      <c r="G21" s="87" t="s">
+        <v>365</v>
+      </c>
+      <c r="H21" s="84" t="s">
         <v>366</v>
-      </c>
-      <c r="H21" s="83" t="s">
-        <v>367</v>
       </c>
       <c r="J21" s="9"/>
     </row>
@@ -4569,8 +4584,8 @@
       <c r="F22" s="6">
         <v>27993</v>
       </c>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="85"/>
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10" ht="30" customHeight="1">
@@ -4592,8 +4607,8 @@
       <c r="F23" s="6">
         <v>1700</v>
       </c>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
+      <c r="G23" s="85"/>
+      <c r="H23" s="85"/>
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10" ht="30" customHeight="1">
@@ -4615,8 +4630,8 @@
       <c r="F24" s="6">
         <v>665</v>
       </c>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10" ht="30" customHeight="1">
@@ -4638,8 +4653,8 @@
       <c r="F25" s="6">
         <v>1167.5</v>
       </c>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
+      <c r="G25" s="85"/>
+      <c r="H25" s="85"/>
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10" ht="30" customHeight="1">
@@ -4661,8 +4676,8 @@
       <c r="F26" s="6">
         <v>4038</v>
       </c>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10" ht="30" customHeight="1">
@@ -4684,8 +4699,8 @@
       <c r="F27" s="6">
         <v>2700</v>
       </c>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="85"/>
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10" ht="30" customHeight="1">
@@ -4707,8 +4722,8 @@
       <c r="F28" s="6">
         <v>720</v>
       </c>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
+      <c r="G28" s="85"/>
+      <c r="H28" s="85"/>
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1">
@@ -4730,8 +4745,8 @@
       <c r="F29" s="6">
         <v>684</v>
       </c>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
+      <c r="G29" s="85"/>
+      <c r="H29" s="85"/>
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10" ht="30" customHeight="1">
@@ -4753,8 +4768,8 @@
       <c r="F30" s="6">
         <v>2272</v>
       </c>
-      <c r="G30" s="85"/>
-      <c r="H30" s="85"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="86"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1">
@@ -4788,7 +4803,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -4797,7 +4812,7 @@
         <v>5000</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H32" s="55"/>
     </row>
@@ -4806,7 +4821,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -4815,7 +4830,7 @@
         <v>2000</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H33" s="55"/>
     </row>
@@ -4844,26 +4859,26 @@
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="89" t="s">
+      <c r="A35" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="B35" s="90"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="90"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="79">
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="80">
         <f>SUM(F3:F34)</f>
         <v>286368.09999999998</v>
       </c>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
+      <c r="G35" s="81"/>
+      <c r="H35" s="82"/>
     </row>
     <row r="36" spans="1:8">
-      <c r="A36" s="87"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="88"/>
-      <c r="D36" s="88"/>
-      <c r="E36" s="88"/>
+      <c r="A36" s="88"/>
+      <c r="B36" s="89"/>
+      <c r="C36" s="89"/>
+      <c r="D36" s="89"/>
+      <c r="E36" s="89"/>
       <c r="F36" s="44"/>
     </row>
   </sheetData>
@@ -4904,16 +4919,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="79"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4960,10 +4975,10 @@
       <c r="F3" s="6">
         <v>360</v>
       </c>
-      <c r="G3" s="86" t="s">
+      <c r="G3" s="87" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="84" t="s">
         <v>225</v>
       </c>
       <c r="J3" s="9"/>
@@ -4987,8 +5002,8 @@
       <c r="F4" s="6">
         <v>1800</v>
       </c>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
       <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1">
@@ -5010,8 +5025,8 @@
       <c r="F5" s="6">
         <v>11800</v>
       </c>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
       <c r="J5" s="9"/>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1">
@@ -5033,8 +5048,8 @@
       <c r="F6" s="6">
         <v>11900</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
@@ -5051,10 +5066,10 @@
         <v>22800</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1">
@@ -5077,10 +5092,10 @@
         <v>21933.279999999999</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
@@ -5103,7 +5118,7 @@
         <v>5445.54</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -5127,7 +5142,7 @@
         <v>6235</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -5149,7 +5164,7 @@
         <v>1000</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -5173,7 +5188,7 @@
         <v>2400</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -5197,10 +5212,10 @@
         <v>17706</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" customHeight="1">
@@ -5223,10 +5238,10 @@
         <v>24160</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="30" customHeight="1">
@@ -5243,7 +5258,7 @@
         <v>3000</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H15" s="6"/>
     </row>
@@ -5261,10 +5276,10 @@
         <v>6300</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="30" customHeight="1">
@@ -5283,7 +5298,7 @@
         <v>6000</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>146</v>
@@ -5303,7 +5318,7 @@
         <v>5000</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="H18" s="47" t="s">
         <v>335</v>
@@ -5343,10 +5358,10 @@
         <v>17957</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="30" customHeight="1">
@@ -5363,7 +5378,7 @@
         <v>1394</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H21" s="47" t="s">
         <v>335</v>
@@ -5387,7 +5402,7 @@
         <v>530</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -5407,7 +5422,7 @@
         <v>4500</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H23" s="6"/>
     </row>
@@ -5425,7 +5440,7 @@
         <v>2700</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -5449,7 +5464,7 @@
         <v>240</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H25" s="53"/>
     </row>
@@ -5520,7 +5535,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="55"/>
@@ -5536,7 +5551,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="54" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C30" s="54"/>
       <c r="D30" s="55"/>
@@ -5545,10 +5560,10 @@
         <v>20000</v>
       </c>
       <c r="G30" s="55" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="H30" s="55" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="31" spans="1:8" s="8" customFormat="1" ht="14.25">
@@ -5570,19 +5585,19 @@
       <c r="H31" s="37"/>
     </row>
     <row r="32" spans="1:8" ht="30" customHeight="1">
-      <c r="A32" s="89" t="s">
+      <c r="A32" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="B32" s="90"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="90"/>
-      <c r="E32" s="90"/>
-      <c r="F32" s="90">
+      <c r="B32" s="91"/>
+      <c r="C32" s="91"/>
+      <c r="D32" s="91"/>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91">
         <f>SUM(F3:F31)</f>
         <v>209860.82</v>
       </c>
-      <c r="G32" s="90"/>
-      <c r="H32" s="90"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5617,14 +5632,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -5827,7 +5842,7 @@
         <v>221</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1">
@@ -5987,29 +6002,29 @@
       <c r="F22" s="4"/>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="89" t="s">
+      <c r="A23" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="90">
+      <c r="B23" s="91"/>
+      <c r="C23" s="91"/>
+      <c r="D23" s="91">
         <f>SUM(D3:D22)</f>
         <v>92630</v>
       </c>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="91"/>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="91" t="s">
+      <c r="A24" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="B24" s="80"/>
-      <c r="C24" s="81"/>
-      <c r="D24" s="79">
+      <c r="B24" s="81"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="80">
         <v>68600</v>
       </c>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
+      <c r="E24" s="81"/>
+      <c r="F24" s="82"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F24">
@@ -6050,16 +6065,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="92" t="s">
+      <c r="A1" s="93" t="s">
         <v>310</v>
       </c>
-      <c r="B1" s="92"/>
-      <c r="C1" s="92"/>
-      <c r="D1" s="92"/>
-      <c r="E1" s="92"/>
-      <c r="F1" s="92"/>
-      <c r="G1" s="92"/>
-      <c r="H1" s="92"/>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
+      <c r="H1" s="93"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="61" t="s">
@@ -6215,7 +6230,7 @@
         <v>400</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>160</v>
@@ -6241,7 +6256,7 @@
         <v>5440</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>162</v>
@@ -6289,7 +6304,7 @@
         <v>2832</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>165</v>
@@ -6315,7 +6330,7 @@
         <v>850</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H12" s="24"/>
     </row>
@@ -6339,7 +6354,7 @@
         <v>398</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H13" s="24"/>
     </row>
@@ -6363,10 +6378,10 @@
         <v>1600</v>
       </c>
       <c r="G14" s="24" t="s">
+        <v>386</v>
+      </c>
+      <c r="H14" s="49" t="s">
         <v>387</v>
-      </c>
-      <c r="H14" s="49" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
@@ -6387,7 +6402,7 @@
         <v>391</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H15" s="24"/>
     </row>
@@ -6407,7 +6422,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H16" s="24"/>
     </row>
@@ -6431,7 +6446,7 @@
         <v>1500</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H17" s="24"/>
     </row>
@@ -6455,7 +6470,7 @@
         <v>4099</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -6479,7 +6494,7 @@
         <v>2799</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H19" s="24"/>
     </row>
@@ -6523,7 +6538,7 @@
         <v>300</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H21" s="39"/>
     </row>
@@ -6547,7 +6562,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H22" s="24"/>
     </row>
@@ -6571,7 +6586,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H23" s="24"/>
     </row>
@@ -6595,7 +6610,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -6619,7 +6634,7 @@
         <v>120</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H25" s="24"/>
     </row>
@@ -6652,7 +6667,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>8</v>
@@ -6691,7 +6706,7 @@
         <v>780</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H28" s="24"/>
     </row>
@@ -6715,7 +6730,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H29" s="24"/>
     </row>
@@ -6763,7 +6778,7 @@
         <v>1170</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H31" s="24"/>
     </row>
@@ -6809,7 +6824,7 @@
         <v>60</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H33" s="24"/>
     </row>
@@ -6833,7 +6848,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H34" s="24"/>
     </row>
@@ -6901,7 +6916,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H37" s="24"/>
     </row>
@@ -6925,7 +6940,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H38" s="24"/>
     </row>
@@ -6949,7 +6964,7 @@
         <v>2400</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H39" s="24"/>
     </row>
@@ -6973,7 +6988,7 @@
         <v>178</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H40" s="24"/>
     </row>
@@ -7021,10 +7036,10 @@
         <v>60</v>
       </c>
       <c r="G42" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="H42" s="24" t="s">
         <v>391</v>
-      </c>
-      <c r="H42" s="24" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
@@ -7047,10 +7062,10 @@
         <v>60</v>
       </c>
       <c r="G43" s="29" t="s">
+        <v>390</v>
+      </c>
+      <c r="H43" s="24" t="s">
         <v>391</v>
-      </c>
-      <c r="H43" s="24" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.25">
@@ -7073,7 +7088,7 @@
         <v>514</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H44" s="24"/>
     </row>
@@ -7082,7 +7097,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -7093,7 +7108,7 @@
         <v>240</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H45" s="24"/>
     </row>
@@ -7102,7 +7117,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -7113,7 +7128,7 @@
         <v>1080</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H46" s="24"/>
     </row>
@@ -7122,10 +7137,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
+        <v>394</v>
+      </c>
+      <c r="C47" s="29" t="s">
         <v>395</v>
-      </c>
-      <c r="C47" s="29" t="s">
-        <v>396</v>
       </c>
       <c r="D47" s="29">
         <v>1</v>
@@ -7137,7 +7152,7 @@
         <v>50</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H47" s="24"/>
     </row>
@@ -7146,10 +7161,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
+        <v>396</v>
+      </c>
+      <c r="C48" s="29" t="s">
         <v>397</v>
-      </c>
-      <c r="C48" s="29" t="s">
-        <v>398</v>
       </c>
       <c r="D48" s="29">
         <v>1</v>
@@ -7161,7 +7176,7 @@
         <v>2800</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H48" s="24"/>
     </row>
@@ -7185,7 +7200,7 @@
         <v>40</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H49" s="24"/>
     </row>
@@ -7194,10 +7209,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D50" s="24">
         <v>2</v>
@@ -7209,7 +7224,7 @@
         <v>80</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H50" s="24"/>
     </row>
@@ -7218,10 +7233,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D51" s="24">
         <v>2</v>
@@ -7233,7 +7248,7 @@
         <v>240</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H51" s="24"/>
     </row>
@@ -7242,10 +7257,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D52" s="24">
         <v>1</v>
@@ -7257,7 +7272,7 @@
         <v>60</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H52" s="24"/>
     </row>
@@ -7266,10 +7281,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="24" t="s">
+        <v>401</v>
+      </c>
+      <c r="C53" s="24" t="s">
         <v>402</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>403</v>
       </c>
       <c r="D53" s="24">
         <v>4</v>
@@ -7281,7 +7296,7 @@
         <v>72</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H53" s="24"/>
     </row>
@@ -7290,10 +7305,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D54" s="24">
         <v>1</v>
@@ -7305,7 +7320,7 @@
         <v>260</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H54" s="24"/>
     </row>
@@ -7314,10 +7329,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D55" s="59">
         <v>1</v>
@@ -7329,7 +7344,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H55" s="59"/>
     </row>
@@ -7338,10 +7353,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="59" t="s">
+        <v>405</v>
+      </c>
+      <c r="C56" s="59" t="s">
         <v>406</v>
-      </c>
-      <c r="C56" s="59" t="s">
-        <v>407</v>
       </c>
       <c r="D56" s="59">
         <v>2</v>
@@ -7353,7 +7368,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H56" s="59"/>
     </row>
@@ -7362,10 +7377,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="59" t="s">
+        <v>407</v>
+      </c>
+      <c r="C57" s="59" t="s">
         <v>408</v>
-      </c>
-      <c r="C57" s="59" t="s">
-        <v>409</v>
       </c>
       <c r="D57" s="59">
         <v>1</v>
@@ -7377,7 +7392,7 @@
         <v>22</v>
       </c>
       <c r="G57" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H57" s="59"/>
     </row>
@@ -7398,7 +7413,7 @@
         <v>221</v>
       </c>
       <c r="H58" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="14.25">
@@ -7406,10 +7421,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="59" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D59" s="59">
         <v>1</v>
@@ -7421,7 +7436,7 @@
         <v>60</v>
       </c>
       <c r="G59" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H59" s="59"/>
     </row>
@@ -7430,10 +7445,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="59" t="s">
+        <v>411</v>
+      </c>
+      <c r="C60" s="59" t="s">
         <v>412</v>
-      </c>
-      <c r="C60" s="59" t="s">
-        <v>413</v>
       </c>
       <c r="D60" s="59">
         <v>3</v>
@@ -7445,7 +7460,7 @@
         <v>276</v>
       </c>
       <c r="G60" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H60" s="59"/>
     </row>
@@ -7454,10 +7469,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D61" s="59">
         <v>96</v>
@@ -7467,7 +7482,7 @@
         <v>1000</v>
       </c>
       <c r="G61" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H61" s="59"/>
     </row>
@@ -7476,10 +7491,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="59" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D62" s="59">
         <v>96</v>
@@ -7491,10 +7506,10 @@
         <v>16320</v>
       </c>
       <c r="G62" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H62" s="59" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14.25">
@@ -7502,10 +7517,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D63" s="59">
         <v>96</v>
@@ -7517,7 +7532,7 @@
         <v>1728</v>
       </c>
       <c r="G63" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H63" s="59"/>
     </row>
@@ -7526,10 +7541,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D64" s="59">
         <v>2</v>
@@ -7541,7 +7556,7 @@
         <v>31.2</v>
       </c>
       <c r="G64" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H64" s="59"/>
     </row>
@@ -7550,10 +7565,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="59" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D65" s="59">
         <v>2</v>
@@ -7565,7 +7580,7 @@
         <v>21.6</v>
       </c>
       <c r="G65" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H65" s="59"/>
     </row>
@@ -7574,10 +7589,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="C66" s="59" t="s">
         <v>420</v>
-      </c>
-      <c r="C66" s="59" t="s">
-        <v>421</v>
       </c>
       <c r="D66" s="59">
         <v>2</v>
@@ -7589,7 +7604,7 @@
         <v>240</v>
       </c>
       <c r="G66" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H66" s="59"/>
     </row>
@@ -7598,7 +7613,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C67" s="71" t="s">
         <v>319</v>
@@ -7675,7 +7690,7 @@
         <v>69</v>
       </c>
       <c r="B71" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
@@ -7684,10 +7699,10 @@
         <v>981</v>
       </c>
       <c r="G71" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H71" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14.25">
@@ -7695,7 +7710,7 @@
         <v>70</v>
       </c>
       <c r="B72" s="59" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
@@ -7704,10 +7719,10 @@
         <v>500</v>
       </c>
       <c r="G72" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H72" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="14.25">
@@ -7715,7 +7730,7 @@
         <v>71</v>
       </c>
       <c r="B73" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
@@ -7724,10 +7739,10 @@
         <v>853</v>
       </c>
       <c r="G73" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H73" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="74" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -7735,7 +7750,7 @@
         <v>72</v>
       </c>
       <c r="B74" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C74" s="42" t="s">
         <v>267</v>
@@ -7759,10 +7774,10 @@
         <v>73</v>
       </c>
       <c r="B75" s="59" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C75" s="59" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D75" s="59">
         <v>1</v>
@@ -7774,7 +7789,7 @@
         <v>38.4</v>
       </c>
       <c r="G75" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H75" s="59"/>
     </row>
@@ -7783,10 +7798,10 @@
         <v>74</v>
       </c>
       <c r="B76" s="59" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C76" s="59" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D76" s="59">
         <v>1</v>
@@ -7798,7 +7813,7 @@
         <v>109</v>
       </c>
       <c r="G76" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H76" s="59"/>
     </row>
@@ -7807,10 +7822,10 @@
         <v>75</v>
       </c>
       <c r="B77" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="C77" s="59" t="s">
         <v>425</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>426</v>
       </c>
       <c r="D77" s="59">
         <v>50</v>
@@ -7822,7 +7837,7 @@
         <v>400</v>
       </c>
       <c r="G77" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H77" s="59"/>
     </row>
@@ -7831,7 +7846,7 @@
         <v>76</v>
       </c>
       <c r="B78" s="42" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C78" s="42" t="s">
         <v>319</v>
@@ -7879,10 +7894,10 @@
         <v>78</v>
       </c>
       <c r="B80" s="59" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C80" s="59" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D80" s="59">
         <v>2</v>
@@ -7894,7 +7909,7 @@
         <v>176</v>
       </c>
       <c r="G80" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H80" s="59"/>
     </row>
@@ -7951,7 +7966,7 @@
         <v>81</v>
       </c>
       <c r="B83" s="59" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
@@ -7960,10 +7975,10 @@
         <v>135.30000000000001</v>
       </c>
       <c r="G83" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H83" s="59" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="84" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -7971,7 +7986,7 @@
         <v>82</v>
       </c>
       <c r="B84" s="42" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C84" s="42"/>
       <c r="D84" s="42"/>
@@ -7983,7 +7998,7 @@
         <v>221</v>
       </c>
       <c r="H84" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="14.25">
@@ -7991,7 +8006,7 @@
         <v>83</v>
       </c>
       <c r="B85" s="59" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
@@ -8002,7 +8017,7 @@
         <v>30.9</v>
       </c>
       <c r="G85" s="59" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="H85" s="59"/>
     </row>
@@ -8011,7 +8026,7 @@
         <v>84</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C86" s="42"/>
       <c r="D86" s="42"/>
@@ -8023,7 +8038,7 @@
         <v>221</v>
       </c>
       <c r="H86" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="87" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8031,7 +8046,7 @@
         <v>85</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C87" s="42" t="s">
         <v>319</v>
@@ -8055,7 +8070,7 @@
         <v>86</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C88" s="42" t="s">
         <v>319</v>
@@ -8079,7 +8094,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C89" s="42" t="s">
         <v>249</v>
@@ -8103,7 +8118,7 @@
         <v>88</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C90" s="42" t="s">
         <v>249</v>
@@ -8127,7 +8142,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C91" s="42" t="s">
         <v>319</v>
@@ -8151,7 +8166,7 @@
         <v>90</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C92" s="42" t="s">
         <v>249</v>
@@ -8175,7 +8190,7 @@
         <v>91</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C93" s="42" t="s">
         <v>319</v>
@@ -8199,7 +8214,7 @@
         <v>92</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C94" s="42" t="s">
         <v>249</v>
@@ -8223,7 +8238,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="42" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C95" s="42" t="s">
         <v>319</v>
@@ -8262,7 +8277,7 @@
         <v>520</v>
       </c>
       <c r="G96" s="66" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H96" s="67"/>
     </row>
@@ -8271,10 +8286,10 @@
         <v>95</v>
       </c>
       <c r="B97" s="66" t="s">
+        <v>436</v>
+      </c>
+      <c r="C97" s="66" t="s">
         <v>437</v>
-      </c>
-      <c r="C97" s="66" t="s">
-        <v>438</v>
       </c>
       <c r="D97" s="66">
         <v>1</v>
@@ -8286,7 +8301,7 @@
         <v>23</v>
       </c>
       <c r="G97" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H97" s="67"/>
     </row>
@@ -8295,7 +8310,7 @@
         <v>96</v>
       </c>
       <c r="B98" s="66" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C98" s="66"/>
       <c r="D98" s="66"/>
@@ -8313,10 +8328,10 @@
         <v>97</v>
       </c>
       <c r="B99" s="66" t="s">
+        <v>442</v>
+      </c>
+      <c r="C99" s="66" t="s">
         <v>443</v>
-      </c>
-      <c r="C99" s="66" t="s">
-        <v>444</v>
       </c>
       <c r="D99" s="66">
         <v>4</v>
@@ -8328,7 +8343,7 @@
         <v>560</v>
       </c>
       <c r="G99" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H99" s="67"/>
     </row>
@@ -8337,10 +8352,10 @@
         <v>98</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C100" s="66" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="D100" s="66">
         <v>4</v>
@@ -8352,7 +8367,7 @@
         <v>20</v>
       </c>
       <c r="G100" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H100" s="67"/>
     </row>
@@ -8361,7 +8376,7 @@
         <v>99</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C101" s="66"/>
       <c r="D101" s="66"/>
@@ -8370,7 +8385,7 @@
         <v>135.30000000000001</v>
       </c>
       <c r="G101" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H101" s="67"/>
     </row>
@@ -8379,7 +8394,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="66" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C102" s="66"/>
       <c r="D102" s="66"/>
@@ -8388,7 +8403,7 @@
         <v>62</v>
       </c>
       <c r="G102" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H102" s="67"/>
     </row>
@@ -8397,7 +8412,7 @@
         <v>101</v>
       </c>
       <c r="B103" s="66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C103" s="66"/>
       <c r="D103" s="66"/>
@@ -8406,7 +8421,7 @@
         <v>28</v>
       </c>
       <c r="G103" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H103" s="67"/>
     </row>
@@ -8415,10 +8430,10 @@
         <v>102</v>
       </c>
       <c r="B104" s="66" t="s">
+        <v>450</v>
+      </c>
+      <c r="C104" s="66" t="s">
         <v>451</v>
-      </c>
-      <c r="C104" s="66" t="s">
-        <v>452</v>
       </c>
       <c r="D104" s="66">
         <v>10</v>
@@ -8430,7 +8445,7 @@
         <v>18</v>
       </c>
       <c r="G104" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H104" s="67"/>
     </row>
@@ -8439,10 +8454,10 @@
         <v>103</v>
       </c>
       <c r="B105" s="66" t="s">
+        <v>457</v>
+      </c>
+      <c r="C105" s="66" t="s">
         <v>458</v>
-      </c>
-      <c r="C105" s="66" t="s">
-        <v>459</v>
       </c>
       <c r="D105" s="66">
         <v>4</v>
@@ -8454,7 +8469,7 @@
         <v>152</v>
       </c>
       <c r="G105" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H105" s="67"/>
     </row>
@@ -8463,7 +8478,7 @@
         <v>104</v>
       </c>
       <c r="B106" s="66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C106" s="66"/>
       <c r="D106" s="66"/>
@@ -8472,10 +8487,10 @@
         <v>113.08</v>
       </c>
       <c r="G106" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H106" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8483,7 +8498,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C107" s="66"/>
       <c r="D107" s="66"/>
@@ -8492,10 +8507,10 @@
         <v>79</v>
       </c>
       <c r="G107" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H107" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8503,7 +8518,7 @@
         <v>106</v>
       </c>
       <c r="B108" s="66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C108" s="66"/>
       <c r="D108" s="66"/>
@@ -8512,10 +8527,10 @@
         <v>38.4</v>
       </c>
       <c r="G108" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H108" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8523,7 +8538,7 @@
         <v>107</v>
       </c>
       <c r="B109" s="66" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C109" s="66"/>
       <c r="D109" s="66"/>
@@ -8532,10 +8547,10 @@
         <v>40</v>
       </c>
       <c r="G109" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H109" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8543,7 +8558,7 @@
         <v>108</v>
       </c>
       <c r="B110" s="66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C110" s="66"/>
       <c r="D110" s="66"/>
@@ -8552,10 +8567,10 @@
         <v>38.9</v>
       </c>
       <c r="G110" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H110" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8563,7 +8578,7 @@
         <v>109</v>
       </c>
       <c r="B111" s="66" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C111" s="66"/>
       <c r="D111" s="66"/>
@@ -8572,10 +8587,10 @@
         <v>695.4</v>
       </c>
       <c r="G111" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H111" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8583,7 +8598,7 @@
         <v>110</v>
       </c>
       <c r="B112" s="66" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C112" s="66"/>
       <c r="D112" s="66"/>
@@ -8592,10 +8607,10 @@
         <v>194.18</v>
       </c>
       <c r="G112" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H112" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8603,7 +8618,7 @@
         <v>111</v>
       </c>
       <c r="B113" s="66" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C113" s="66"/>
       <c r="D113" s="66"/>
@@ -8612,10 +8627,10 @@
         <v>55</v>
       </c>
       <c r="G113" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H113" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8623,7 +8638,7 @@
         <v>112</v>
       </c>
       <c r="B114" s="66" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C114" s="66"/>
       <c r="D114" s="66"/>
@@ -8632,10 +8647,10 @@
         <v>437.8</v>
       </c>
       <c r="G114" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H114" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="115" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8643,7 +8658,7 @@
         <v>113</v>
       </c>
       <c r="B115" s="66" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="C115" s="66"/>
       <c r="D115" s="66"/>
@@ -8652,10 +8667,10 @@
         <v>17</v>
       </c>
       <c r="G115" s="66" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="H115" s="67" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
@@ -8663,7 +8678,7 @@
         <v>114</v>
       </c>
       <c r="B116" s="66" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C116" s="66" t="s">
         <v>8</v>
@@ -8683,19 +8698,19 @@
       <c r="H116" s="67"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="93" t="s">
-        <v>431</v>
-      </c>
-      <c r="B117" s="93"/>
-      <c r="C117" s="93"/>
-      <c r="D117" s="93"/>
-      <c r="E117" s="93"/>
-      <c r="F117" s="93">
+      <c r="A117" s="94" t="s">
+        <v>430</v>
+      </c>
+      <c r="B117" s="94"/>
+      <c r="C117" s="94"/>
+      <c r="D117" s="94"/>
+      <c r="E117" s="94"/>
+      <c r="F117" s="94">
         <f>SUM(F3:F116)</f>
         <v>83354.979999999981</v>
       </c>
-      <c r="G117" s="93"/>
-      <c r="H117" s="93"/>
+      <c r="G117" s="94"/>
+      <c r="H117" s="94"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:H93">
@@ -8730,13 +8745,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5">
-      <c r="A1" s="94" t="s">
+      <c r="A1" s="95" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="95"/>
+      <c r="B1" s="95"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="96"/>
     </row>
     <row r="2" spans="1:5" ht="14.25">
       <c r="A2" s="43" t="s">
@@ -9009,16 +9024,16 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="14.25">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="90" t="s">
         <v>323</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="96">
+      <c r="B18" s="91"/>
+      <c r="C18" s="97">
         <f>SUM(C3:C17)</f>
         <v>12397</v>
       </c>
-      <c r="D18" s="96"/>
-      <c r="E18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="97"/>
     </row>
   </sheetData>
   <autoFilter ref="B2:E18">
@@ -9051,14 +9066,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="80"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="81"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
@@ -9124,7 +9139,7 @@
         <v>244</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D5" s="11">
         <v>1000</v>
@@ -9677,7 +9692,7 @@
         <v>278</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D36" s="11">
         <v>2000</v>
@@ -9757,7 +9772,7 @@
         <v>294</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D41" s="11">
         <v>2000</v>
@@ -9784,7 +9799,7 @@
         <v>315</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -9795,7 +9810,7 @@
         <v>278</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D43" s="11">
         <v>2000</v>
@@ -9842,17 +9857,17 @@
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="91" t="s">
+      <c r="A46" s="92" t="s">
         <v>326</v>
       </c>
-      <c r="B46" s="97"/>
-      <c r="C46" s="98"/>
-      <c r="D46" s="79">
+      <c r="B46" s="98"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="80">
         <f>SUM(D3:D45)</f>
         <v>114352</v>
       </c>
-      <c r="E46" s="80"/>
-      <c r="F46" s="81"/>
+      <c r="E46" s="81"/>
+      <c r="F46" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -9886,15 +9901,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>312</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="100"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="101"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="43" t="s">
@@ -9981,7 +9996,7 @@
         <v>239</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10035,7 +10050,7 @@
         <v>42727</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D8" s="42">
         <v>80</v>
@@ -10224,7 +10239,7 @@
         <v>315</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G16" s="11" t="s">
         <v>316</v>
@@ -10239,33 +10254,33 @@
         <v>42752</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D17" s="11">
         <v>44</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="33"/>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="89" t="s">
+      <c r="A18" s="90" t="s">
         <v>326</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90">
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91">
         <f>SUM(D3:D17)</f>
         <v>17209</v>
       </c>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
+      <c r="E18" s="91"/>
+      <c r="F18" s="91"/>
+      <c r="G18" s="91"/>
       <c r="I18" s="33"/>
     </row>
     <row r="19" spans="1:9">
@@ -10296,10 +10311,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:E16"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10311,13 +10326,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="91" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="12" t="s">
@@ -10427,7 +10442,7 @@
         <v>221</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -10435,7 +10450,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C9" s="18">
         <v>4000</v>
@@ -10467,16 +10482,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C11" s="18">
         <v>1048.5</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>469</v>
+        <v>488</v>
       </c>
       <c r="F11" s="65"/>
       <c r="G11" s="65"/>
@@ -10487,7 +10502,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C12" s="63">
         <v>1523.8</v>
@@ -10496,7 +10511,7 @@
         <v>221</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>347</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -10504,7 +10519,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="63" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C13" s="63">
         <v>420</v>
@@ -10513,7 +10528,7 @@
         <v>221</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
@@ -10521,51 +10536,68 @@
         <v>12</v>
       </c>
       <c r="B14" s="51" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C14" s="51">
         <v>26000</v>
       </c>
       <c r="D14" s="38" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E14" s="51"/>
     </row>
-    <row r="15" spans="1:8" s="40" customFormat="1" ht="14.25">
-      <c r="A15" s="57">
+    <row r="15" spans="1:8" ht="14.25">
+      <c r="A15" s="78">
         <v>13</v>
       </c>
-      <c r="B15" s="63" t="s">
+      <c r="B15" s="78" t="s">
+        <v>489</v>
+      </c>
+      <c r="C15" s="78">
+        <v>996</v>
+      </c>
+      <c r="D15" s="38" t="s">
+        <v>490</v>
+      </c>
+      <c r="E15" s="78" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="40" customFormat="1" ht="14.25">
+      <c r="A16" s="78">
+        <v>14</v>
+      </c>
+      <c r="B16" s="63" t="s">
+        <v>350</v>
+      </c>
+      <c r="C16" s="63">
+        <v>580</v>
+      </c>
+      <c r="D16" s="63" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="63" t="s">
         <v>351</v>
       </c>
-      <c r="C15" s="63">
-        <v>580</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>221</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="89" t="s">
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="90" t="s">
         <v>324</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90">
-        <f>SUM(C3:C15)</f>
-        <v>331025.56</v>
-      </c>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="91">
+        <f>SUM(C3:C16)</f>
+        <v>332021.56</v>
+      </c>
+      <c r="D17" s="91"/>
+      <c r="E17" s="91"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:E15"/>
+  <autoFilter ref="A2:E16"/>
   <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="C17:E17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/开支收入/领航教育账目.xlsx
+++ b/开支收入/领航教育账目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="装修零散材料" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="494">
   <si>
     <t>序号</t>
   </si>
@@ -1858,6 +1858,15 @@
   </si>
   <si>
     <t>3月份电费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">20240/4
+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总数据</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2078,7 +2087,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="103">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2385,6 +2394,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2655,7 +2667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B67" sqref="B67"/>
     </sheetView>
   </sheetViews>
@@ -3882,10 +3894,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3896,161 +3908,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="80" t="s">
+      <c r="A1" s="91" t="s">
+        <v>493</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="80" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="82"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="B2" s="74" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="43" t="s">
-        <v>484</v>
-      </c>
+      <c r="B2" s="81"/>
+      <c r="C2" s="82"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="B3" s="74">
-        <v>61590</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="33"/>
+        <v>305</v>
+      </c>
+      <c r="B3" s="74" t="s">
+        <v>306</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>484</v>
+      </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="11" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="B4" s="74">
-        <v>5060</v>
+        <v>61590</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="33"/>
     </row>
     <row r="5" spans="1:4" ht="27">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="B5" s="74">
+        <v>5060</v>
+      </c>
+      <c r="C5" s="102" t="s">
+        <v>492</v>
+      </c>
+      <c r="D5" s="33"/>
+    </row>
+    <row r="6" spans="1:4" ht="27">
+      <c r="A6" s="25" t="s">
         <v>483</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B6" s="74">
         <v>2400</v>
       </c>
-      <c r="C5" s="77" t="s">
+      <c r="C6" s="77" t="s">
         <v>485</v>
       </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="56" t="s">
+      <c r="D6" s="33"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="56" t="s">
         <v>323</v>
       </c>
-      <c r="B6" s="75">
-        <f>SUM(B3:B5)</f>
+      <c r="B7" s="75">
+        <f>SUM(B4:B6)</f>
         <v>69050</v>
       </c>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:4" s="7" customFormat="1">
-      <c r="A7" s="58"/>
       <c r="C7" s="4"/>
     </row>
     <row r="8" spans="1:4" s="7" customFormat="1">
-      <c r="A8" s="92" t="s">
+      <c r="A8" s="58"/>
+      <c r="C8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" s="7" customFormat="1">
+      <c r="A9" s="92" t="s">
         <v>473</v>
       </c>
-      <c r="B8" s="98"/>
-      <c r="C8" s="99"/>
-    </row>
-    <row r="9" spans="1:4" s="7" customFormat="1">
-      <c r="A9" s="56" t="s">
-        <v>474</v>
-      </c>
-      <c r="B9" s="76" t="s">
-        <v>475</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>484</v>
-      </c>
+      <c r="B9" s="98"/>
+      <c r="C9" s="99"/>
     </row>
     <row r="10" spans="1:4" s="7" customFormat="1">
       <c r="A10" s="56" t="s">
+        <v>474</v>
+      </c>
+      <c r="B10" s="76" t="s">
+        <v>475</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="7" customFormat="1">
+      <c r="A11" s="56" t="s">
         <v>476</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B11" s="75">
         <v>500790.92</v>
-      </c>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="43" t="s">
-        <v>477</v>
-      </c>
-      <c r="B11" s="75">
-        <v>83354.98</v>
       </c>
       <c r="C11" s="4"/>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="43" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B12" s="75">
-        <v>12397</v>
+        <v>83354.98</v>
       </c>
       <c r="C12" s="4"/>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="43" t="s">
+        <v>478</v>
+      </c>
+      <c r="B13" s="75">
+        <v>12397</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="43" t="s">
         <v>479</v>
       </c>
-      <c r="B13" s="75">
+      <c r="B14" s="75">
         <v>114352</v>
-      </c>
-      <c r="C13" s="4"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="46" t="s">
-        <v>480</v>
-      </c>
-      <c r="B14" s="75">
-        <v>17209</v>
       </c>
       <c r="C14" s="4"/>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="46" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B15" s="75">
-        <v>331025.56</v>
+        <v>17209</v>
       </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="46" t="s">
+        <v>481</v>
+      </c>
+      <c r="B16" s="75">
+        <v>332021.56</v>
+      </c>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="46" t="s">
         <v>482</v>
       </c>
-      <c r="B16" s="75">
-        <f>SUM(B10:B15)</f>
-        <v>1059129.46</v>
-      </c>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:1" s="7" customFormat="1">
-      <c r="A17" s="73"/>
-    </row>
-    <row r="18" spans="1:1" s="7" customFormat="1">
+      <c r="B17" s="75">
+        <f>SUM(B11:B16)</f>
+        <v>1060125.46</v>
+      </c>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" s="7" customFormat="1">
       <c r="A18" s="73"/>
     </row>
+    <row r="19" spans="1:3" s="7" customFormat="1">
+      <c r="A19" s="73"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A9:C9"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A8:C8"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4061,18 +4083,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="26.25" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="9.875" customWidth="1"/>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="3" max="3" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="8.375" customWidth="1"/>
     <col min="7" max="7" width="8.75" customWidth="1"/>
     <col min="8" max="8" width="18.125" customWidth="1"/>
   </cols>
@@ -4903,8 +4925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:H32"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4912,10 +4934,10 @@
     <col min="1" max="1" width="7.375" customWidth="1"/>
     <col min="2" max="2" width="12.375" customWidth="1"/>
     <col min="3" max="3" width="7.375" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="6" width="10.5" customWidth="1"/>
     <col min="7" max="7" width="8.25" customWidth="1"/>
-    <col min="8" max="8" width="25" customWidth="1"/>
+    <col min="8" max="8" width="25.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
@@ -5618,7 +5640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -6048,14 +6070,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H117"/>
   <sheetViews>
-    <sheetView topLeftCell="A102" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F117" sqref="F117:H117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="5.375" customWidth="1"/>
-    <col min="2" max="2" width="22.125" customWidth="1"/>
+    <col min="2" max="2" width="17.125" customWidth="1"/>
     <col min="3" max="3" width="5.75" customWidth="1"/>
     <col min="4" max="4" width="7.375" customWidth="1"/>
     <col min="5" max="5" width="6.625" customWidth="1"/>
@@ -9054,7 +9076,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D46" sqref="D46:F46"/>
     </sheetView>
   </sheetViews>
@@ -10314,7 +10336,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/开支收入/领航教育账目.xlsx
+++ b/开支收入/领航教育账目.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="装修零散材料" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="汇总数据" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">办公用品!$A$2:$H$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">办公用品!$A$2:$H$116</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">工作人员工资!$A$2:$F$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">借条!$A$2:$F$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">其他!$A$2:$E$16</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="496">
   <si>
     <t>序号</t>
   </si>
@@ -1342,10 +1342,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>杨晨？</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>25直接内丝</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1379,10 +1375,6 @@
   </si>
   <si>
     <t>杨晨</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>工地管理人员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1867,6 +1859,22 @@
   </si>
   <si>
     <t>汇总数据</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈代针</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨？</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨晨</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>工地管理人员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2087,7 +2095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2325,6 +2333,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2337,9 +2351,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2347,9 +2358,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2394,8 +2402,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2680,16 +2691,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="41.1" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:8" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="6" t="s">
@@ -2737,7 +2748,7 @@
         <v>12</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H3" s="6"/>
     </row>
@@ -2761,7 +2772,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H4" s="6"/>
     </row>
@@ -2785,7 +2796,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H5" s="6"/>
     </row>
@@ -2809,7 +2820,7 @@
         <v>80</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H6" s="6"/>
     </row>
@@ -2833,7 +2844,7 @@
         <v>15</v>
       </c>
       <c r="G7" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H7" s="6"/>
     </row>
@@ -2842,7 +2853,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
@@ -2851,7 +2862,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H8" s="6"/>
     </row>
@@ -2860,7 +2871,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -2869,7 +2880,7 @@
         <v>2</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H9" s="6"/>
     </row>
@@ -2893,7 +2904,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H10" s="6"/>
     </row>
@@ -2917,7 +2928,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H11" s="6"/>
     </row>
@@ -2941,7 +2952,7 @@
         <v>50</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H12" s="6"/>
     </row>
@@ -2965,7 +2976,7 @@
         <v>360</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>20</v>
@@ -2991,7 +3002,7 @@
         <v>450</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>23</v>
@@ -3017,7 +3028,7 @@
         <v>244</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H15" s="6" t="s">
         <v>26</v>
@@ -3043,7 +3054,7 @@
         <v>4</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H16" s="6"/>
     </row>
@@ -3067,7 +3078,7 @@
         <v>20</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H17" s="6"/>
     </row>
@@ -3091,7 +3102,7 @@
         <v>20</v>
       </c>
       <c r="G18" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H18" s="6"/>
     </row>
@@ -3115,7 +3126,7 @@
         <v>60</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H19" s="6"/>
     </row>
@@ -3139,7 +3150,7 @@
         <v>15</v>
       </c>
       <c r="G20" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H20" s="6"/>
     </row>
@@ -3163,7 +3174,7 @@
         <v>350</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H21" s="6" t="s">
         <v>23</v>
@@ -3189,7 +3200,7 @@
         <v>70</v>
       </c>
       <c r="G22" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H22" s="6"/>
     </row>
@@ -3198,7 +3209,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
@@ -3207,7 +3218,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H23" s="6"/>
     </row>
@@ -3231,7 +3242,7 @@
         <v>40</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H24" s="6"/>
     </row>
@@ -3255,7 +3266,7 @@
         <v>30</v>
       </c>
       <c r="G25" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H25" s="6"/>
     </row>
@@ -3279,7 +3290,7 @@
         <v>40</v>
       </c>
       <c r="G26" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H26" s="6" t="s">
         <v>39</v>
@@ -3305,7 +3316,7 @@
         <v>10</v>
       </c>
       <c r="G27" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H27" s="6" t="s">
         <v>40</v>
@@ -3331,7 +3342,7 @@
         <v>40</v>
       </c>
       <c r="G28" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H28" s="6"/>
     </row>
@@ -3355,7 +3366,7 @@
         <v>18</v>
       </c>
       <c r="G29" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H29" s="6"/>
     </row>
@@ -3379,7 +3390,7 @@
         <v>40</v>
       </c>
       <c r="G30" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H30" s="6"/>
     </row>
@@ -3403,7 +3414,7 @@
         <v>270</v>
       </c>
       <c r="G31" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H31" s="6"/>
     </row>
@@ -3427,7 +3438,7 @@
         <v>16</v>
       </c>
       <c r="G32" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H32" s="6"/>
     </row>
@@ -3451,7 +3462,7 @@
         <v>332</v>
       </c>
       <c r="G33" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H33" s="6" t="s">
         <v>49</v>
@@ -3477,7 +3488,7 @@
         <v>10</v>
       </c>
       <c r="G34" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H34" s="6"/>
     </row>
@@ -3501,7 +3512,7 @@
         <v>21</v>
       </c>
       <c r="G35" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H35" s="6"/>
     </row>
@@ -3525,7 +3536,7 @@
         <v>10</v>
       </c>
       <c r="G36" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H36" s="6"/>
     </row>
@@ -3549,7 +3560,7 @@
         <v>36</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H37" s="6"/>
     </row>
@@ -3573,7 +3584,7 @@
         <v>12</v>
       </c>
       <c r="G38" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H38" s="6"/>
     </row>
@@ -3597,7 +3608,7 @@
         <v>15</v>
       </c>
       <c r="G39" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H39" s="6"/>
     </row>
@@ -3621,7 +3632,7 @@
         <v>30</v>
       </c>
       <c r="G40" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H40" s="6"/>
     </row>
@@ -3645,7 +3656,7 @@
         <v>10</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H41" s="6"/>
     </row>
@@ -3669,7 +3680,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H42" s="6"/>
     </row>
@@ -3693,7 +3704,7 @@
         <v>40</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H43" s="6"/>
     </row>
@@ -3717,7 +3728,7 @@
         <v>100</v>
       </c>
       <c r="G44" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H44" s="6"/>
     </row>
@@ -3741,7 +3752,7 @@
         <v>200</v>
       </c>
       <c r="G45" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H45" s="6"/>
     </row>
@@ -3765,7 +3776,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H46" s="6"/>
     </row>
@@ -3785,7 +3796,7 @@
         <v>100</v>
       </c>
       <c r="G47" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H47" s="6"/>
     </row>
@@ -3794,7 +3805,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
@@ -3805,7 +3816,7 @@
         <v>1100</v>
       </c>
       <c r="G48" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H48" s="6"/>
     </row>
@@ -3829,7 +3840,7 @@
         <v>120</v>
       </c>
       <c r="G49" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H49" s="55"/>
     </row>
@@ -3853,7 +3864,7 @@
         <v>50</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H50" s="4"/>
     </row>
@@ -3865,16 +3876,16 @@
       <c r="C51" s="55"/>
       <c r="D51" s="55"/>
       <c r="E51" s="55"/>
-      <c r="F51" s="80">
+      <c r="F51" s="82">
         <f>SUM(F3:F50)</f>
         <v>4562</v>
       </c>
-      <c r="G51" s="81"/>
-      <c r="H51" s="82"/>
+      <c r="G51" s="83"/>
+      <c r="H51" s="84"/>
     </row>
     <row r="67" spans="2:2">
       <c r="B67" s="72" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -3896,8 +3907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3909,17 +3920,17 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="91" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B1" s="91"/>
       <c r="C1" s="91"/>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="82" t="s">
         <v>313</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="82"/>
+      <c r="B2" s="83"/>
+      <c r="C2" s="84"/>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="11" t="s">
@@ -3929,7 +3940,7 @@
         <v>306</v>
       </c>
       <c r="C3" s="43" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3949,20 +3960,20 @@
       <c r="B5" s="74">
         <v>5060</v>
       </c>
-      <c r="C5" s="102" t="s">
-        <v>492</v>
+      <c r="C5" s="80" t="s">
+        <v>490</v>
       </c>
       <c r="D5" s="33"/>
     </row>
     <row r="6" spans="1:4" ht="27">
       <c r="A6" s="25" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B6" s="74">
         <v>2400</v>
       </c>
       <c r="C6" s="77" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D6" s="33"/>
     </row>
@@ -3982,25 +3993,25 @@
     </row>
     <row r="9" spans="1:4" s="7" customFormat="1">
       <c r="A9" s="92" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B9" s="98"/>
       <c r="C9" s="99"/>
     </row>
     <row r="10" spans="1:4" s="7" customFormat="1">
       <c r="A10" s="56" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B10" s="76" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="C10" s="43" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="7" customFormat="1">
       <c r="A11" s="56" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B11" s="75">
         <v>500790.92</v>
@@ -4009,7 +4020,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="43" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B12" s="75">
         <v>83354.98</v>
@@ -4018,7 +4029,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="43" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B13" s="75">
         <v>12397</v>
@@ -4027,7 +4038,7 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="43" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B14" s="75">
         <v>114352</v>
@@ -4036,7 +4047,7 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="46" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B15" s="75">
         <v>17209</v>
@@ -4045,7 +4056,7 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="46" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B16" s="75">
         <v>332021.56</v>
@@ -4054,7 +4065,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="46" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B17" s="75">
         <f>SUM(B11:B16)</f>
@@ -4081,16 +4092,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="1" max="1" width="6.125" customWidth="1"/>
+    <col min="2" max="2" width="27.25" customWidth="1"/>
     <col min="3" max="3" width="7.75" customWidth="1"/>
     <col min="4" max="4" width="7.875" customWidth="1"/>
     <col min="5" max="5" width="7.5" customWidth="1"/>
@@ -4100,16 +4112,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="81" t="s">
         <v>308</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:8" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4137,7 +4149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="30" customHeight="1">
+    <row r="3" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A3" s="6">
         <v>1</v>
       </c>
@@ -4160,11 +4172,11 @@
       <c r="G3" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H3" s="84" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30" customHeight="1">
+      <c r="H3" s="85" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A4" s="6">
         <v>2</v>
       </c>
@@ -4187,9 +4199,9 @@
       <c r="G4" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H4" s="85"/>
-    </row>
-    <row r="5" spans="1:8" ht="30" customHeight="1">
+      <c r="H4" s="86"/>
+    </row>
+    <row r="5" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A5" s="6">
         <v>3</v>
       </c>
@@ -4212,9 +4224,9 @@
       <c r="G5" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H5" s="85"/>
-    </row>
-    <row r="6" spans="1:8" ht="30" customHeight="1">
+      <c r="H5" s="86"/>
+    </row>
+    <row r="6" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A6" s="6">
         <v>4</v>
       </c>
@@ -4237,9 +4249,9 @@
       <c r="G6" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="H6" s="86"/>
-    </row>
-    <row r="7" spans="1:8" ht="30" customHeight="1">
+      <c r="H6" s="87"/>
+    </row>
+    <row r="7" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A7" s="6">
         <v>5</v>
       </c>
@@ -4264,7 +4276,7 @@
       </c>
       <c r="H7" s="6"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1">
+    <row r="8" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A8" s="6">
         <v>6</v>
       </c>
@@ -4289,7 +4301,7 @@
       </c>
       <c r="H8" s="6"/>
     </row>
-    <row r="9" spans="1:8" ht="30" customHeight="1">
+    <row r="9" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A9" s="6">
         <v>7</v>
       </c>
@@ -4314,7 +4326,7 @@
       </c>
       <c r="H9" s="6"/>
     </row>
-    <row r="10" spans="1:8" ht="30" customHeight="1">
+    <row r="10" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A10" s="6">
         <v>8</v>
       </c>
@@ -4339,7 +4351,7 @@
       </c>
       <c r="H10" s="6"/>
     </row>
-    <row r="11" spans="1:8" ht="30" customHeight="1">
+    <row r="11" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A11" s="6">
         <v>9</v>
       </c>
@@ -4364,7 +4376,7 @@
       </c>
       <c r="H11" s="6"/>
     </row>
-    <row r="12" spans="1:8" ht="30" customHeight="1">
+    <row r="12" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A12" s="6">
         <v>10</v>
       </c>
@@ -4389,7 +4401,7 @@
       </c>
       <c r="H12" s="6"/>
     </row>
-    <row r="13" spans="1:8" ht="30" customHeight="1">
+    <row r="13" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A13" s="6">
         <v>11</v>
       </c>
@@ -4447,7 +4459,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="30" customHeight="1">
+    <row r="16" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A16" s="6">
         <v>14</v>
       </c>
@@ -4493,27 +4505,27 @@
       </c>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:10" ht="44.25" customHeight="1">
-      <c r="A18" s="6">
+    <row r="18" spans="1:10" s="40" customFormat="1" ht="44.25" customHeight="1">
+      <c r="A18" s="67">
         <v>16</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="67" t="s">
         <v>88</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6">
+      <c r="C18" s="67"/>
+      <c r="D18" s="67"/>
+      <c r="E18" s="67"/>
+      <c r="F18" s="67">
         <v>68000</v>
       </c>
-      <c r="G18" s="23" t="s">
+      <c r="G18" s="67" t="s">
         <v>221</v>
       </c>
-      <c r="H18" s="47" t="s">
+      <c r="H18" s="102" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="30" customHeight="1">
+    <row r="19" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A19" s="6">
         <v>17</v>
       </c>
@@ -4539,28 +4551,28 @@
         <v>90</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="30" customHeight="1">
-      <c r="A20" s="6">
+    <row r="20" spans="1:10" s="40" customFormat="1" ht="30" customHeight="1">
+      <c r="A20" s="67">
         <v>18</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B20" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6">
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67">
         <v>20015</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" ht="30" customHeight="1">
+      <c r="G20" s="67" t="s">
+        <v>221</v>
+      </c>
+      <c r="H20" s="102" t="s">
+        <v>484</v>
+      </c>
+      <c r="J20" s="103"/>
+    </row>
+    <row r="21" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A21" s="6">
         <v>19</v>
       </c>
@@ -4579,15 +4591,15 @@
       <c r="F21" s="6">
         <v>11271.6</v>
       </c>
-      <c r="G21" s="87" t="s">
+      <c r="G21" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="H21" s="84" t="s">
+      <c r="H21" s="85" t="s">
         <v>366</v>
       </c>
       <c r="J21" s="9"/>
     </row>
-    <row r="22" spans="1:10" ht="30" customHeight="1">
+    <row r="22" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A22" s="6">
         <v>20</v>
       </c>
@@ -4606,11 +4618,13 @@
       <c r="F22" s="6">
         <v>27993</v>
       </c>
-      <c r="G22" s="85"/>
-      <c r="H22" s="85"/>
+      <c r="G22" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H22" s="86"/>
       <c r="J22" s="9"/>
     </row>
-    <row r="23" spans="1:10" ht="30" customHeight="1">
+    <row r="23" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A23" s="6">
         <v>21</v>
       </c>
@@ -4629,11 +4643,13 @@
       <c r="F23" s="6">
         <v>1700</v>
       </c>
-      <c r="G23" s="85"/>
-      <c r="H23" s="85"/>
+      <c r="G23" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H23" s="86"/>
       <c r="J23" s="9"/>
     </row>
-    <row r="24" spans="1:10" ht="30" customHeight="1">
+    <row r="24" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A24" s="6">
         <v>22</v>
       </c>
@@ -4652,11 +4668,13 @@
       <c r="F24" s="6">
         <v>665</v>
       </c>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
+      <c r="G24" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H24" s="86"/>
       <c r="J24" s="9"/>
     </row>
-    <row r="25" spans="1:10" ht="30" customHeight="1">
+    <row r="25" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A25" s="6">
         <v>23</v>
       </c>
@@ -4675,11 +4693,13 @@
       <c r="F25" s="6">
         <v>1167.5</v>
       </c>
-      <c r="G25" s="85"/>
-      <c r="H25" s="85"/>
+      <c r="G25" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H25" s="86"/>
       <c r="J25" s="9"/>
     </row>
-    <row r="26" spans="1:10" ht="30" customHeight="1">
+    <row r="26" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A26" s="6">
         <v>24</v>
       </c>
@@ -4698,11 +4718,13 @@
       <c r="F26" s="6">
         <v>4038</v>
       </c>
-      <c r="G26" s="85"/>
-      <c r="H26" s="85"/>
+      <c r="G26" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H26" s="86"/>
       <c r="J26" s="9"/>
     </row>
-    <row r="27" spans="1:10" ht="30" customHeight="1">
+    <row r="27" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A27" s="6">
         <v>25</v>
       </c>
@@ -4721,11 +4743,13 @@
       <c r="F27" s="6">
         <v>2700</v>
       </c>
-      <c r="G27" s="85"/>
-      <c r="H27" s="85"/>
+      <c r="G27" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H27" s="86"/>
       <c r="J27" s="9"/>
     </row>
-    <row r="28" spans="1:10" ht="30" customHeight="1">
+    <row r="28" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A28" s="6">
         <v>26</v>
       </c>
@@ -4744,11 +4768,13 @@
       <c r="F28" s="6">
         <v>720</v>
       </c>
-      <c r="G28" s="85"/>
-      <c r="H28" s="85"/>
+      <c r="G28" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H28" s="86"/>
       <c r="J28" s="9"/>
     </row>
-    <row r="29" spans="1:10" ht="30" customHeight="1">
+    <row r="29" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A29" s="6">
         <v>27</v>
       </c>
@@ -4767,11 +4793,13 @@
       <c r="F29" s="6">
         <v>684</v>
       </c>
-      <c r="G29" s="85"/>
-      <c r="H29" s="85"/>
+      <c r="G29" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H29" s="86"/>
       <c r="J29" s="9"/>
     </row>
-    <row r="30" spans="1:10" ht="30" customHeight="1">
+    <row r="30" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A30" s="6">
         <v>28</v>
       </c>
@@ -4790,8 +4818,10 @@
       <c r="F30" s="6">
         <v>2272</v>
       </c>
-      <c r="G30" s="86"/>
-      <c r="H30" s="86"/>
+      <c r="G30" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="H30" s="87"/>
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="30" customHeight="1">
@@ -4820,12 +4850,12 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="30" customHeight="1">
+    <row r="32" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A32" s="6">
         <v>30</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C32" s="55"/>
       <c r="D32" s="55"/>
@@ -4834,7 +4864,7 @@
         <v>5000</v>
       </c>
       <c r="G32" s="55" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H32" s="55"/>
     </row>
@@ -4843,7 +4873,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="55" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C33" s="55"/>
       <c r="D33" s="55"/>
@@ -4852,7 +4882,7 @@
         <v>2000</v>
       </c>
       <c r="G33" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H33" s="55"/>
     </row>
@@ -4880,7 +4910,7 @@
       </c>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" hidden="1">
       <c r="A35" s="90" t="s">
         <v>323</v>
       </c>
@@ -4888,12 +4918,12 @@
       <c r="C35" s="91"/>
       <c r="D35" s="91"/>
       <c r="E35" s="91"/>
-      <c r="F35" s="80">
+      <c r="F35" s="82">
         <f>SUM(F3:F34)</f>
         <v>286368.09999999998</v>
       </c>
-      <c r="G35" s="81"/>
-      <c r="H35" s="82"/>
+      <c r="G35" s="83"/>
+      <c r="H35" s="84"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="88"/>
@@ -4904,11 +4934,16 @@
       <c r="F36" s="44"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H35"/>
-  <mergeCells count="7">
+  <autoFilter ref="A2:H35">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="杨晨"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="6">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H21:H30"/>
-    <mergeCell ref="G21:G30"/>
     <mergeCell ref="A36:E36"/>
     <mergeCell ref="A35:E35"/>
     <mergeCell ref="F35:H35"/>
@@ -4923,10 +4958,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4941,16 +4977,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>217</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
     </row>
     <row r="2" spans="1:10" ht="30" customHeight="1">
       <c r="A2" s="5" t="s">
@@ -4978,7 +5014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1">
+    <row r="3" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -4997,15 +5033,15 @@
       <c r="F3" s="6">
         <v>360</v>
       </c>
-      <c r="G3" s="87" t="s">
+      <c r="G3" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="84" t="s">
+      <c r="H3" s="85" t="s">
         <v>225</v>
       </c>
       <c r="J3" s="9"/>
     </row>
-    <row r="4" spans="1:10" ht="30" customHeight="1">
+    <row r="4" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -5024,11 +5060,13 @@
       <c r="F4" s="6">
         <v>1800</v>
       </c>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
+      <c r="G4" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H4" s="86"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1">
+    <row r="5" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -5047,11 +5085,13 @@
       <c r="F5" s="6">
         <v>11800</v>
       </c>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
+      <c r="G5" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H5" s="86"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1">
+    <row r="6" spans="1:10" ht="30" hidden="1" customHeight="1">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -5070,8 +5110,10 @@
       <c r="F6" s="6">
         <v>11900</v>
       </c>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
+      <c r="G6" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="H6" s="87"/>
       <c r="J6" s="9"/>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1">
@@ -5091,7 +5133,7 @@
         <v>361</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1">
@@ -5117,7 +5159,7 @@
         <v>361</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1">
@@ -5233,8 +5275,8 @@
       <c r="F13" s="6">
         <v>17706</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>364</v>
+      <c r="G13" s="23" t="s">
+        <v>365</v>
       </c>
       <c r="H13" s="6" t="s">
         <v>367</v>
@@ -5259,8 +5301,8 @@
       <c r="F14" s="6">
         <v>24160</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>364</v>
+      <c r="G14" s="23" t="s">
+        <v>365</v>
       </c>
       <c r="H14" s="6" t="s">
         <v>368</v>
@@ -5297,8 +5339,8 @@
       <c r="F16" s="6">
         <v>6300</v>
       </c>
-      <c r="G16" s="6" t="s">
-        <v>364</v>
+      <c r="G16" s="23" t="s">
+        <v>365</v>
       </c>
       <c r="H16" s="6" t="s">
         <v>369</v>
@@ -5326,7 +5368,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="30" customHeight="1">
+    <row r="18" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A18" s="5">
         <v>16</v>
       </c>
@@ -5340,13 +5382,13 @@
         <v>5000</v>
       </c>
       <c r="G18" s="23" t="s">
-        <v>370</v>
+        <v>493</v>
       </c>
       <c r="H18" s="47" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" customHeight="1">
+    <row r="19" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A19" s="5">
         <v>17</v>
       </c>
@@ -5383,10 +5425,10 @@
         <v>361</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="30" customHeight="1">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A21" s="5">
         <v>19</v>
       </c>
@@ -5466,7 +5508,7 @@
       </c>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" ht="30" customHeight="1">
+    <row r="25" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A25" s="5">
         <v>23</v>
       </c>
@@ -5486,11 +5528,11 @@
         <v>240</v>
       </c>
       <c r="G25" s="55" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="H25" s="53"/>
     </row>
-    <row r="26" spans="1:8" ht="30" customHeight="1">
+    <row r="26" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A26" s="5">
         <v>24</v>
       </c>
@@ -5508,7 +5550,7 @@
       </c>
       <c r="H26" s="36"/>
     </row>
-    <row r="27" spans="1:8" ht="30" customHeight="1">
+    <row r="27" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A27" s="5">
         <v>25</v>
       </c>
@@ -5528,7 +5570,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="30" customHeight="1">
+    <row r="28" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A28" s="5">
         <v>26</v>
       </c>
@@ -5552,12 +5594,12 @@
       </c>
       <c r="H28" s="36"/>
     </row>
-    <row r="29" spans="1:8" ht="30" customHeight="1">
+    <row r="29" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A29" s="5">
         <v>27</v>
       </c>
       <c r="B29" s="54" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C29" s="54"/>
       <c r="D29" s="55"/>
@@ -5565,30 +5607,32 @@
       <c r="F29" s="55">
         <v>700</v>
       </c>
-      <c r="G29" s="55"/>
+      <c r="G29" s="79" t="s">
+        <v>494</v>
+      </c>
       <c r="H29" s="55"/>
     </row>
-    <row r="30" spans="1:8" ht="30" customHeight="1">
-      <c r="A30" s="5">
+    <row r="30" spans="1:8" s="40" customFormat="1" ht="30" hidden="1" customHeight="1">
+      <c r="A30" s="102">
         <v>28</v>
       </c>
-      <c r="B30" s="54" t="s">
-        <v>380</v>
-      </c>
-      <c r="C30" s="54"/>
-      <c r="D30" s="55"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55">
+      <c r="B30" s="18" t="s">
+        <v>495</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18">
         <v>20000</v>
       </c>
-      <c r="G30" s="55" t="s">
+      <c r="G30" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30" s="18" t="s">
         <v>379</v>
       </c>
-      <c r="H30" s="55" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" s="8" customFormat="1" ht="14.25">
+    </row>
+    <row r="31" spans="1:8" s="8" customFormat="1" ht="14.25" hidden="1">
       <c r="A31" s="5">
         <v>29</v>
       </c>
@@ -5606,7 +5650,7 @@
       </c>
       <c r="H31" s="37"/>
     </row>
-    <row r="32" spans="1:8" ht="30" customHeight="1">
+    <row r="32" spans="1:8" ht="30" hidden="1" customHeight="1">
       <c r="A32" s="90" t="s">
         <v>324</v>
       </c>
@@ -5622,10 +5666,16 @@
       <c r="H32" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <autoFilter ref="A2:H32">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="杨春辉"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <mergeCells count="4">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="H3:H6"/>
-    <mergeCell ref="G3:G6"/>
     <mergeCell ref="A32:E32"/>
     <mergeCell ref="F32:H32"/>
   </mergeCells>
@@ -5640,7 +5690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
@@ -5654,14 +5704,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48.95" customHeight="1">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="81" t="s">
         <v>309</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
     </row>
@@ -5864,7 +5914,7 @@
         <v>221</v>
       </c>
       <c r="F13" s="55" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="36" customHeight="1">
@@ -6040,13 +6090,13 @@
       <c r="A24" s="92" t="s">
         <v>322</v>
       </c>
-      <c r="B24" s="81"/>
-      <c r="C24" s="82"/>
-      <c r="D24" s="80">
+      <c r="B24" s="83"/>
+      <c r="C24" s="84"/>
+      <c r="D24" s="82">
         <v>68600</v>
       </c>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="84"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:F24">
@@ -6068,10 +6118,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H117"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F117" sqref="F117:H117"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6252,7 +6302,7 @@
         <v>400</v>
       </c>
       <c r="G8" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H8" s="24" t="s">
         <v>160</v>
@@ -6278,7 +6328,7 @@
         <v>5440</v>
       </c>
       <c r="G9" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H9" s="24" t="s">
         <v>162</v>
@@ -6326,7 +6376,7 @@
         <v>2832</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H11" s="24" t="s">
         <v>165</v>
@@ -6352,7 +6402,7 @@
         <v>850</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H12" s="24"/>
     </row>
@@ -6376,7 +6426,7 @@
         <v>398</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H13" s="24"/>
     </row>
@@ -6400,10 +6450,10 @@
         <v>1600</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H14" s="49" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.25">
@@ -6424,7 +6474,7 @@
         <v>391</v>
       </c>
       <c r="G15" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H15" s="24"/>
     </row>
@@ -6444,7 +6494,7 @@
         <v>160</v>
       </c>
       <c r="G16" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H16" s="24"/>
     </row>
@@ -6468,7 +6518,7 @@
         <v>1500</v>
       </c>
       <c r="G17" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H17" s="24"/>
     </row>
@@ -6492,7 +6542,7 @@
         <v>4099</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H18" s="24"/>
     </row>
@@ -6516,7 +6566,7 @@
         <v>2799</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="H19" s="24"/>
     </row>
@@ -6560,7 +6610,7 @@
         <v>300</v>
       </c>
       <c r="G21" s="39" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H21" s="39"/>
     </row>
@@ -6584,7 +6634,7 @@
         <v>20</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H22" s="24"/>
     </row>
@@ -6608,7 +6658,7 @@
         <v>46</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="H23" s="24"/>
     </row>
@@ -6632,7 +6682,7 @@
         <v>10</v>
       </c>
       <c r="G24" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H24" s="24"/>
     </row>
@@ -6656,7 +6706,7 @@
         <v>120</v>
       </c>
       <c r="G25" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H25" s="24"/>
     </row>
@@ -6689,7 +6739,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="41" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="C27" s="41" t="s">
         <v>8</v>
@@ -6728,7 +6778,7 @@
         <v>780</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H28" s="24"/>
     </row>
@@ -6752,7 +6802,7 @@
         <v>50</v>
       </c>
       <c r="G29" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H29" s="24"/>
     </row>
@@ -6800,7 +6850,7 @@
         <v>1170</v>
       </c>
       <c r="G31" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H31" s="24"/>
     </row>
@@ -6846,7 +6896,7 @@
         <v>60</v>
       </c>
       <c r="G33" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H33" s="24"/>
     </row>
@@ -6870,7 +6920,7 @@
         <v>21</v>
       </c>
       <c r="G34" s="29" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="H34" s="24"/>
     </row>
@@ -6938,7 +6988,7 @@
         <v>30</v>
       </c>
       <c r="G37" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H37" s="24"/>
     </row>
@@ -6962,7 +7012,7 @@
         <v>39</v>
       </c>
       <c r="G38" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H38" s="24"/>
     </row>
@@ -6986,7 +7036,7 @@
         <v>2400</v>
       </c>
       <c r="G39" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H39" s="24"/>
     </row>
@@ -7010,7 +7060,7 @@
         <v>178</v>
       </c>
       <c r="G40" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H40" s="24"/>
     </row>
@@ -7058,10 +7108,10 @@
         <v>60</v>
       </c>
       <c r="G42" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H42" s="24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="14.25">
@@ -7084,10 +7134,10 @@
         <v>60</v>
       </c>
       <c r="G43" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H43" s="24" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="14.25">
@@ -7110,7 +7160,7 @@
         <v>514</v>
       </c>
       <c r="G44" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H44" s="24"/>
     </row>
@@ -7119,7 +7169,7 @@
         <v>43</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C45" s="29"/>
       <c r="D45" s="29"/>
@@ -7130,7 +7180,7 @@
         <v>240</v>
       </c>
       <c r="G45" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H45" s="24"/>
     </row>
@@ -7139,7 +7189,7 @@
         <v>44</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C46" s="29"/>
       <c r="D46" s="29"/>
@@ -7150,7 +7200,7 @@
         <v>1080</v>
       </c>
       <c r="G46" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H46" s="24"/>
     </row>
@@ -7159,10 +7209,10 @@
         <v>45</v>
       </c>
       <c r="B47" s="29" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="C47" s="29" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D47" s="29">
         <v>1</v>
@@ -7174,7 +7224,7 @@
         <v>50</v>
       </c>
       <c r="G47" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H47" s="24"/>
     </row>
@@ -7183,10 +7233,10 @@
         <v>46</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C48" s="29" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D48" s="29">
         <v>1</v>
@@ -7198,7 +7248,7 @@
         <v>2800</v>
       </c>
       <c r="G48" s="29" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H48" s="24"/>
     </row>
@@ -7222,7 +7272,7 @@
         <v>40</v>
       </c>
       <c r="G49" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H49" s="24"/>
     </row>
@@ -7231,10 +7281,10 @@
         <v>48</v>
       </c>
       <c r="B50" s="24" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C50" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D50" s="24">
         <v>2</v>
@@ -7246,7 +7296,7 @@
         <v>80</v>
       </c>
       <c r="G50" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H50" s="24"/>
     </row>
@@ -7255,10 +7305,10 @@
         <v>49</v>
       </c>
       <c r="B51" s="24" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="C51" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D51" s="24">
         <v>2</v>
@@ -7270,7 +7320,7 @@
         <v>240</v>
       </c>
       <c r="G51" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H51" s="24"/>
     </row>
@@ -7279,10 +7329,10 @@
         <v>50</v>
       </c>
       <c r="B52" s="24" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="C52" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D52" s="24">
         <v>1</v>
@@ -7294,7 +7344,7 @@
         <v>60</v>
       </c>
       <c r="G52" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H52" s="24"/>
     </row>
@@ -7303,10 +7353,10 @@
         <v>51</v>
       </c>
       <c r="B53" s="24" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="C53" s="24" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D53" s="24">
         <v>4</v>
@@ -7318,7 +7368,7 @@
         <v>72</v>
       </c>
       <c r="G53" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H53" s="24"/>
     </row>
@@ -7327,10 +7377,10 @@
         <v>52</v>
       </c>
       <c r="B54" s="24" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="C54" s="24" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D54" s="24">
         <v>1</v>
@@ -7342,7 +7392,7 @@
         <v>260</v>
       </c>
       <c r="G54" s="24" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H54" s="24"/>
     </row>
@@ -7351,10 +7401,10 @@
         <v>53</v>
       </c>
       <c r="B55" s="59" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C55" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D55" s="59">
         <v>1</v>
@@ -7366,7 +7416,7 @@
         <v>12</v>
       </c>
       <c r="G55" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H55" s="59"/>
     </row>
@@ -7375,10 +7425,10 @@
         <v>54</v>
       </c>
       <c r="B56" s="59" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="C56" s="59" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D56" s="59">
         <v>2</v>
@@ -7390,7 +7440,7 @@
         <v>6</v>
       </c>
       <c r="G56" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H56" s="59"/>
     </row>
@@ -7399,10 +7449,10 @@
         <v>55</v>
       </c>
       <c r="B57" s="59" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="C57" s="59" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D57" s="59">
         <v>1</v>
@@ -7414,7 +7464,7 @@
         <v>22</v>
       </c>
       <c r="G57" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H57" s="59"/>
     </row>
@@ -7443,10 +7493,10 @@
         <v>57</v>
       </c>
       <c r="B59" s="59" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C59" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D59" s="59">
         <v>1</v>
@@ -7458,7 +7508,7 @@
         <v>60</v>
       </c>
       <c r="G59" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H59" s="59"/>
     </row>
@@ -7467,10 +7517,10 @@
         <v>58</v>
       </c>
       <c r="B60" s="59" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C60" s="59" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D60" s="59">
         <v>3</v>
@@ -7482,7 +7532,7 @@
         <v>276</v>
       </c>
       <c r="G60" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H60" s="59"/>
     </row>
@@ -7491,10 +7541,10 @@
         <v>59</v>
       </c>
       <c r="B61" s="59" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="C61" s="59" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D61" s="59">
         <v>96</v>
@@ -7504,7 +7554,7 @@
         <v>1000</v>
       </c>
       <c r="G61" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H61" s="59"/>
     </row>
@@ -7513,10 +7563,10 @@
         <v>60</v>
       </c>
       <c r="B62" s="59" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="C62" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D62" s="59">
         <v>96</v>
@@ -7528,10 +7578,10 @@
         <v>16320</v>
       </c>
       <c r="G62" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H62" s="59" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="14.25">
@@ -7539,10 +7589,10 @@
         <v>61</v>
       </c>
       <c r="B63" s="59" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C63" s="59" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="D63" s="59">
         <v>96</v>
@@ -7554,7 +7604,7 @@
         <v>1728</v>
       </c>
       <c r="G63" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H63" s="59"/>
     </row>
@@ -7563,10 +7613,10 @@
         <v>62</v>
       </c>
       <c r="B64" s="59" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="C64" s="59" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D64" s="59">
         <v>2</v>
@@ -7578,7 +7628,7 @@
         <v>31.2</v>
       </c>
       <c r="G64" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H64" s="59"/>
     </row>
@@ -7587,10 +7637,10 @@
         <v>63</v>
       </c>
       <c r="B65" s="59" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C65" s="59" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D65" s="59">
         <v>2</v>
@@ -7602,7 +7652,7 @@
         <v>21.6</v>
       </c>
       <c r="G65" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H65" s="59"/>
     </row>
@@ -7611,10 +7661,10 @@
         <v>64</v>
       </c>
       <c r="B66" s="59" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="C66" s="59" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D66" s="59">
         <v>2</v>
@@ -7626,7 +7676,7 @@
         <v>240</v>
       </c>
       <c r="G66" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H66" s="59"/>
     </row>
@@ -7635,7 +7685,7 @@
         <v>65</v>
       </c>
       <c r="B67" s="71" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C67" s="71" t="s">
         <v>319</v>
@@ -7678,53 +7728,68 @@
       </c>
       <c r="H68" s="42"/>
     </row>
-    <row r="69" spans="1:8" ht="14.25">
+    <row r="69" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A69" s="24">
         <v>67</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" s="40" customFormat="1" ht="14.25">
+      <c r="B69" s="42" t="s">
+        <v>269</v>
+      </c>
+      <c r="C69" s="42" t="s">
+        <v>247</v>
+      </c>
+      <c r="D69" s="42">
+        <v>1</v>
+      </c>
+      <c r="E69" s="42">
+        <v>200</v>
+      </c>
+      <c r="F69" s="42">
+        <v>200</v>
+      </c>
+      <c r="G69" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H69" s="42"/>
+    </row>
+    <row r="70" spans="1:8" ht="14.25">
       <c r="A70" s="24">
         <v>68</v>
       </c>
-      <c r="B70" s="42" t="s">
-        <v>269</v>
-      </c>
-      <c r="C70" s="42" t="s">
-        <v>247</v>
-      </c>
-      <c r="D70" s="42">
-        <v>1</v>
-      </c>
-      <c r="E70" s="42">
-        <v>200</v>
-      </c>
-      <c r="F70" s="42">
-        <v>200</v>
-      </c>
-      <c r="G70" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="H70" s="42"/>
+      <c r="B70" s="59" t="s">
+        <v>419</v>
+      </c>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
+      <c r="E70" s="59"/>
+      <c r="F70" s="59">
+        <v>981</v>
+      </c>
+      <c r="G70" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="H70" s="59" t="s">
+        <v>407</v>
+      </c>
     </row>
     <row r="71" spans="1:8" ht="14.25">
       <c r="A71" s="24">
         <v>69</v>
       </c>
       <c r="B71" s="59" t="s">
-        <v>421</v>
+        <v>399</v>
       </c>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
       <c r="E71" s="59"/>
       <c r="F71" s="59">
-        <v>981</v>
+        <v>500</v>
       </c>
       <c r="G71" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H71" s="59" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="14.25">
@@ -7732,86 +7797,90 @@
         <v>70</v>
       </c>
       <c r="B72" s="59" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
       <c r="C72" s="59"/>
       <c r="D72" s="59"/>
       <c r="E72" s="59"/>
       <c r="F72" s="59">
-        <v>500</v>
+        <v>853</v>
       </c>
       <c r="G72" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H72" s="59" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="14.25">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A73" s="24">
         <v>71</v>
       </c>
-      <c r="B73" s="59" t="s">
-        <v>421</v>
-      </c>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59">
-        <v>853</v>
-      </c>
-      <c r="G73" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="H73" s="59" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" s="40" customFormat="1" ht="14.25">
+      <c r="B73" s="42" t="s">
+        <v>462</v>
+      </c>
+      <c r="C73" s="42" t="s">
+        <v>267</v>
+      </c>
+      <c r="D73" s="42">
+        <v>2</v>
+      </c>
+      <c r="E73" s="42">
+        <v>120</v>
+      </c>
+      <c r="F73" s="42">
+        <v>240</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H73" s="42"/>
+    </row>
+    <row r="74" spans="1:8" ht="14.25">
       <c r="A74" s="24">
         <v>72</v>
       </c>
-      <c r="B74" s="42" t="s">
-        <v>464</v>
-      </c>
-      <c r="C74" s="42" t="s">
-        <v>267</v>
-      </c>
-      <c r="D74" s="42">
-        <v>2</v>
-      </c>
-      <c r="E74" s="42">
-        <v>120</v>
-      </c>
-      <c r="F74" s="42">
-        <v>240</v>
-      </c>
-      <c r="G74" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="H74" s="42"/>
+      <c r="B74" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="C74" s="59" t="s">
+        <v>400</v>
+      </c>
+      <c r="D74" s="59">
+        <v>1</v>
+      </c>
+      <c r="E74" s="59">
+        <v>38.4</v>
+      </c>
+      <c r="F74" s="59">
+        <v>38.4</v>
+      </c>
+      <c r="G74" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="H74" s="59"/>
     </row>
     <row r="75" spans="1:8" ht="14.25">
       <c r="A75" s="24">
         <v>73</v>
       </c>
       <c r="B75" s="59" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C75" s="59" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="D75" s="59">
         <v>1</v>
       </c>
       <c r="E75" s="59">
-        <v>38.4</v>
+        <v>109</v>
       </c>
       <c r="F75" s="59">
-        <v>38.4</v>
+        <v>109</v>
       </c>
       <c r="G75" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H75" s="59"/>
     </row>
@@ -7820,127 +7889,127 @@
         <v>74</v>
       </c>
       <c r="B76" s="59" t="s">
+        <v>422</v>
+      </c>
+      <c r="C76" s="59" t="s">
         <v>423</v>
       </c>
-      <c r="C76" s="59" t="s">
-        <v>397</v>
-      </c>
       <c r="D76" s="59">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E76" s="59">
-        <v>109</v>
+        <v>8</v>
       </c>
       <c r="F76" s="59">
-        <v>109</v>
+        <v>400</v>
       </c>
       <c r="G76" s="59" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="H76" s="59"/>
     </row>
-    <row r="77" spans="1:8" ht="14.25">
+    <row r="77" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A77" s="24">
         <v>75</v>
       </c>
-      <c r="B77" s="59" t="s">
-        <v>424</v>
-      </c>
-      <c r="C77" s="59" t="s">
-        <v>425</v>
-      </c>
-      <c r="D77" s="59">
-        <v>50</v>
-      </c>
-      <c r="E77" s="59">
-        <v>8</v>
-      </c>
-      <c r="F77" s="59">
-        <v>400</v>
-      </c>
-      <c r="G77" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="H77" s="59"/>
+      <c r="B77" s="42" t="s">
+        <v>445</v>
+      </c>
+      <c r="C77" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D77" s="42">
+        <v>1</v>
+      </c>
+      <c r="E77" s="42">
+        <v>60</v>
+      </c>
+      <c r="F77" s="42">
+        <v>60</v>
+      </c>
+      <c r="G77" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H77" s="42"/>
     </row>
     <row r="78" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A78" s="24">
         <v>76</v>
       </c>
-      <c r="B78" s="42" t="s">
-        <v>447</v>
-      </c>
-      <c r="C78" s="42" t="s">
+      <c r="B78" s="68" t="s">
+        <v>301</v>
+      </c>
+      <c r="C78" s="68" t="s">
         <v>319</v>
       </c>
-      <c r="D78" s="42">
+      <c r="D78" s="68">
         <v>1</v>
       </c>
-      <c r="E78" s="42">
-        <v>60</v>
-      </c>
-      <c r="F78" s="42">
-        <v>60</v>
-      </c>
-      <c r="G78" s="42" t="s">
+      <c r="E78" s="68">
+        <v>220</v>
+      </c>
+      <c r="F78" s="68">
+        <v>220</v>
+      </c>
+      <c r="G78" s="68" t="s">
         <v>221</v>
       </c>
-      <c r="H78" s="42"/>
-    </row>
-    <row r="79" spans="1:8" s="40" customFormat="1" ht="14.25">
+      <c r="H78" s="68"/>
+    </row>
+    <row r="79" spans="1:8" ht="14.25">
       <c r="A79" s="24">
         <v>77</v>
       </c>
-      <c r="B79" s="68" t="s">
-        <v>301</v>
-      </c>
-      <c r="C79" s="68" t="s">
-        <v>319</v>
-      </c>
-      <c r="D79" s="68">
-        <v>1</v>
-      </c>
-      <c r="E79" s="68">
-        <v>220</v>
-      </c>
-      <c r="F79" s="68">
-        <v>220</v>
-      </c>
-      <c r="G79" s="68" t="s">
-        <v>221</v>
-      </c>
-      <c r="H79" s="68"/>
-    </row>
-    <row r="80" spans="1:8" ht="14.25">
+      <c r="B79" s="59" t="s">
+        <v>424</v>
+      </c>
+      <c r="C79" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="D79" s="59">
+        <v>2</v>
+      </c>
+      <c r="E79" s="59">
+        <v>88</v>
+      </c>
+      <c r="F79" s="59">
+        <v>176</v>
+      </c>
+      <c r="G79" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="H79" s="59"/>
+    </row>
+    <row r="80" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A80" s="24">
         <v>78</v>
       </c>
-      <c r="B80" s="59" t="s">
-        <v>426</v>
-      </c>
-      <c r="C80" s="59" t="s">
-        <v>408</v>
-      </c>
-      <c r="D80" s="59">
-        <v>2</v>
-      </c>
-      <c r="E80" s="59">
-        <v>88</v>
-      </c>
-      <c r="F80" s="59">
-        <v>176</v>
-      </c>
-      <c r="G80" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="H80" s="59"/>
+      <c r="B80" s="42" t="s">
+        <v>345</v>
+      </c>
+      <c r="C80" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D80" s="42">
+        <v>1</v>
+      </c>
+      <c r="E80" s="42">
+        <v>3</v>
+      </c>
+      <c r="F80" s="42">
+        <v>3</v>
+      </c>
+      <c r="G80" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H80" s="42"/>
     </row>
     <row r="81" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A81" s="24">
         <v>79</v>
       </c>
       <c r="B81" s="42" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C81" s="42" t="s">
         <v>319</v>
@@ -7949,138 +8018,138 @@
         <v>1</v>
       </c>
       <c r="E81" s="42">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="F81" s="42">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G81" s="42" t="s">
         <v>221</v>
       </c>
       <c r="H81" s="42"/>
     </row>
-    <row r="82" spans="1:8" s="40" customFormat="1" ht="14.25">
+    <row r="82" spans="1:8" ht="14.25">
       <c r="A82" s="24">
         <v>80</v>
       </c>
-      <c r="B82" s="42" t="s">
-        <v>346</v>
-      </c>
-      <c r="C82" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="D82" s="42">
-        <v>1</v>
-      </c>
-      <c r="E82" s="42">
-        <v>55</v>
-      </c>
-      <c r="F82" s="42">
-        <v>55</v>
-      </c>
-      <c r="G82" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="H82" s="42"/>
-    </row>
-    <row r="83" spans="1:8" ht="14.25">
+      <c r="B82" s="59" t="s">
+        <v>425</v>
+      </c>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="59">
+        <v>135.30000000000001</v>
+      </c>
+      <c r="G82" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="H82" s="59" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A83" s="24">
         <v>81</v>
       </c>
-      <c r="B83" s="59" t="s">
-        <v>427</v>
-      </c>
-      <c r="C83" s="59"/>
-      <c r="D83" s="59"/>
-      <c r="E83" s="59"/>
-      <c r="F83" s="59">
-        <v>135.30000000000001</v>
-      </c>
-      <c r="G83" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="H83" s="59" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" s="40" customFormat="1" ht="14.25">
+      <c r="B83" s="42" t="s">
+        <v>454</v>
+      </c>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42">
+        <v>164.55</v>
+      </c>
+      <c r="G83" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H83" s="42" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="14.25">
       <c r="A84" s="24">
         <v>82</v>
       </c>
-      <c r="B84" s="42" t="s">
-        <v>456</v>
-      </c>
-      <c r="C84" s="42"/>
-      <c r="D84" s="42"/>
-      <c r="E84" s="42"/>
-      <c r="F84" s="42">
-        <v>164.55</v>
-      </c>
-      <c r="G84" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="H84" s="42" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="14.25">
+      <c r="B84" s="59" t="s">
+        <v>426</v>
+      </c>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="59">
+        <v>30.9</v>
+      </c>
+      <c r="F84" s="59">
+        <v>30.9</v>
+      </c>
+      <c r="G84" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="H84" s="59"/>
+    </row>
+    <row r="85" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A85" s="24">
         <v>83</v>
       </c>
-      <c r="B85" s="59" t="s">
-        <v>428</v>
-      </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="59"/>
-      <c r="E85" s="59">
-        <v>30.9</v>
-      </c>
-      <c r="F85" s="59">
-        <v>30.9</v>
-      </c>
-      <c r="G85" s="59" t="s">
-        <v>390</v>
-      </c>
-      <c r="H85" s="59"/>
+      <c r="B85" s="42" t="s">
+        <v>453</v>
+      </c>
+      <c r="C85" s="42"/>
+      <c r="D85" s="42"/>
+      <c r="E85" s="42"/>
+      <c r="F85" s="42">
+        <v>55</v>
+      </c>
+      <c r="G85" s="42" t="s">
+        <v>221</v>
+      </c>
+      <c r="H85" s="42" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="86" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A86" s="24">
         <v>84</v>
       </c>
       <c r="B86" s="42" t="s">
-        <v>455</v>
-      </c>
-      <c r="C86" s="42"/>
-      <c r="D86" s="42"/>
-      <c r="E86" s="42"/>
+        <v>352</v>
+      </c>
+      <c r="C86" s="42" t="s">
+        <v>319</v>
+      </c>
+      <c r="D86" s="42">
+        <v>1000</v>
+      </c>
+      <c r="E86" s="42">
+        <v>0.125</v>
+      </c>
       <c r="F86" s="42">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="G86" s="42" t="s">
         <v>221</v>
       </c>
-      <c r="H86" s="42" t="s">
-        <v>347</v>
-      </c>
+      <c r="H86" s="42"/>
     </row>
     <row r="87" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A87" s="24">
         <v>85</v>
       </c>
       <c r="B87" s="42" t="s">
-        <v>352</v>
+        <v>452</v>
       </c>
       <c r="C87" s="42" t="s">
         <v>319</v>
       </c>
       <c r="D87" s="42">
-        <v>1000</v>
+        <v>100</v>
       </c>
       <c r="E87" s="42">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="F87" s="42">
-        <v>125</v>
+        <v>20</v>
       </c>
       <c r="G87" s="42" t="s">
         <v>221</v>
@@ -8092,19 +8161,19 @@
         <v>86</v>
       </c>
       <c r="B88" s="42" t="s">
-        <v>454</v>
+        <v>353</v>
       </c>
       <c r="C88" s="42" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="D88" s="42">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="E88" s="42">
-        <v>0.2</v>
+        <v>13</v>
       </c>
       <c r="F88" s="42">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G88" s="42" t="s">
         <v>221</v>
@@ -8116,7 +8185,7 @@
         <v>87</v>
       </c>
       <c r="B89" s="42" t="s">
-        <v>353</v>
+        <v>450</v>
       </c>
       <c r="C89" s="42" t="s">
         <v>249</v>
@@ -8125,10 +8194,10 @@
         <v>1</v>
       </c>
       <c r="E89" s="42">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="F89" s="42">
-        <v>13</v>
+        <v>12.25</v>
       </c>
       <c r="G89" s="42" t="s">
         <v>221</v>
@@ -8140,67 +8209,67 @@
         <v>88</v>
       </c>
       <c r="B90" s="42" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C90" s="42" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="D90" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E90" s="42">
-        <v>12.25</v>
+        <v>50</v>
       </c>
       <c r="F90" s="42">
-        <v>12.25</v>
+        <v>100</v>
       </c>
       <c r="G90" s="42" t="s">
         <v>221</v>
       </c>
       <c r="H90" s="42"/>
     </row>
-    <row r="91" spans="1:8" s="40" customFormat="1" ht="14.25">
+    <row r="91" spans="1:8" s="70" customFormat="1" ht="14.25">
       <c r="A91" s="24">
         <v>89</v>
       </c>
       <c r="B91" s="42" t="s">
-        <v>453</v>
+        <v>354</v>
       </c>
       <c r="C91" s="42" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="D91" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E91" s="42">
-        <v>50</v>
+        <v>13.44</v>
       </c>
       <c r="F91" s="42">
-        <v>100</v>
+        <v>40.32</v>
       </c>
       <c r="G91" s="42" t="s">
         <v>221</v>
       </c>
       <c r="H91" s="42"/>
     </row>
-    <row r="92" spans="1:8" s="70" customFormat="1" ht="14.25">
+    <row r="92" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A92" s="24">
         <v>90</v>
       </c>
       <c r="B92" s="42" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C92" s="42" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="D92" s="42">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E92" s="42">
-        <v>13.44</v>
+        <v>52</v>
       </c>
       <c r="F92" s="42">
-        <v>40.32</v>
+        <v>52</v>
       </c>
       <c r="G92" s="42" t="s">
         <v>221</v>
@@ -8212,19 +8281,19 @@
         <v>91</v>
       </c>
       <c r="B93" s="42" t="s">
-        <v>355</v>
+        <v>447</v>
       </c>
       <c r="C93" s="42" t="s">
-        <v>319</v>
+        <v>249</v>
       </c>
       <c r="D93" s="42">
         <v>1</v>
       </c>
       <c r="E93" s="42">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F93" s="42">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="G93" s="42" t="s">
         <v>221</v>
@@ -8236,19 +8305,19 @@
         <v>92</v>
       </c>
       <c r="B94" s="42" t="s">
-        <v>449</v>
+        <v>360</v>
       </c>
       <c r="C94" s="42" t="s">
-        <v>249</v>
+        <v>319</v>
       </c>
       <c r="D94" s="42">
         <v>1</v>
       </c>
       <c r="E94" s="42">
-        <v>15</v>
+        <v>1400</v>
       </c>
       <c r="F94" s="42">
-        <v>15</v>
+        <v>1400</v>
       </c>
       <c r="G94" s="42" t="s">
         <v>221</v>
@@ -8259,47 +8328,47 @@
       <c r="A95" s="24">
         <v>93</v>
       </c>
-      <c r="B95" s="42" t="s">
-        <v>360</v>
-      </c>
-      <c r="C95" s="42" t="s">
-        <v>319</v>
-      </c>
-      <c r="D95" s="42">
+      <c r="B95" s="66" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D95" s="66">
         <v>1</v>
       </c>
-      <c r="E95" s="42">
-        <v>1400</v>
-      </c>
-      <c r="F95" s="42">
-        <v>1400</v>
-      </c>
-      <c r="G95" s="42" t="s">
-        <v>221</v>
-      </c>
-      <c r="H95" s="42"/>
+      <c r="E95" s="66">
+        <v>520</v>
+      </c>
+      <c r="F95" s="66">
+        <v>520</v>
+      </c>
+      <c r="G95" s="66" t="s">
+        <v>427</v>
+      </c>
+      <c r="H95" s="67"/>
     </row>
     <row r="96" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A96" s="24">
         <v>94</v>
       </c>
       <c r="B96" s="66" t="s">
-        <v>62</v>
+        <v>434</v>
       </c>
       <c r="C96" s="66" t="s">
-        <v>8</v>
+        <v>435</v>
       </c>
       <c r="D96" s="66">
         <v>1</v>
       </c>
       <c r="E96" s="66">
-        <v>520</v>
+        <v>23</v>
       </c>
       <c r="F96" s="66">
-        <v>520</v>
+        <v>23</v>
       </c>
       <c r="G96" s="66" t="s">
-        <v>429</v>
+        <v>436</v>
       </c>
       <c r="H96" s="67"/>
     </row>
@@ -8308,22 +8377,16 @@
         <v>95</v>
       </c>
       <c r="B97" s="66" t="s">
-        <v>436</v>
-      </c>
-      <c r="C97" s="66" t="s">
         <v>437</v>
       </c>
-      <c r="D97" s="66">
-        <v>1</v>
-      </c>
-      <c r="E97" s="66">
-        <v>23</v>
-      </c>
+      <c r="C97" s="66"/>
+      <c r="D97" s="66"/>
+      <c r="E97" s="66"/>
       <c r="F97" s="66">
-        <v>23</v>
+        <v>273.2</v>
       </c>
       <c r="G97" s="66" t="s">
-        <v>438</v>
+        <v>221</v>
       </c>
       <c r="H97" s="67"/>
     </row>
@@ -8332,16 +8395,22 @@
         <v>96</v>
       </c>
       <c r="B98" s="66" t="s">
-        <v>439</v>
-      </c>
-      <c r="C98" s="66"/>
-      <c r="D98" s="66"/>
-      <c r="E98" s="66"/>
+        <v>440</v>
+      </c>
+      <c r="C98" s="66" t="s">
+        <v>441</v>
+      </c>
+      <c r="D98" s="66">
+        <v>4</v>
+      </c>
+      <c r="E98" s="66">
+        <v>140</v>
+      </c>
       <c r="F98" s="66">
-        <v>273.2</v>
+        <v>560</v>
       </c>
       <c r="G98" s="66" t="s">
-        <v>221</v>
+        <v>436</v>
       </c>
       <c r="H98" s="67"/>
     </row>
@@ -8353,19 +8422,19 @@
         <v>442</v>
       </c>
       <c r="C99" s="66" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D99" s="66">
         <v>4</v>
       </c>
       <c r="E99" s="66">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="F99" s="66">
-        <v>560</v>
+        <v>20</v>
       </c>
       <c r="G99" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H99" s="67"/>
     </row>
@@ -8374,22 +8443,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="66" t="s">
-        <v>444</v>
-      </c>
-      <c r="C100" s="66" t="s">
         <v>443</v>
       </c>
-      <c r="D100" s="66">
-        <v>4</v>
-      </c>
-      <c r="E100" s="66">
-        <v>5</v>
-      </c>
+      <c r="C100" s="66"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="66"/>
       <c r="F100" s="66">
-        <v>20</v>
+        <v>135.30000000000001</v>
       </c>
       <c r="G100" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H100" s="67"/>
     </row>
@@ -8398,16 +8461,16 @@
         <v>99</v>
       </c>
       <c r="B101" s="66" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C101" s="66"/>
       <c r="D101" s="66"/>
       <c r="E101" s="66"/>
       <c r="F101" s="66">
-        <v>135.30000000000001</v>
+        <v>62</v>
       </c>
       <c r="G101" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H101" s="67"/>
     </row>
@@ -8422,10 +8485,10 @@
       <c r="D102" s="66"/>
       <c r="E102" s="66"/>
       <c r="F102" s="66">
-        <v>62</v>
+        <v>28</v>
       </c>
       <c r="G102" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H102" s="67"/>
     </row>
@@ -8436,14 +8499,20 @@
       <c r="B103" s="66" t="s">
         <v>448</v>
       </c>
-      <c r="C103" s="66"/>
-      <c r="D103" s="66"/>
-      <c r="E103" s="66"/>
+      <c r="C103" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="D103" s="66">
+        <v>10</v>
+      </c>
+      <c r="E103" s="66">
+        <v>1.8</v>
+      </c>
       <c r="F103" s="66">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="G103" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H103" s="67"/>
     </row>
@@ -8452,22 +8521,22 @@
         <v>102</v>
       </c>
       <c r="B104" s="66" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="C104" s="66" t="s">
-        <v>451</v>
+        <v>456</v>
       </c>
       <c r="D104" s="66">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="E104" s="66">
-        <v>1.8</v>
+        <v>38</v>
       </c>
       <c r="F104" s="66">
-        <v>18</v>
+        <v>152</v>
       </c>
       <c r="G104" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H104" s="67"/>
     </row>
@@ -8476,43 +8545,39 @@
         <v>103</v>
       </c>
       <c r="B105" s="66" t="s">
-        <v>457</v>
-      </c>
-      <c r="C105" s="66" t="s">
         <v>458</v>
       </c>
-      <c r="D105" s="66">
-        <v>4</v>
-      </c>
-      <c r="E105" s="66">
-        <v>38</v>
-      </c>
+      <c r="C105" s="66"/>
+      <c r="D105" s="66"/>
+      <c r="E105" s="66"/>
       <c r="F105" s="66">
-        <v>152</v>
+        <v>113.08</v>
       </c>
       <c r="G105" s="66" t="s">
-        <v>438</v>
-      </c>
-      <c r="H105" s="67"/>
+        <v>436</v>
+      </c>
+      <c r="H105" s="67" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="106" spans="1:8" s="40" customFormat="1" ht="14.25">
       <c r="A106" s="24">
         <v>104</v>
       </c>
       <c r="B106" s="66" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="C106" s="66"/>
       <c r="D106" s="66"/>
       <c r="E106" s="66"/>
       <c r="F106" s="66">
-        <v>113.08</v>
+        <v>79</v>
       </c>
       <c r="G106" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H106" s="67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8526,13 +8591,13 @@
       <c r="D107" s="66"/>
       <c r="E107" s="66"/>
       <c r="F107" s="66">
-        <v>79</v>
+        <v>38.4</v>
       </c>
       <c r="G107" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H107" s="67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="108" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8540,19 +8605,19 @@
         <v>106</v>
       </c>
       <c r="B108" s="66" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="C108" s="66"/>
       <c r="D108" s="66"/>
       <c r="E108" s="66"/>
       <c r="F108" s="66">
-        <v>38.4</v>
+        <v>40</v>
       </c>
       <c r="G108" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H108" s="67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="109" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8560,19 +8625,19 @@
         <v>107</v>
       </c>
       <c r="B109" s="66" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="C109" s="66"/>
       <c r="D109" s="66"/>
       <c r="E109" s="66"/>
       <c r="F109" s="66">
-        <v>40</v>
+        <v>38.9</v>
       </c>
       <c r="G109" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H109" s="67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="110" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8580,19 +8645,19 @@
         <v>108</v>
       </c>
       <c r="B110" s="66" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C110" s="66"/>
       <c r="D110" s="66"/>
       <c r="E110" s="66"/>
       <c r="F110" s="66">
-        <v>38.9</v>
+        <v>695.4</v>
       </c>
       <c r="G110" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H110" s="67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="111" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8600,19 +8665,19 @@
         <v>109</v>
       </c>
       <c r="B111" s="66" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="C111" s="66"/>
       <c r="D111" s="66"/>
       <c r="E111" s="66"/>
       <c r="F111" s="66">
-        <v>695.4</v>
+        <v>194.18</v>
       </c>
       <c r="G111" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H111" s="67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="112" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8620,19 +8685,19 @@
         <v>110</v>
       </c>
       <c r="B112" s="66" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C112" s="66"/>
       <c r="D112" s="66"/>
       <c r="E112" s="66"/>
       <c r="F112" s="66">
-        <v>194.18</v>
+        <v>55</v>
       </c>
       <c r="G112" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H112" s="67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="113" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8640,19 +8705,19 @@
         <v>111</v>
       </c>
       <c r="B113" s="66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C113" s="66"/>
       <c r="D113" s="66"/>
       <c r="E113" s="66"/>
       <c r="F113" s="66">
-        <v>55</v>
+        <v>437.8</v>
       </c>
       <c r="G113" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H113" s="67" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="114" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -8660,88 +8725,68 @@
         <v>112</v>
       </c>
       <c r="B114" s="66" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C114" s="66"/>
       <c r="D114" s="66"/>
       <c r="E114" s="66"/>
       <c r="F114" s="66">
-        <v>437.8</v>
+        <v>17</v>
       </c>
       <c r="G114" s="66" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="H114" s="67" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" s="40" customFormat="1" ht="14.25">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A115" s="24">
         <v>113</v>
       </c>
       <c r="B115" s="66" t="s">
-        <v>468</v>
-      </c>
-      <c r="C115" s="66"/>
-      <c r="D115" s="66"/>
-      <c r="E115" s="66"/>
+        <v>430</v>
+      </c>
+      <c r="C115" s="66" t="s">
+        <v>8</v>
+      </c>
+      <c r="D115" s="66">
+        <v>1</v>
+      </c>
+      <c r="E115" s="66">
+        <v>369</v>
+      </c>
       <c r="F115" s="66">
-        <v>17</v>
+        <v>369</v>
       </c>
       <c r="G115" s="66" t="s">
-        <v>438</v>
-      </c>
-      <c r="H115" s="67" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" s="40" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="A116" s="24">
-        <v>114</v>
-      </c>
-      <c r="B116" s="66" t="s">
-        <v>432</v>
-      </c>
-      <c r="C116" s="66" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="66">
-        <v>1</v>
-      </c>
-      <c r="E116" s="66">
-        <v>369</v>
-      </c>
-      <c r="F116" s="66">
-        <v>369</v>
-      </c>
-      <c r="G116" s="66" t="s">
         <v>221</v>
       </c>
-      <c r="H116" s="67"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="94" t="s">
-        <v>430</v>
-      </c>
-      <c r="B117" s="94"/>
-      <c r="C117" s="94"/>
-      <c r="D117" s="94"/>
-      <c r="E117" s="94"/>
-      <c r="F117" s="94">
-        <f>SUM(F3:F116)</f>
+      <c r="H115" s="67"/>
+    </row>
+    <row r="116" spans="1:8">
+      <c r="A116" s="94" t="s">
+        <v>428</v>
+      </c>
+      <c r="B116" s="94"/>
+      <c r="C116" s="94"/>
+      <c r="D116" s="94"/>
+      <c r="E116" s="94"/>
+      <c r="F116" s="94">
+        <f>SUM(F3:F115)</f>
         <v>83354.979999999981</v>
       </c>
-      <c r="G117" s="94"/>
-      <c r="H117" s="94"/>
+      <c r="G116" s="94"/>
+      <c r="H116" s="94"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:H93">
+  <autoFilter ref="A2:H92">
     <filterColumn colId="6"/>
   </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A117:E117"/>
-    <mergeCell ref="F117:H117"/>
+    <mergeCell ref="A116:E116"/>
+    <mergeCell ref="F116:H116"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8754,7 +8799,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18:E18"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9074,10 +9119,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H46"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46:F46"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53:F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -9091,11 +9136,11 @@
       <c r="A1" s="92" t="s">
         <v>242</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="82"/>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="25" t="s">
@@ -9161,7 +9206,7 @@
         <v>244</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D5" s="11">
         <v>1000</v>
@@ -9341,7 +9386,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B17" s="11" t="s">
         <v>238</v>
@@ -9360,7 +9405,7 @@
     </row>
     <row r="18" spans="1:8" ht="40.5">
       <c r="A18" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>278</v>
@@ -9381,7 +9426,7 @@
     </row>
     <row r="19" spans="1:8" ht="40.5">
       <c r="A19" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B19" s="11" t="s">
         <v>279</v>
@@ -9402,7 +9447,7 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B20" s="11" t="s">
         <v>282</v>
@@ -9421,7 +9466,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B21" s="11" t="s">
         <v>284</v>
@@ -9440,7 +9485,7 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B22" s="11" t="s">
         <v>286</v>
@@ -9459,7 +9504,7 @@
     </row>
     <row r="23" spans="1:8" ht="40.5">
       <c r="A23" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B23" s="11" t="s">
         <v>288</v>
@@ -9480,7 +9525,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B24" s="11" t="s">
         <v>272</v>
@@ -9501,7 +9546,7 @@
     </row>
     <row r="25" spans="1:8" ht="27">
       <c r="A25" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B25" s="11" t="s">
         <v>291</v>
@@ -9522,7 +9567,7 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B26" s="11" t="s">
         <v>338</v>
@@ -9541,7 +9586,7 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B27" s="11" t="s">
         <v>294</v>
@@ -9560,7 +9605,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B28" s="11" t="s">
         <v>294</v>
@@ -9581,7 +9626,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B29" s="11" t="s">
         <v>279</v>
@@ -9602,7 +9647,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B30" s="11" t="s">
         <v>297</v>
@@ -9623,7 +9668,7 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="26">
-        <v>42384</v>
+        <v>42750</v>
       </c>
       <c r="B31" s="11" t="s">
         <v>299</v>
@@ -9653,7 +9698,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="26">
-        <v>42415</v>
+        <v>42781</v>
       </c>
       <c r="B33" s="11" t="s">
         <v>238</v>
@@ -9672,7 +9717,7 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="26">
-        <v>42415</v>
+        <v>42781</v>
       </c>
       <c r="B34" s="11" t="s">
         <v>294</v>
@@ -9690,7 +9735,7 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="26">
-        <v>42415</v>
+        <v>42781</v>
       </c>
       <c r="B35" s="11" t="s">
         <v>279</v>
@@ -9708,13 +9753,13 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="26">
-        <v>42415</v>
+        <v>42781</v>
       </c>
       <c r="B36" s="11" t="s">
         <v>278</v>
       </c>
       <c r="C36" s="25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D36" s="11">
         <v>2000</v>
@@ -9726,7 +9771,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="26">
-        <v>42415</v>
+        <v>42781</v>
       </c>
       <c r="B37" s="11" t="s">
         <v>299</v>
@@ -9744,7 +9789,7 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="26">
-        <v>42415</v>
+        <v>42781</v>
       </c>
       <c r="B38" s="11" t="s">
         <v>339</v>
@@ -9770,7 +9815,7 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="26">
-        <v>42444</v>
+        <v>42809</v>
       </c>
       <c r="B40" s="11" t="s">
         <v>238</v>
@@ -9788,13 +9833,13 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="26">
-        <v>42444</v>
+        <v>42809</v>
       </c>
       <c r="B41" s="11" t="s">
         <v>294</v>
       </c>
       <c r="C41" s="43" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D41" s="11">
         <v>2000</v>
@@ -9806,7 +9851,7 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="26">
-        <v>42444</v>
+        <v>42809</v>
       </c>
       <c r="B42" s="11" t="s">
         <v>279</v>
@@ -9821,18 +9866,18 @@
         <v>315</v>
       </c>
       <c r="F42" s="25" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="26">
-        <v>42444</v>
+        <v>42809</v>
       </c>
       <c r="B43" s="11" t="s">
         <v>278</v>
       </c>
       <c r="C43" s="25" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D43" s="11">
         <v>2000</v>
@@ -9844,7 +9889,7 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="26">
-        <v>42444</v>
+        <v>42809</v>
       </c>
       <c r="B44" s="11" t="s">
         <v>299</v>
@@ -9862,10 +9907,10 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="26">
-        <v>42444</v>
+        <v>42809</v>
       </c>
       <c r="B45" s="11" t="s">
-        <v>339</v>
+        <v>244</v>
       </c>
       <c r="C45" s="11" t="s">
         <v>245</v>
@@ -9879,23 +9924,139 @@
       <c r="F45" s="11"/>
     </row>
     <row r="46" spans="1:8">
-      <c r="A46" s="92" t="s">
+      <c r="A46" s="26"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="26">
+        <v>42840</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D47" s="11">
+        <v>6000</v>
+      </c>
+      <c r="E47" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="26">
+        <v>42840</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>467</v>
+      </c>
+      <c r="D48" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="26">
+        <v>42840</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="D49" s="11">
+        <v>2240</v>
+      </c>
+      <c r="E49" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="26">
+        <v>42840</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="C50" s="25" t="s">
+        <v>468</v>
+      </c>
+      <c r="D50" s="11">
+        <v>2000</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="26">
+        <v>42840</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="D51" s="11">
+        <v>1800</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="26">
+        <v>42840</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>244</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="D52" s="11">
+        <v>1000</v>
+      </c>
+      <c r="E52" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="92" t="s">
         <v>326</v>
       </c>
-      <c r="B46" s="98"/>
-      <c r="C46" s="99"/>
-      <c r="D46" s="80">
-        <f>SUM(D3:D45)</f>
-        <v>114352</v>
-      </c>
-      <c r="E46" s="81"/>
-      <c r="F46" s="82"/>
+      <c r="B53" s="98"/>
+      <c r="C53" s="99"/>
+      <c r="D53" s="82">
+        <f>SUM(D3:D52)</f>
+        <v>129392</v>
+      </c>
+      <c r="E53" s="83"/>
+      <c r="F53" s="84"/>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:F53"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10018,7 +10179,7 @@
         <v>239</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10072,7 +10233,7 @@
         <v>42727</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D8" s="42">
         <v>80</v>
@@ -10335,8 +10496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10464,7 +10625,7 @@
         <v>221</v>
       </c>
       <c r="E8" s="69" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -10472,7 +10633,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C9" s="18">
         <v>4000</v>
@@ -10504,16 +10665,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="18" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C11" s="18">
         <v>1048.5</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E11" s="42" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="F11" s="65"/>
       <c r="G11" s="65"/>
@@ -10524,7 +10685,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="63" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C12" s="63">
         <v>1523.8</v>
@@ -10533,7 +10694,7 @@
         <v>221</v>
       </c>
       <c r="E12" s="63" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="13" spans="1:8" s="40" customFormat="1" ht="14.25">
@@ -10550,7 +10711,7 @@
         <v>221</v>
       </c>
       <c r="E13" s="63" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.25">
@@ -10573,16 +10734,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="78" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C15" s="78">
         <v>996</v>
       </c>
       <c r="D15" s="38" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E15" s="78" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:8" s="40" customFormat="1" ht="14.25">
